--- a/msx3gen/v9978/files/v99x8_spec_registers.xlsx
+++ b/msx3gen/v9978/files/v99x8_spec_registers.xlsx
@@ -12,7 +12,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="11745"/>
   </bookViews>
   <sheets>
-    <sheet name="V9958" sheetId="1" r:id="rId1"/>
+    <sheet name="V9958(CONTROL)" sheetId="1" r:id="rId1"/>
+    <sheet name="V9958(VDP COMMAND)" sheetId="2" r:id="rId2"/>
+    <sheet name="V9958(STATUS)" sheetId="3" r:id="rId3"/>
+    <sheet name="V9990(CONTROL)" sheetId="4" r:id="rId4"/>
+    <sheet name="V9990(VDP COMMAND)" sheetId="5" r:id="rId5"/>
+    <sheet name="V9990(STATUS)" sheetId="6" r:id="rId6"/>
+    <sheet name="V9968 DRAFT1(CONTROL)" sheetId="7" r:id="rId7"/>
+    <sheet name="V9968 DRAFT1(VDP COMMAND)" sheetId="8" r:id="rId8"/>
+    <sheet name="V9968 DRAFT1(STATUS)" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="290">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -581,6 +589,1245 @@
     <rPh sb="30" eb="31">
       <t>イロ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mode Register 2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラー (通常)</t>
+    <rPh sb="5" eb="7">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白黒32階調</t>
+    <rPh sb="0" eb="2">
+      <t>シロクロ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白黒モード（コンポジットビデオ出力にしか作用せず、殆どのMSXで無効）</t>
+    <rPh sb="0" eb="2">
+      <t>シロクロ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ホトン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ムコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプライト無効モード　Sprite Disable</t>
+    <rPh sb="5" eb="7">
+      <t>ムコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非表示</t>
+    <rPh sb="0" eb="3">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>64K x 1bit または 64K x 4bit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16K x 1bit または 16K x 4bit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VRAMとして接続している DRAM の種類指定</t>
+    <rPh sb="7" eb="9">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラーバスの入出力選択</t>
+    <rPh sb="6" eb="9">
+      <t>ニュウシュツリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力（通常）</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラーパレット0の扱い</t>
+    <rPh sb="9" eb="10">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パレット0の色</t>
+    <rPh sb="6" eb="7">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>透明（周辺色に置き換わる）</t>
+    <rPh sb="0" eb="2">
+      <t>トウメイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウヘン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ショク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライトペン (V9938のみ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用する</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用しない（MSXでは常に0）</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マウス（V9938のみ）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mode Register 3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DLCLKモード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PAL (313line)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NTSC (262line)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NTSC/PALモード (RGB出力のみ有効)</t>
+    <rPh sb="16" eb="18">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Even Field/Odd Field で同じ画像を表示</t>
+    <rPh sb="22" eb="23">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Even Field/Odd Field で2枚の画像を交互に表示</t>
+    <rPh sb="23" eb="24">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コウゴ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インターレース表示</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノンインターレース表示</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インターレース表示の選択</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Even/Odd交互表示の選択</t>
+    <rPh sb="8" eb="10">
+      <t>コウゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同期モード(YS信号)</t>
+    <rPh sb="0" eb="2">
+      <t>ドウキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VDPの画面を表示(常にYS=0)</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示画面の透明部分で同期信号 YS=1 を発生</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウメイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ドウキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シンゴウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>常に外部信号を選択(常にYS=1)</t>
+    <rPh sb="0" eb="1">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シンゴウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予約</t>
+    <rPh sb="0" eb="2">
+      <t>ヨヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示ライン数</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>垂直192ライン</t>
+    <rPh sb="0" eb="2">
+      <t>スイチョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>垂直212ライン</t>
+    <rPh sb="0" eb="2">
+      <t>スイチョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Color Table Base Address Register (HIGH)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCREEN1,2,4 のカラーテーブルのアドレスを指定するレジスタ。</t>
+    <rPh sb="26" eb="28">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A5～A0は0固定。A13～A6 は R#3 で指定する。</t>
+    <rPh sb="7" eb="9">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sprite Attribute Table Base Address (HIGH)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCREEN1～12 のスプライトアトリビュートテーブルのアドレスを指定するレジスタ。</t>
+    <rPh sb="34" eb="36">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A8～A0 は 0 固定。A13～A9 は R#5 で指定する。</t>
+    <rPh sb="10" eb="12">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T23</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BC3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BC2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BC1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BC0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Text Color/Back Color Register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCREEN0 WIDTH80 (TEXT2) のモードのブリンク属性付きの色</t>
+    <rPh sb="33" eb="35">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景色</t>
+    <rPh sb="0" eb="3">
+      <t>ハイケイショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前景色</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンケイショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計</t>
+  </si>
+  <si>
+    <t>平均</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>累計</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データの個数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CN3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CN2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CN1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CN0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CF3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CF2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CF1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CF0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Blinking Period Register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCREEN0 WIDTH80 (TEXT2) のモードのブリンク属性付きのブリンク周期</t>
+    <rPh sb="33" eb="35">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シュウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R#7 の色で表示する時間</t>
+    <rPh sb="5" eb="6">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R#12 の色で表示する時間</t>
+    <rPh sb="6" eb="7">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VRAM Access Base Address Register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VRAMアドレスの上位3bit。SCREEN0～3 では無視される。</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ムシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Status Register Pointer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VDPのステータスレジスタ(S#0～S#9)の番号指定。</t>
+    <rPh sb="23" eb="25">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Color Palette Address Register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラーパレットアクセス用のパレット番号指定。</t>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AII</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VDPのレジスタに対して連続アクセスする際のレジスタ番号</t>
+    <rPh sb="9" eb="10">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>レンゾク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0～46 の範囲で指定する。</t>
+    <rPh sb="6" eb="8">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセス時のオートインクリメント指定</t>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オートインクリメントあり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オートインクリメントなし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Display Adjust Register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水平方向の位置指定。-8～+7</t>
+    <rPh sb="0" eb="2">
+      <t>スイヘイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>垂直方向の位置指定。-8～+7</t>
+    <rPh sb="0" eb="2">
+      <t>スイチョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IL7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IL6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IL5</t>
+  </si>
+  <si>
+    <t>IL4</t>
+  </si>
+  <si>
+    <t>IL3</t>
+  </si>
+  <si>
+    <t>IL2</t>
+  </si>
+  <si>
+    <t>IL1</t>
+  </si>
+  <si>
+    <t>IL0</t>
+  </si>
+  <si>
+    <t>Interrupt Line Register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走査線割込 (R#0 bit4 IE1) の割り込み発生ライン番号を指定する。</t>
+    <rPh sb="0" eb="3">
+      <t>ソウサセン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走査線番号ではなく、ライン番号であるため、R#23 の影響を受ける。</t>
+    <rPh sb="0" eb="3">
+      <t>ソウサセン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Color Burst Register 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSXでは書き替えてはならない。</t>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Color Burst Register 2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Color Burst Register 3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DO7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DO6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DO5</t>
+  </si>
+  <si>
+    <t>DO4</t>
+  </si>
+  <si>
+    <t>DO3</t>
+  </si>
+  <si>
+    <t>DO2</t>
+  </si>
+  <si>
+    <t>DO1</t>
+  </si>
+  <si>
+    <t>DO0</t>
+  </si>
+  <si>
+    <t>Display Offset Register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示開始のライン番号を指定する。垂直スクロールレジスタ。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>スイチョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCREEN0 では、フォントのみスクロールするので注意。</t>
+    <rPh sb="26" eb="28">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>欠番</t>
+    <rPh sb="0" eb="2">
+      <t>ケツバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CMD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VDS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YAE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YJK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WTE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SP2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mode Register 4 (V9958)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水平スクロールの画面サイズ指定</t>
+    <rPh sb="0" eb="2">
+      <t>スイヘイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1ページ内</t>
+    <rPh sb="4" eb="5">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2ページ連結</t>
+    <rPh sb="4" eb="6">
+      <t>レンケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左端8画素マスク指定</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダリハシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガソ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスクしない(通常）</t>
+    <rPh sb="7" eb="9">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスクする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウェイト機能無効 (通常)</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウェイト機能有効</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VDPアクセスウェイト機能（CPUからのVRAMアクセスにのみ作用）</t>
+    <rPh sb="11" eb="13">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YJKモード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RGBモード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YJKモード選択</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YAEモード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パレットアトリビュートビットなし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パレットアトリビュートビットあり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VDSモード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8pinは CPUCLK出力</t>
+    <rPh sb="12" eb="14">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8pinは VDS出力</t>
+    <rPh sb="9" eb="11">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VDPコマンドモード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCREEN5～12でのみVDPコマンド使用可能 (通常)</t>
+    <rPh sb="20" eb="22">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCREEN0～4 でもVDPコマンド使用可能</t>
+    <rPh sb="19" eb="21">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HO8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HO7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HO6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HO5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HO4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HO3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Horizontal Scroll Register (HIGH) (V9958)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水平スクロール位置指定</t>
+    <rPh sb="0" eb="2">
+      <t>スイヘイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HO2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HO1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HO0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Horizontal Scroll Register (LOW) (V9958)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -676,7 +1923,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -705,6 +1952,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -987,10 +2237,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K96"/>
+  <dimension ref="B2:K266"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="A230" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J269" sqref="J269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2261,9 +3511,2022 @@
         <v>96</v>
       </c>
     </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B98" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B99" s="2">
+        <v>8</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H99" s="3">
+        <v>0</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K99" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K100" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K104" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="K105" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="K106" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K108" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="K109" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="K110" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K112" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="K113" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="K114" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K116" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="K117" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="K118" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K120" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="K121" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="K122" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="K125" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="K126" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B128" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I128" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J128" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B129" s="2">
+        <v>9</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D129" s="3">
+        <v>0</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K129" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K130" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K134" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="K135" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="K136" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K138" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="K139" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="K140" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="K143" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="K144" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="146" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K146" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="K147" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="148" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="K148" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="149" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="K149" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="150" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="K150" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="152" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K152" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="153" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="K153" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="154" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="K154" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="156" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B156" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G156" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H156" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I156" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J156" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B157" s="2">
+        <v>10</v>
+      </c>
+      <c r="C157" s="3">
+        <v>0</v>
+      </c>
+      <c r="D157" s="3">
+        <v>0</v>
+      </c>
+      <c r="E157" s="3">
+        <v>0</v>
+      </c>
+      <c r="F157" s="3">
+        <v>0</v>
+      </c>
+      <c r="G157" s="3">
+        <v>0</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J157" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K157" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="158" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K158" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="159" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K159" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="161" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B161" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G161" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H161" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I161" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J161" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B162" s="2">
+        <v>11</v>
+      </c>
+      <c r="C162" s="3">
+        <v>0</v>
+      </c>
+      <c r="D162" s="3">
+        <v>0</v>
+      </c>
+      <c r="E162" s="3">
+        <v>0</v>
+      </c>
+      <c r="F162" s="3">
+        <v>0</v>
+      </c>
+      <c r="G162" s="3">
+        <v>0</v>
+      </c>
+      <c r="H162" s="3">
+        <v>0</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K162" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="163" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K163" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="164" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K164" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="166" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B166" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G166" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H166" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I166" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J166" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B167" s="2">
+        <v>12</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D167" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E167" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F167" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="G167" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="H167" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J167" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="K167" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K168" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="G169" t="s">
+        <v>167</v>
+      </c>
+      <c r="H169" t="s">
+        <v>167</v>
+      </c>
+      <c r="I169" t="s">
+        <v>167</v>
+      </c>
+      <c r="J169" t="s">
+        <v>167</v>
+      </c>
+      <c r="K169" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C170" t="s">
+        <v>167</v>
+      </c>
+      <c r="D170" t="s">
+        <v>167</v>
+      </c>
+      <c r="E170" t="s">
+        <v>167</v>
+      </c>
+      <c r="F170" t="s">
+        <v>167</v>
+      </c>
+      <c r="K170" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B172" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G172" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H172" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I172" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J172" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B173" s="2">
+        <v>13</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D173" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E173" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="F173" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="G173" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="H173" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="I173" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J173" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="K173" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="174" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K174" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="175" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="G175" t="s">
+        <v>167</v>
+      </c>
+      <c r="H175" t="s">
+        <v>167</v>
+      </c>
+      <c r="I175" t="s">
+        <v>167</v>
+      </c>
+      <c r="J175" t="s">
+        <v>167</v>
+      </c>
+      <c r="K175" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="176" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C176" t="s">
+        <v>167</v>
+      </c>
+      <c r="D176" t="s">
+        <v>167</v>
+      </c>
+      <c r="E176" t="s">
+        <v>167</v>
+      </c>
+      <c r="F176" t="s">
+        <v>167</v>
+      </c>
+      <c r="K176" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="178" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B178" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G178" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H178" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I178" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J178" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B179" s="2">
+        <v>14</v>
+      </c>
+      <c r="C179" s="3">
+        <v>0</v>
+      </c>
+      <c r="D179" s="3">
+        <v>0</v>
+      </c>
+      <c r="E179" s="3">
+        <v>0</v>
+      </c>
+      <c r="F179" s="3">
+        <v>0</v>
+      </c>
+      <c r="G179" s="3">
+        <v>0</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I179" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J179" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K179" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="180" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K180" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="182" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B182" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G182" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H182" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I182" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J182" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B183" s="2">
+        <v>15</v>
+      </c>
+      <c r="C183" s="3">
+        <v>0</v>
+      </c>
+      <c r="D183" s="3">
+        <v>0</v>
+      </c>
+      <c r="E183" s="3">
+        <v>0</v>
+      </c>
+      <c r="F183" s="3">
+        <v>0</v>
+      </c>
+      <c r="G183" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="H183" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="I183" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J183" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K183" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="184" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K184" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="186" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B186" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G186" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H186" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I186" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J186" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B187" s="2">
+        <v>16</v>
+      </c>
+      <c r="C187" s="3">
+        <v>0</v>
+      </c>
+      <c r="D187" s="3">
+        <v>0</v>
+      </c>
+      <c r="E187" s="3">
+        <v>0</v>
+      </c>
+      <c r="F187" s="3">
+        <v>0</v>
+      </c>
+      <c r="G187" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="H187" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="I187" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J187" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="K187" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="188" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K188" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="190" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B190" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G190" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H190" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I190" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J190" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B191" s="2">
+        <v>17</v>
+      </c>
+      <c r="C191" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D191" s="3">
+        <v>0</v>
+      </c>
+      <c r="E191" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="F191" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="G191" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="H191" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="I191" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J191" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="K191" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="192" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K192" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="193" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E193" t="s">
+        <v>167</v>
+      </c>
+      <c r="F193" t="s">
+        <v>167</v>
+      </c>
+      <c r="G193" t="s">
+        <v>167</v>
+      </c>
+      <c r="H193" t="s">
+        <v>167</v>
+      </c>
+      <c r="I193" t="s">
+        <v>167</v>
+      </c>
+      <c r="J193" t="s">
+        <v>167</v>
+      </c>
+      <c r="K193" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="195" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K195" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="196" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="K196" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="197" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="K197" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="199" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B199" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G199" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H199" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I199" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J199" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B200" s="2">
+        <v>18</v>
+      </c>
+      <c r="C200" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D200" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E200" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F200" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="G200" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="H200" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="I200" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="J200" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="K200" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="202" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="G202" t="s">
+        <v>167</v>
+      </c>
+      <c r="H202" t="s">
+        <v>167</v>
+      </c>
+      <c r="I202" t="s">
+        <v>167</v>
+      </c>
+      <c r="J202" t="s">
+        <v>167</v>
+      </c>
+      <c r="K202" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="203" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C203" t="s">
+        <v>167</v>
+      </c>
+      <c r="D203" t="s">
+        <v>167</v>
+      </c>
+      <c r="E203" t="s">
+        <v>167</v>
+      </c>
+      <c r="F203" t="s">
+        <v>167</v>
+      </c>
+      <c r="K203" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="205" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B205" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E205" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F205" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G205" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H205" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I205" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J205" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B206" s="2">
+        <v>19</v>
+      </c>
+      <c r="C206" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D206" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E206" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F206" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="G206" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="H206" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="I206" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="J206" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="K206" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="207" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K207" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="208" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K208" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="210" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B210" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F210" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G210" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H210" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I210" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J210" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B211" s="2">
+        <v>20</v>
+      </c>
+      <c r="C211" s="3">
+        <v>0</v>
+      </c>
+      <c r="D211" s="3">
+        <v>0</v>
+      </c>
+      <c r="E211" s="3">
+        <v>0</v>
+      </c>
+      <c r="F211" s="3">
+        <v>0</v>
+      </c>
+      <c r="G211" s="3">
+        <v>0</v>
+      </c>
+      <c r="H211" s="3">
+        <v>0</v>
+      </c>
+      <c r="I211" s="3">
+        <v>0</v>
+      </c>
+      <c r="J211" s="3">
+        <v>0</v>
+      </c>
+      <c r="K211" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="212" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K212" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="214" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B214" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G214" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H214" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I214" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J214" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B215" s="2">
+        <v>21</v>
+      </c>
+      <c r="C215" s="3">
+        <v>0</v>
+      </c>
+      <c r="D215" s="3">
+        <v>0</v>
+      </c>
+      <c r="E215" s="3">
+        <v>1</v>
+      </c>
+      <c r="F215" s="3">
+        <v>1</v>
+      </c>
+      <c r="G215" s="3">
+        <v>1</v>
+      </c>
+      <c r="H215" s="3">
+        <v>0</v>
+      </c>
+      <c r="I215" s="3">
+        <v>1</v>
+      </c>
+      <c r="J215" s="3">
+        <v>1</v>
+      </c>
+      <c r="K215" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="216" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K216" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="218" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B218" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F218" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G218" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H218" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I218" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J218" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B219" s="2">
+        <v>22</v>
+      </c>
+      <c r="C219" s="3">
+        <v>0</v>
+      </c>
+      <c r="D219" s="3">
+        <v>0</v>
+      </c>
+      <c r="E219" s="3">
+        <v>0</v>
+      </c>
+      <c r="F219" s="3">
+        <v>0</v>
+      </c>
+      <c r="G219" s="3">
+        <v>0</v>
+      </c>
+      <c r="H219" s="3">
+        <v>1</v>
+      </c>
+      <c r="I219" s="3">
+        <v>0</v>
+      </c>
+      <c r="J219" s="3">
+        <v>1</v>
+      </c>
+      <c r="K219" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="220" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K220" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="222" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B222" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G222" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H222" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I222" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J222" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B223" s="2">
+        <v>23</v>
+      </c>
+      <c r="C223" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D223" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="E223" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F223" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="G223" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="H223" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="I223" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="J223" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="K223" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="224" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K224" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="225" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K225" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="227" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B227" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D227" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E227" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F227" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G227" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H227" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I227" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J227" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B228" s="2">
+        <v>24</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G228" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H228" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I228" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="J228" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="K228" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="230" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B230" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D230" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E230" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F230" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G230" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H230" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I230" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J230" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B231" s="2">
+        <v>25</v>
+      </c>
+      <c r="C231" s="3">
+        <v>0</v>
+      </c>
+      <c r="D231" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="E231" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="F231" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="G231" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="H231" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="I231" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="J231" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="K231" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="232" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K232" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="233" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="234" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J234">
+        <v>1</v>
+      </c>
+      <c r="K234" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="236" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K236" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="237" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="K237" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="238" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="I238">
+        <v>1</v>
+      </c>
+      <c r="K238" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="240" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K240" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="241" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="H241">
+        <v>0</v>
+      </c>
+      <c r="K241" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="242" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="H242">
+        <v>1</v>
+      </c>
+      <c r="K242" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="244" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="K244" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="245" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="G245">
+        <v>0</v>
+      </c>
+      <c r="K245" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="246" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="G246">
+        <v>1</v>
+      </c>
+      <c r="K246" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="248" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="K248" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="249" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="K249" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="250" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="F250">
+        <v>1</v>
+      </c>
+      <c r="K250" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="252" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="K252" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="253" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="K253" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="254" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="K254" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="256" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="K256" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="257" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D257">
+        <v>0</v>
+      </c>
+      <c r="K257" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="258" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D258">
+        <v>1</v>
+      </c>
+      <c r="K258" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="260" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B260" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D260" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E260" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F260" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G260" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H260" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I260" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J260" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="261" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B261" s="2">
+        <v>26</v>
+      </c>
+      <c r="C261" s="3">
+        <v>0</v>
+      </c>
+      <c r="D261" s="3">
+        <v>0</v>
+      </c>
+      <c r="E261" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="F261" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="G261" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="H261" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="I261" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="J261" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="K261" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="262" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K262" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="264" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B264" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D264" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E264" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F264" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G264" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H264" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I264" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J264" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="265" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B265" s="2">
+        <v>27</v>
+      </c>
+      <c r="C265" s="3">
+        <v>0</v>
+      </c>
+      <c r="D265" s="3">
+        <v>0</v>
+      </c>
+      <c r="E265" s="3">
+        <v>0</v>
+      </c>
+      <c r="F265" s="3">
+        <v>0</v>
+      </c>
+      <c r="G265" s="3">
+        <v>0</v>
+      </c>
+      <c r="H265" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="I265" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="J265" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="K265" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="266" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K266" t="s">
+        <v>285</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/msx3gen/v9978/files/v99x8_spec_registers.xlsx
+++ b/msx3gen/v9978/files/v99x8_spec_registers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="11745"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="11745" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="V9958(CONTROL)" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="475">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -1121,21 +1121,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>合計</t>
-  </si>
-  <si>
-    <t>平均</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>累計</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データの個数</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CN3</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1828,6 +1813,852 @@
   </si>
   <si>
     <t>Horizontal Scroll Register (LOW) (V9958)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Source X (LOW)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SX0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SX1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SX2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SX3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SX7</t>
+  </si>
+  <si>
+    <t>SX6</t>
+  </si>
+  <si>
+    <t>SX5</t>
+  </si>
+  <si>
+    <t>SX4</t>
+  </si>
+  <si>
+    <t>SX8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Source X (HIGH)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SY7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SY6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SY5</t>
+  </si>
+  <si>
+    <t>SY4</t>
+  </si>
+  <si>
+    <t>SY3</t>
+  </si>
+  <si>
+    <t>SY2</t>
+  </si>
+  <si>
+    <t>SY1</t>
+  </si>
+  <si>
+    <t>SY0</t>
+  </si>
+  <si>
+    <t>SY8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SY9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Source Y (LOW)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Source Y (HIGH)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Destination X (LOW)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Destination X (HIGH)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Destination Y (LOW)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Destination Y (HIGH)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DX0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DX1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DX7</t>
+  </si>
+  <si>
+    <t>DX6</t>
+  </si>
+  <si>
+    <t>DX5</t>
+  </si>
+  <si>
+    <t>DX4</t>
+  </si>
+  <si>
+    <t>DX3</t>
+  </si>
+  <si>
+    <t>DX2</t>
+  </si>
+  <si>
+    <t>DX8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DY0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DY1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DY7</t>
+  </si>
+  <si>
+    <t>DY6</t>
+  </si>
+  <si>
+    <t>DY5</t>
+  </si>
+  <si>
+    <t>DY4</t>
+  </si>
+  <si>
+    <t>DY3</t>
+  </si>
+  <si>
+    <t>DY2</t>
+  </si>
+  <si>
+    <t>DY8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DY9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NX7</t>
+  </si>
+  <si>
+    <t>NX6</t>
+  </si>
+  <si>
+    <t>NX5</t>
+  </si>
+  <si>
+    <t>NX4</t>
+  </si>
+  <si>
+    <t>NX3</t>
+  </si>
+  <si>
+    <t>NX2</t>
+  </si>
+  <si>
+    <t>NX1</t>
+  </si>
+  <si>
+    <t>NX0</t>
+  </si>
+  <si>
+    <t>NX8</t>
+  </si>
+  <si>
+    <t>NY7</t>
+  </si>
+  <si>
+    <t>NY6</t>
+  </si>
+  <si>
+    <t>NY5</t>
+  </si>
+  <si>
+    <t>NY4</t>
+  </si>
+  <si>
+    <t>NY3</t>
+  </si>
+  <si>
+    <t>NY2</t>
+  </si>
+  <si>
+    <t>NY1</t>
+  </si>
+  <si>
+    <t>NY0</t>
+  </si>
+  <si>
+    <t>NY9</t>
+  </si>
+  <si>
+    <t>NY8</t>
+  </si>
+  <si>
+    <t>Number of Dot X (LOW)</t>
+  </si>
+  <si>
+    <t>Number of Dot X (HIGH)</t>
+  </si>
+  <si>
+    <t>Number of Dot Y (LOW)</t>
+  </si>
+  <si>
+    <t>Number of Dot Y (HIGH)</t>
+  </si>
+  <si>
+    <t>CH3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CH2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CH1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CH0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CL3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CL2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CL1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CL0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Color Register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Argument Register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MAJ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EQ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DIX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DIY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MXS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MXD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MXC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VDPコマンドのパラメータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LO0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LO1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LO2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LO3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CM0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CM1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CM2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CM3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Command Register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Status Register 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Status Register 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Status Register 2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Column Register (LOW)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Column Register (HIGH)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Row Register (LOW)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Row Register (HIGH)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Color Register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Border Register (LOW)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Border Register (HIGH)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BX7</t>
+  </si>
+  <si>
+    <t>BX6</t>
+  </si>
+  <si>
+    <t>BX5</t>
+  </si>
+  <si>
+    <t>BX4</t>
+  </si>
+  <si>
+    <t>BX3</t>
+  </si>
+  <si>
+    <t>BX2</t>
+  </si>
+  <si>
+    <t>BX1</t>
+  </si>
+  <si>
+    <t>BX0</t>
+  </si>
+  <si>
+    <t>BX8</t>
+  </si>
+  <si>
+    <t>C7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C0</t>
+  </si>
+  <si>
+    <t>Y7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y5</t>
+  </si>
+  <si>
+    <t>Y4</t>
+  </si>
+  <si>
+    <t>Y3</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>Y0</t>
+  </si>
+  <si>
+    <t>Y8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5S0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5S1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5S2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5S3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5S4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5th (9th) sprite</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衝突フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>ショウトツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衝突していない</t>
+    <rPh sb="0" eb="2">
+      <t>ショウトツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衝突している（複数のスプライトのドットパターンが重なっている）</t>
+    <rPh sb="0" eb="2">
+      <t>ショウトツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5th (9th) sprite の存在有無</t>
+    <rPh sb="18" eb="20">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ウム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5個(9個)以上並んでいるのを検出した</t>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>垂直帰線割込フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>スイチョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キセン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ワリコミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>垂直帰線割込が発生した(読むとクリアされる）</t>
+    <rPh sb="0" eb="2">
+      <t>スイチョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キセン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ワリコミ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LPS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水平帰線割込フラグ(走査線割込フラグ）</t>
+    <rPh sb="0" eb="2">
+      <t>スイヘイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キセン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ワリコミ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ソウサセン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ワリコミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VDPの識別ID#</t>
+    <rPh sb="4" eb="6">
+      <t>シキベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V9938</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V9958</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライトペン関連。V9938のみ。MSXでは未使用。</t>
+    <rPh sb="5" eb="7">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ミシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水平帰線割込が発生した(読むとクリアされる）</t>
+    <rPh sb="0" eb="2">
+      <t>スイヘイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キセン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ワリコミ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VDPコマンド実行中フラグ</t>
+    <rPh sb="7" eb="10">
+      <t>ジッコウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>停止中</t>
+    <rPh sb="0" eb="3">
+      <t>テイシチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行中</t>
+    <rPh sb="0" eb="3">
+      <t>ジッコウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>even/odd フィールドフラグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>even field</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>odd field</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SERCHコマンド Border検出フラグ</t>
+    <rPh sb="16" eb="18">
+      <t>ケンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定常状態</t>
+    <rPh sb="0" eb="2">
+      <t>テイジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検出した</t>
+    <rPh sb="0" eb="2">
+      <t>ケンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hブランキング期間フラグ</t>
+    <rPh sb="7" eb="9">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hブランキング期間ではない</t>
+    <rPh sb="7" eb="9">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hブランキング期間</t>
+    <rPh sb="7" eb="9">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vブランキング期間フラグ</t>
+    <rPh sb="7" eb="9">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vブランキング期間ではない</t>
+    <rPh sb="7" eb="9">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vブランキング期間</t>
+    <rPh sb="7" eb="9">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>転送準備完了フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>テンソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>転送不可</t>
+    <rPh sb="0" eb="2">
+      <t>テンソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>転送可</t>
+    <rPh sb="0" eb="3">
+      <t>テンソウカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1835,7 +2666,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1853,6 +2684,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1923,7 +2762,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1955,6 +2794,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2239,8 +3084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J269" sqref="J269"/>
+    <sheetView topLeftCell="A221" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J257" sqref="J257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4210,36 +5055,36 @@
         <v>13</v>
       </c>
       <c r="C173" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D173" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E173" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F173" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G173" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="D173" s="10" t="s">
+      <c r="H173" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="E173" s="10" t="s">
+      <c r="I173" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F173" s="10" t="s">
+      <c r="J173" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G173" s="10" t="s">
+      <c r="K173" s="8" t="s">
         <v>178</v>
-      </c>
-      <c r="H173" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="I173" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="J173" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="K173" s="8" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="174" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K174" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="175" spans="2:11" x14ac:dyDescent="0.15">
@@ -4256,7 +5101,7 @@
         <v>167</v>
       </c>
       <c r="K175" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="176" spans="2:11" x14ac:dyDescent="0.15">
@@ -4273,7 +5118,7 @@
         <v>167</v>
       </c>
       <c r="K176" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="178" spans="2:11" x14ac:dyDescent="0.15">
@@ -4334,12 +5179,12 @@
         <v>56</v>
       </c>
       <c r="K179" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="180" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K180" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="182" spans="2:11" x14ac:dyDescent="0.15">
@@ -4388,10 +5233,10 @@
         <v>0</v>
       </c>
       <c r="G183" s="10" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H183" s="10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I183" s="2" t="s">
         <v>126</v>
@@ -4400,12 +5245,12 @@
         <v>127</v>
       </c>
       <c r="K183" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="184" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K184" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="186" spans="2:11" x14ac:dyDescent="0.15">
@@ -4454,24 +5299,24 @@
         <v>0</v>
       </c>
       <c r="G187" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="H187" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="I187" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J187" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K187" s="8" t="s">
         <v>192</v>
-      </c>
-      <c r="H187" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="I187" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="J187" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="K187" s="8" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="188" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K188" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="190" spans="2:11" x14ac:dyDescent="0.15">
@@ -4508,36 +5353,36 @@
         <v>17</v>
       </c>
       <c r="C191" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D191" s="3">
+        <v>0</v>
+      </c>
+      <c r="E191" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F191" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="G191" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="H191" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="D191" s="3">
-        <v>0</v>
-      </c>
-      <c r="E191" s="10" t="s">
+      <c r="I191" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="F191" s="10" t="s">
+      <c r="J191" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="G191" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="H191" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="I191" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="J191" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="K191" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="192" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K192" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="193" spans="2:11" x14ac:dyDescent="0.15">
@@ -4560,12 +5405,12 @@
         <v>167</v>
       </c>
       <c r="K193" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="195" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K195" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="196" spans="2:11" x14ac:dyDescent="0.15">
@@ -4573,7 +5418,7 @@
         <v>0</v>
       </c>
       <c r="K196" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="197" spans="2:11" x14ac:dyDescent="0.15">
@@ -4581,7 +5426,7 @@
         <v>1</v>
       </c>
       <c r="K197" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="199" spans="2:11" x14ac:dyDescent="0.15">
@@ -4618,31 +5463,31 @@
         <v>18</v>
       </c>
       <c r="C200" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D200" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E200" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F200" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="G200" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="D200" s="10" t="s">
+      <c r="H200" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="E200" s="10" t="s">
+      <c r="I200" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F200" s="10" t="s">
+      <c r="J200" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="G200" s="10" t="s">
+      <c r="K200" s="8" t="s">
         <v>214</v>
-      </c>
-      <c r="H200" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="I200" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="J200" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="K200" s="8" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="202" spans="2:11" x14ac:dyDescent="0.15">
@@ -4659,7 +5504,7 @@
         <v>167</v>
       </c>
       <c r="K202" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="203" spans="2:11" x14ac:dyDescent="0.15">
@@ -4676,7 +5521,7 @@
         <v>167</v>
       </c>
       <c r="K203" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="205" spans="2:11" x14ac:dyDescent="0.15">
@@ -4713,41 +5558,41 @@
         <v>19</v>
       </c>
       <c r="C206" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D206" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E206" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F206" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G206" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="D206" s="10" t="s">
+      <c r="H206" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="E206" s="10" t="s">
+      <c r="I206" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="F206" s="10" t="s">
+      <c r="J206" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="G206" s="10" t="s">
+      <c r="K206" s="8" t="s">
         <v>225</v>
-      </c>
-      <c r="H206" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="I206" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="J206" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="K206" s="8" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="207" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K207" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="208" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K208" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="210" spans="2:11" x14ac:dyDescent="0.15">
@@ -4808,12 +5653,12 @@
         <v>0</v>
       </c>
       <c r="K211" s="8" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="212" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K212" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="214" spans="2:11" x14ac:dyDescent="0.15">
@@ -4874,12 +5719,12 @@
         <v>1</v>
       </c>
       <c r="K215" s="8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="216" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K216" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="218" spans="2:11" x14ac:dyDescent="0.15">
@@ -4940,12 +5785,12 @@
         <v>1</v>
       </c>
       <c r="K219" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="220" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K220" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="222" spans="2:11" x14ac:dyDescent="0.15">
@@ -4982,41 +5827,41 @@
         <v>23</v>
       </c>
       <c r="C223" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D223" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E223" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F223" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="G223" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="D223" s="10" t="s">
+      <c r="H223" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="E223" s="10" t="s">
+      <c r="I223" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="F223" s="10" t="s">
+      <c r="J223" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="G223" s="10" t="s">
+      <c r="K223" s="8" t="s">
         <v>240</v>
-      </c>
-      <c r="H223" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="I223" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="J223" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="K223" s="8" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="224" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K224" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="225" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K225" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="227" spans="2:11" x14ac:dyDescent="0.15">
@@ -5053,31 +5898,31 @@
         <v>24</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I228" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J228" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K228" s="8" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="230" spans="2:11" x14ac:dyDescent="0.15">
@@ -5117,33 +5962,33 @@
         <v>0</v>
       </c>
       <c r="D231" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E231" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F231" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="G231" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="H231" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E231" s="10" t="s">
+      <c r="I231" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="F231" s="10" t="s">
+      <c r="J231" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="G231" s="10" t="s">
+      <c r="K231" s="8" t="s">
         <v>252</v>
-      </c>
-      <c r="H231" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="I231" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="J231" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="K231" s="8" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="232" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K232" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="233" spans="2:11" x14ac:dyDescent="0.15">
@@ -5151,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="K233" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="234" spans="2:11" x14ac:dyDescent="0.15">
@@ -5159,12 +6004,12 @@
         <v>1</v>
       </c>
       <c r="K234" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="236" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K236" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="237" spans="2:11" x14ac:dyDescent="0.15">
@@ -5172,7 +6017,7 @@
         <v>0</v>
       </c>
       <c r="K237" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="238" spans="2:11" x14ac:dyDescent="0.15">
@@ -5180,12 +6025,12 @@
         <v>1</v>
       </c>
       <c r="K238" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="240" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K240" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="241" spans="5:11" x14ac:dyDescent="0.15">
@@ -5193,7 +6038,7 @@
         <v>0</v>
       </c>
       <c r="K241" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="242" spans="5:11" x14ac:dyDescent="0.15">
@@ -5201,12 +6046,12 @@
         <v>1</v>
       </c>
       <c r="K242" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="244" spans="5:11" x14ac:dyDescent="0.15">
       <c r="K244" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="245" spans="5:11" x14ac:dyDescent="0.15">
@@ -5214,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="K245" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="246" spans="5:11" x14ac:dyDescent="0.15">
@@ -5222,12 +6067,12 @@
         <v>1</v>
       </c>
       <c r="K246" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="248" spans="5:11" x14ac:dyDescent="0.15">
       <c r="K248" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="249" spans="5:11" x14ac:dyDescent="0.15">
@@ -5235,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="K249" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="250" spans="5:11" x14ac:dyDescent="0.15">
@@ -5243,12 +6088,12 @@
         <v>1</v>
       </c>
       <c r="K250" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="252" spans="5:11" x14ac:dyDescent="0.15">
       <c r="K252" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="253" spans="5:11" x14ac:dyDescent="0.15">
@@ -5256,7 +6101,7 @@
         <v>0</v>
       </c>
       <c r="K253" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="254" spans="5:11" x14ac:dyDescent="0.15">
@@ -5264,12 +6109,12 @@
         <v>1</v>
       </c>
       <c r="K254" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="256" spans="5:11" x14ac:dyDescent="0.15">
       <c r="K256" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="257" spans="2:11" x14ac:dyDescent="0.15">
@@ -5277,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="K257" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="258" spans="2:11" x14ac:dyDescent="0.15">
@@ -5285,7 +6130,7 @@
         <v>1</v>
       </c>
       <c r="K258" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="260" spans="2:11" x14ac:dyDescent="0.15">
@@ -5328,30 +6173,30 @@
         <v>0</v>
       </c>
       <c r="E261" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="F261" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="G261" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="H261" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I261" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="F261" s="10" t="s">
+      <c r="J261" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="G261" s="10" t="s">
+      <c r="K261" s="8" t="s">
         <v>280</v>
-      </c>
-      <c r="H261" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="I261" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="J261" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="K261" s="8" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="262" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K262" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="264" spans="2:11" x14ac:dyDescent="0.15">
@@ -5403,21 +6248,21 @@
         <v>0</v>
       </c>
       <c r="H265" s="10" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="I265" s="10" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="J265" s="10" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K265" s="8" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="266" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K266" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -5429,12 +6274,940 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:K46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="10" width="4.75" customWidth="1"/>
+    <col min="11" max="11" width="61.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B3" s="2">
+        <v>32</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B6" s="2">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B9" s="2">
+        <v>34</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B12" s="2">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B15" s="2">
+        <v>36</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B18" s="2">
+        <v>37</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B21" s="2">
+        <v>38</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B24" s="2">
+        <v>39</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B26" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B27" s="2">
+        <v>40</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B30" s="2">
+        <v>41</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B32" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B33" s="2">
+        <v>42</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B35" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B36" s="2">
+        <v>43</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B38" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B39" s="2">
+        <v>44</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B41" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B42" s="2">
+        <v>45</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K43" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B45" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B46" s="2">
+        <v>46</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5442,14 +7215,1327 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:K78"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K60" sqref="K60"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="10" width="4.75" customWidth="1"/>
+    <col min="11" max="11" width="61.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B4" s="9"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B5" s="9"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B6" s="9"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B7" s="9"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="11" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B8" s="9"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="11" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B9" s="9"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="11" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B10" s="9"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B11" s="9"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="11" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B12" s="9"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="11" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B13" s="9"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="11" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K15" s="12" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B21" s="9"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="11"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B22" s="9"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="11" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B23" s="9"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B24" s="9"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4">
+        <v>1</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B25" s="9"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="11"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B26" s="9"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="11" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B27" s="9"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="11" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B28" s="9"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="11" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B29" s="9"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="11"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B30" s="9"/>
+      <c r="C30" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K31" s="12"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B32" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B33" s="2">
+        <v>2</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B34" s="9"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="11"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B35" s="9"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B36" s="9"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B37" s="9"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4">
+        <v>1</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B38" s="9"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="11"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B39" s="9"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="11" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B40" s="9"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4">
+        <v>0</v>
+      </c>
+      <c r="J40" s="4"/>
+      <c r="K40" s="11" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B41" s="9"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4">
+        <v>1</v>
+      </c>
+      <c r="J41" s="4"/>
+      <c r="K41" s="11" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B42" s="9"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="11"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B43" s="9"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="11" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B44" s="9"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4">
+        <v>0</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="11" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B45" s="9"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B46" s="9"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="11"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B47" s="9"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="11" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B48" s="9"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="11" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B49" s="9"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4">
+        <v>1</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="11" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B50" s="9"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="11"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B51" s="9"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="11" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B52" s="9"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="11" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B53" s="9"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4">
+        <v>1</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="11" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B54" s="9"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="11"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B55" s="9"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="11" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B56" s="9"/>
+      <c r="C56" s="4">
+        <v>0</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="11" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B57" s="9"/>
+      <c r="C57" s="4">
+        <v>1</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="11" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K58" s="12"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B59" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B60" s="2">
+        <v>3</v>
+      </c>
+      <c r="C60" s="10">
+        <v>0</v>
+      </c>
+      <c r="D60" s="10">
+        <v>0</v>
+      </c>
+      <c r="E60" s="10">
+        <v>0</v>
+      </c>
+      <c r="F60" s="10">
+        <v>0</v>
+      </c>
+      <c r="G60" s="10">
+        <v>0</v>
+      </c>
+      <c r="H60" s="10">
+        <v>0</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="J60" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="K60" s="8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B62" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B63" s="2">
+        <v>4</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="J63" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="K63" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B65" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B66" s="2">
+        <v>5</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="J66" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="K66" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B68" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B69" s="2">
+        <v>6</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3">
+        <v>0</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0</v>
+      </c>
+      <c r="H69" s="3">
+        <v>0</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="J69" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B71" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B72" s="2">
+        <v>7</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="J72" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="K72" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B74" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B75" s="2">
+        <v>8</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="J75" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="K75" s="8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B77" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B78" s="2">
+        <v>9</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3">
+        <v>0</v>
+      </c>
+      <c r="G78" s="3">
+        <v>0</v>
+      </c>
+      <c r="H78" s="3">
+        <v>0</v>
+      </c>
+      <c r="I78" s="3">
+        <v>0</v>
+      </c>
+      <c r="J78" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="K78" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/msx3gen/v9978/files/v99x8_spec_registers.xlsx
+++ b/msx3gen/v9978/files/v99x8_spec_registers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="11745" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="11745" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="V9958(CONTROL)" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2559" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2908" uniqueCount="983">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -4395,6 +4395,539 @@
   </si>
   <si>
     <t>P1, P2, B1～5モード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2bpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4bpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8bpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16bpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメージスペースの水平画素数</t>
+    <rPh sb="9" eb="11">
+      <t>スイヘイ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ガソスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>256dot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>512dot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1024dot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2048dot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クロックの選択</t>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CVWA7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CVWA6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CVWA5</t>
+  </si>
+  <si>
+    <t>CVWA4</t>
+  </si>
+  <si>
+    <t>CVWA3</t>
+  </si>
+  <si>
+    <t>CVWA2</t>
+  </si>
+  <si>
+    <t>CVWA1</t>
+  </si>
+  <si>
+    <t>CVWA0</t>
+  </si>
+  <si>
+    <t>CVWA15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CVWA14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CVWA13</t>
+  </si>
+  <si>
+    <t>CVWA12</t>
+  </si>
+  <si>
+    <t>CVWA11</t>
+  </si>
+  <si>
+    <t>CVWA10</t>
+  </si>
+  <si>
+    <t>CVWA9</t>
+  </si>
+  <si>
+    <t>CVWA8</t>
+  </si>
+  <si>
+    <t>CVWAIH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CVWA18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CVWA17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CVWA16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オートインクリメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノンインクリメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CVRA7</t>
+  </si>
+  <si>
+    <t>CVRA6</t>
+  </si>
+  <si>
+    <t>CVRA5</t>
+  </si>
+  <si>
+    <t>CVRA4</t>
+  </si>
+  <si>
+    <t>CVRA3</t>
+  </si>
+  <si>
+    <t>CVRA2</t>
+  </si>
+  <si>
+    <t>CVRA1</t>
+  </si>
+  <si>
+    <t>CVRA0</t>
+  </si>
+  <si>
+    <t>CVRA15</t>
+  </si>
+  <si>
+    <t>CVRA14</t>
+  </si>
+  <si>
+    <t>CVRA13</t>
+  </si>
+  <si>
+    <t>CVRA12</t>
+  </si>
+  <si>
+    <t>CVRA11</t>
+  </si>
+  <si>
+    <t>CVRA10</t>
+  </si>
+  <si>
+    <t>CVRA9</t>
+  </si>
+  <si>
+    <t>CVRA8</t>
+  </si>
+  <si>
+    <t>CVRAIH</t>
+  </si>
+  <si>
+    <t>CVRA18</t>
+  </si>
+  <si>
+    <t>CVRA17</t>
+  </si>
+  <si>
+    <t>CVRA16</t>
+  </si>
+  <si>
+    <t>PLTA5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PLTA4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PLTA3</t>
+  </si>
+  <si>
+    <t>PLTA2</t>
+  </si>
+  <si>
+    <t>PLTA1</t>
+  </si>
+  <si>
+    <t>PLTA0</t>
+  </si>
+  <si>
+    <t>PLTP1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PLTP0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Palette Pointer (Write Only)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VRAM Write Address Register1(Write Only)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VRAM Write Address Register2(Write Only)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VRAM Write Address Register3(Write Only)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VRAM Read Address Register1(Write Only)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VRAM Read Address Register2(Write Only)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VRAM Read Address Register3(Write Only)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>色成分番号</t>
+    <rPh sb="0" eb="1">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>セイブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Red</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Green</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Blue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パレット番号 0～63</t>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCAY7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCAY6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCAY5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCAY4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCAY3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCAY2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCAY1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCAY0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scroll Control Register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R512</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R256</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCAY12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCAY11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCAY10</t>
+  </si>
+  <si>
+    <t>SCAY9</t>
+  </si>
+  <si>
+    <t>SCAY8</t>
+  </si>
+  <si>
+    <t>イメージスペースサイズの垂直循環</t>
+    <rPh sb="12" eb="14">
+      <t>スイチョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジュンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>256ラインで循環</t>
+    <rPh sb="7" eb="9">
+      <t>ジュンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>512ラインで循環</t>
+    <rPh sb="7" eb="9">
+      <t>ジュンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCAX2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCAX1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCAX0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCAX10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCAX9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCAX8</t>
+  </si>
+  <si>
+    <t>SCAX7</t>
+  </si>
+  <si>
+    <t>SCAX6</t>
+  </si>
+  <si>
+    <t>SCAX5</t>
+  </si>
+  <si>
+    <t>SCAX4</t>
+  </si>
+  <si>
+    <t>SCAX3</t>
+  </si>
+  <si>
+    <t>SCBY7</t>
+  </si>
+  <si>
+    <t>SCBY6</t>
+  </si>
+  <si>
+    <t>SCBY5</t>
+  </si>
+  <si>
+    <t>SCBY4</t>
+  </si>
+  <si>
+    <t>SCBY3</t>
+  </si>
+  <si>
+    <t>SCBY2</t>
+  </si>
+  <si>
+    <t>SCBY1</t>
+  </si>
+  <si>
+    <t>SCBY0</t>
+  </si>
+  <si>
+    <t>SCBY8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCBX2</t>
+  </si>
+  <si>
+    <t>SCBX1</t>
+  </si>
+  <si>
+    <t>SCBX0</t>
+  </si>
+  <si>
+    <t>SCBX10</t>
+  </si>
+  <si>
+    <t>SCBX9</t>
+  </si>
+  <si>
+    <t>SCBX8</t>
+  </si>
+  <si>
+    <t>SCBX7</t>
+  </si>
+  <si>
+    <t>SCBX6</t>
+  </si>
+  <si>
+    <t>SCBX5</t>
+  </si>
+  <si>
+    <t>SCBX4</t>
+  </si>
+  <si>
+    <t>SCBX3</t>
+  </si>
+  <si>
+    <t>SGBA17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SGBA16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SGBA15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sprite Pattern Generator Table Base Address (P1 Mode)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SGBA18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sprite Pattern Generator Table Base Address (P2 Mode)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VRI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PNSL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PLV0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PDUAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PNEN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LCD Control Register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PRY1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PRY0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PRX1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PRX0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Priority Control Register</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5539,7 +6072,7 @@
   <dimension ref="B2:K266"/>
   <sheetViews>
     <sheetView topLeftCell="A185" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B205" sqref="B205:K208"/>
+      <selection activeCell="B199" sqref="B199:K203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10995,9 +11528,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K155"/>
+  <dimension ref="B2:K235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -11038,1388 +11573,2796 @@
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>852</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>854</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>855</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>856</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>857</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>858</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>859</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>499</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>505</v>
+      <c r="I5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>861</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>862</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>863</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>864</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>865</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>866</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>867</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+      <c r="B8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>868</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>869</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>870</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>871</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+      <c r="B14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>874</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>875</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>876</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>877</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>878</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>879</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>880</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>881</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>882</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>883</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>884</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>885</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>886</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>887</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>888</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>889</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
+      <c r="B20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
+      <c r="B21" s="2">
+        <v>5</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>890</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>891</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>892</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>893</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C23">
+        <v>0</v>
+      </c>
       <c r="K23" t="s">
-        <v>510</v>
+        <v>872</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B26" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B27" s="2">
+        <v>6</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="K35" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="K41" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="K47" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="K48" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="K25" t="s">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="K49" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="K26" t="s">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="K27" t="s">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="K51" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B29" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="5" t="s">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B53" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E53" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F53" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G53" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H53" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I53" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J53" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B30" s="2">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B54" s="2">
         <v>7</v>
       </c>
-      <c r="C30" s="10">
-        <v>0</v>
-      </c>
-      <c r="D30" s="10" t="s">
+      <c r="C54" s="10">
+        <v>0</v>
+      </c>
+      <c r="D54" s="10" t="s">
         <v>822</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E54" s="10" t="s">
         <v>823</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F54" s="10" t="s">
         <v>824</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G54" s="10" t="s">
         <v>825</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H54" s="10" t="s">
         <v>826</v>
       </c>
-      <c r="I30" s="10" t="s">
+      <c r="I54" s="10" t="s">
         <v>827</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="J54" s="10" t="s">
         <v>828</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="K54" s="8" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K32" t="s">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K56" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="33" spans="7:11" x14ac:dyDescent="0.15">
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33" t="s">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="34" spans="7:11" x14ac:dyDescent="0.15">
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34" t="s">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="36" spans="7:11" x14ac:dyDescent="0.15">
-      <c r="K36" t="s">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K60" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="37" spans="7:11" x14ac:dyDescent="0.15">
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="K37" t="s">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="K61" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="38" spans="7:11" x14ac:dyDescent="0.15">
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="K38" t="s">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="K62" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="41" spans="7:11" x14ac:dyDescent="0.15">
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="K41" t="s">
+    <row r="65" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="K65" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="42" spans="7:11" x14ac:dyDescent="0.15">
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="K42" t="s">
+    <row r="66" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="K66" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="45" spans="7:11" x14ac:dyDescent="0.15">
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="K45" t="s">
+    <row r="69" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="K69" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="46" spans="7:11" x14ac:dyDescent="0.15">
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="K46" t="s">
+    <row r="70" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="K70" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="K49" t="s">
+    <row r="73" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="K73" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="K50" t="s">
+    <row r="74" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="K74" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="K53" t="s">
+    <row r="77" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="K77" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="K54" t="s">
+    <row r="78" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="K78" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="K57" t="s">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="K81" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="K58" t="s">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="K82" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B63" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63" s="5" t="s">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B87" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E87" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F87" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="G87" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H63" s="5" t="s">
+      <c r="H87" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I63" s="5" t="s">
+      <c r="I87" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J63" s="7" t="s">
+      <c r="J87" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B64" s="2">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B88" s="2">
         <v>8</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C88" s="10" t="s">
         <v>794</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D88" s="10" t="s">
         <v>795</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="E88" s="10" t="s">
         <v>796</v>
       </c>
-      <c r="F64" s="10" t="s">
+      <c r="F88" s="10" t="s">
         <v>797</v>
       </c>
-      <c r="G64" s="10" t="s">
+      <c r="G88" s="10" t="s">
         <v>798</v>
       </c>
-      <c r="H64" s="10" t="s">
+      <c r="H88" s="10" t="s">
         <v>799</v>
       </c>
-      <c r="I64" s="10" t="s">
+      <c r="I88" s="10" t="s">
         <v>800</v>
       </c>
-      <c r="J64" s="10" t="s">
+      <c r="J88" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="K64" s="8" t="s">
+      <c r="K88" s="8" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B65" s="9"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="11"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B66" s="9"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="11" t="s">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B89" s="9"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="11"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B90" s="9"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="11" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B67" s="9"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4">
-        <v>0</v>
-      </c>
-      <c r="J67" s="4">
-        <v>0</v>
-      </c>
-      <c r="K67" s="11" t="s">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B91" s="9"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4">
+        <v>0</v>
+      </c>
+      <c r="J91" s="4">
+        <v>0</v>
+      </c>
+      <c r="K91" s="11" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B68" s="9"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4">
-        <v>0</v>
-      </c>
-      <c r="J68" s="4">
-        <v>1</v>
-      </c>
-      <c r="K68" s="11" t="s">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B92" s="9"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4">
+        <v>0</v>
+      </c>
+      <c r="J92" s="4">
+        <v>1</v>
+      </c>
+      <c r="K92" s="11" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B69" s="9"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4">
-        <v>1</v>
-      </c>
-      <c r="J69" s="4">
-        <v>0</v>
-      </c>
-      <c r="K69" s="11" t="s">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B93" s="9"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4">
+        <v>1</v>
+      </c>
+      <c r="J93" s="4">
+        <v>0</v>
+      </c>
+      <c r="K93" s="11" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B70" s="9"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4">
-        <v>1</v>
-      </c>
-      <c r="J70" s="4">
-        <v>1</v>
-      </c>
-      <c r="K70" s="11" t="s">
+    <row r="94" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B94" s="9"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4">
+        <v>1</v>
+      </c>
+      <c r="J94" s="4">
+        <v>1</v>
+      </c>
+      <c r="K94" s="11" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B71" s="9"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="11"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B72" s="9"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="11" t="s">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B95" s="9"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="11"/>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B96" s="9"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="11" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B73" s="9"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4">
-        <v>0</v>
-      </c>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="11" t="s">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B97" s="9"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4">
+        <v>0</v>
+      </c>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="11" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B74" s="9"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4">
-        <v>1</v>
-      </c>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="11" t="s">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B98" s="9"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4">
+        <v>1</v>
+      </c>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="11" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B75" s="9"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="11"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B76" s="9"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="11" t="s">
+    <row r="99" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B99" s="9"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="11"/>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B100" s="9"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="11" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B77" s="9"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4">
-        <v>0</v>
-      </c>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="11"/>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B78" s="9"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4">
-        <v>1</v>
-      </c>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="11"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B79" s="9"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="11"/>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B80" s="9"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="11" t="s">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B101" s="9"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4">
+        <v>0</v>
+      </c>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="11"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B102" s="9"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4">
+        <v>1</v>
+      </c>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="11"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B103" s="9"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="11"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B104" s="9"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="11" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B81" s="9"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4">
-        <v>0</v>
-      </c>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="11" t="s">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B105" s="9"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4">
+        <v>0</v>
+      </c>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="11" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B82" s="9"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4">
-        <v>1</v>
-      </c>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="11" t="s">
+    <row r="106" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B106" s="9"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4">
+        <v>1</v>
+      </c>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="11" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K83" s="12"/>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K84" s="12" t="s">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K107" s="12"/>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K108" s="12" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="K85" s="12" t="s">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="K109" s="12" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="K86" s="12" t="s">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="K110" s="12" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K87" s="12"/>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K88" s="12" t="s">
+    <row r="111" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K111" s="12"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K112" s="12" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="K89" s="12" t="s">
+    <row r="113" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="K113" s="12" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D90">
-        <v>1</v>
-      </c>
-      <c r="K90" s="12" t="s">
+    <row r="114" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="K114" s="12" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K91" s="12"/>
-    </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K92" s="12" t="s">
+    <row r="115" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K115" s="12"/>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K116" s="12" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="K93" s="12" t="s">
+    <row r="117" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="K117" s="12" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C94">
-        <v>1</v>
-      </c>
-      <c r="K94" s="12" t="s">
+    <row r="118" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="K118" s="12" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K95" s="12"/>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K96" s="12"/>
-    </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B97" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D97" s="5" t="s">
+    <row r="119" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K119" s="12"/>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K120" s="12"/>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B121" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D121" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="E121" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F97" s="5" t="s">
+      <c r="F121" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G97" s="5" t="s">
+      <c r="G121" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H97" s="5" t="s">
+      <c r="H121" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I97" s="5" t="s">
+      <c r="I121" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J97" s="7" t="s">
+      <c r="J121" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B98" s="2">
+    <row r="122" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B122" s="2">
         <v>9</v>
       </c>
-      <c r="C98" s="3">
-        <v>0</v>
-      </c>
-      <c r="D98" s="3">
-        <v>0</v>
-      </c>
-      <c r="E98" s="3">
-        <v>0</v>
-      </c>
-      <c r="F98" s="3">
-        <v>0</v>
-      </c>
-      <c r="G98" s="3">
-        <v>0</v>
-      </c>
-      <c r="H98" s="10" t="s">
+      <c r="C122" s="3">
+        <v>0</v>
+      </c>
+      <c r="D122" s="3">
+        <v>0</v>
+      </c>
+      <c r="E122" s="3">
+        <v>0</v>
+      </c>
+      <c r="F122" s="3">
+        <v>0</v>
+      </c>
+      <c r="G122" s="3">
+        <v>0</v>
+      </c>
+      <c r="H122" s="10" t="s">
         <v>772</v>
       </c>
-      <c r="I98" s="10" t="s">
+      <c r="I122" s="10" t="s">
         <v>773</v>
       </c>
-      <c r="J98" s="10" t="s">
+      <c r="J122" s="10" t="s">
         <v>774</v>
       </c>
-      <c r="K98" s="15" t="s">
+      <c r="K122" s="15" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K100" t="s">
+    <row r="124" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K124" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="J101">
-        <v>0</v>
-      </c>
-      <c r="K101" t="s">
+    <row r="125" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="J102">
-        <v>1</v>
-      </c>
-      <c r="K102" t="s">
+    <row r="126" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K104" t="s">
+    <row r="128" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K128" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="I105">
-        <v>0</v>
-      </c>
-      <c r="K105" t="s">
+    <row r="129" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="K129" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="I106">
-        <v>1</v>
-      </c>
-      <c r="K106" t="s">
+    <row r="130" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="K130" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K108" t="s">
+    <row r="132" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K132" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="H109">
-        <v>0</v>
-      </c>
-      <c r="K109" t="s">
+    <row r="133" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="K133" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="H110">
-        <v>1</v>
-      </c>
-      <c r="K110" t="s">
+    <row r="134" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="K134" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B112" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D112" s="5" t="s">
+    <row r="136" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B136" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D136" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E112" s="5" t="s">
+      <c r="E136" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F112" s="5" t="s">
+      <c r="F136" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G112" s="5" t="s">
+      <c r="G136" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H112" s="5" t="s">
+      <c r="H136" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I112" s="5" t="s">
+      <c r="I136" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J112" s="7" t="s">
+      <c r="J136" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B113" s="2">
+    <row r="137" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B137" s="2">
         <v>10</v>
       </c>
-      <c r="C113" s="10" t="s">
+      <c r="C137" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="D113" s="10" t="s">
+      <c r="D137" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="E113" s="10" t="s">
+      <c r="E137" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="F113" s="10" t="s">
+      <c r="F137" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="G113" s="10" t="s">
+      <c r="G137" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="H113" s="10" t="s">
+      <c r="H137" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="I113" s="10" t="s">
+      <c r="I137" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="J113" s="10" t="s">
+      <c r="J137" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="K113" s="8" t="s">
+      <c r="K137" s="8" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K114" t="s">
+    <row r="138" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K138" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K115" t="s">
+    <row r="139" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K139" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B117" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D117" s="5" t="s">
+    <row r="141" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B141" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D141" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E117" s="5" t="s">
+      <c r="E141" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F117" s="5" t="s">
+      <c r="F141" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G117" s="5" t="s">
+      <c r="G141" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H117" s="5" t="s">
+      <c r="H141" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I117" s="5" t="s">
+      <c r="I141" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J117" s="7" t="s">
+      <c r="J141" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B118" s="2">
+    <row r="142" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B142" s="2">
         <v>11</v>
       </c>
-      <c r="C118" s="10" t="s">
+      <c r="C142" s="10" t="s">
         <v>781</v>
       </c>
-      <c r="D118" s="3">
-        <v>0</v>
-      </c>
-      <c r="E118" s="3">
-        <v>0</v>
-      </c>
-      <c r="F118" s="3">
-        <v>0</v>
-      </c>
-      <c r="G118" s="3">
-        <v>0</v>
-      </c>
-      <c r="H118" s="3">
-        <v>0</v>
-      </c>
-      <c r="I118" s="10" t="s">
+      <c r="D142" s="3">
+        <v>0</v>
+      </c>
+      <c r="E142" s="3">
+        <v>0</v>
+      </c>
+      <c r="F142" s="3">
+        <v>0</v>
+      </c>
+      <c r="G142" s="3">
+        <v>0</v>
+      </c>
+      <c r="H142" s="3">
+        <v>0</v>
+      </c>
+      <c r="I142" s="10" t="s">
         <v>782</v>
       </c>
-      <c r="J118" s="10" t="s">
+      <c r="J142" s="10" t="s">
         <v>783</v>
       </c>
-      <c r="K118" s="8" t="s">
+      <c r="K142" s="8" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="I120" t="s">
+    <row r="144" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="I144" t="s">
         <v>483</v>
       </c>
-      <c r="J120" t="s">
+      <c r="J144" t="s">
         <v>483</v>
       </c>
-      <c r="K120" t="s">
+      <c r="K144" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K122" t="s">
+    <row r="146" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K146" t="s">
         <v>786</v>
-      </c>
-    </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C123">
-        <v>0</v>
-      </c>
-      <c r="K123" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C124">
-        <v>1</v>
-      </c>
-      <c r="K124" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B126" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F126" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G126" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H126" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I126" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J126" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B127" s="2">
-        <v>12</v>
-      </c>
-      <c r="C127" s="3">
-        <v>0</v>
-      </c>
-      <c r="D127" s="3">
-        <v>0</v>
-      </c>
-      <c r="E127" s="3">
-        <v>0</v>
-      </c>
-      <c r="F127" s="3">
-        <v>0</v>
-      </c>
-      <c r="G127" s="10" t="s">
-        <v>792</v>
-      </c>
-      <c r="H127" s="10" t="s">
-        <v>791</v>
-      </c>
-      <c r="I127" s="10" t="s">
-        <v>790</v>
-      </c>
-      <c r="J127" s="10" t="s">
-        <v>789</v>
-      </c>
-      <c r="K127" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K129" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B131" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F131" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G131" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H131" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I131" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J131" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B132" s="2">
-        <v>13</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="D132" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="E132" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="F132" s="10" t="s">
-        <v>477</v>
-      </c>
-      <c r="G132" s="10" t="s">
-        <v>478</v>
-      </c>
-      <c r="H132" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="I132" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="J132" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="K132" s="8" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G135" t="s">
-        <v>483</v>
-      </c>
-      <c r="H135" t="s">
-        <v>483</v>
-      </c>
-      <c r="I135" t="s">
-        <v>483</v>
-      </c>
-      <c r="J135" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="F138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="F139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K141" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E142">
-        <v>0</v>
-      </c>
-      <c r="K142" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E143">
-        <v>1</v>
-      </c>
-      <c r="K143" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C146">
-        <v>0</v>
-      </c>
-      <c r="D146">
-        <v>0</v>
       </c>
     </row>
     <row r="147" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C147">
         <v>0</v>
       </c>
-      <c r="D147">
-        <v>1</v>
+      <c r="K147" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="148" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C148">
         <v>1</v>
       </c>
-      <c r="D148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C149">
-        <v>1</v>
-      </c>
-      <c r="D149">
-        <v>1</v>
+      <c r="K148" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="150" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B150" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H150" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I150" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J150" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="151" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B151" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D151" s="5" t="s">
+      <c r="B151" s="2">
+        <v>12</v>
+      </c>
+      <c r="C151" s="3">
+        <v>0</v>
+      </c>
+      <c r="D151" s="3">
+        <v>0</v>
+      </c>
+      <c r="E151" s="3">
+        <v>0</v>
+      </c>
+      <c r="F151" s="3">
+        <v>0</v>
+      </c>
+      <c r="G151" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="H151" s="10" t="s">
+        <v>791</v>
+      </c>
+      <c r="I151" s="10" t="s">
+        <v>790</v>
+      </c>
+      <c r="J151" s="10" t="s">
+        <v>789</v>
+      </c>
+      <c r="K151" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="153" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K153" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="155" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B155" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D155" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E151" s="5" t="s">
+      <c r="E155" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F151" s="5" t="s">
+      <c r="F155" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G151" s="5" t="s">
+      <c r="G155" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H151" s="5" t="s">
+      <c r="H155" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I151" s="5" t="s">
+      <c r="I155" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J151" s="5" t="s">
+      <c r="J155" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B152" s="2">
+    <row r="156" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B156" s="2">
+        <v>13</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="D156" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="E156" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="F156" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="G156" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="H156" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="I156" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="J156" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="K156" s="8" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="159" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="G159" t="s">
+        <v>483</v>
+      </c>
+      <c r="H159" t="s">
+        <v>483</v>
+      </c>
+      <c r="I159" t="s">
+        <v>483</v>
+      </c>
+      <c r="J159" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="162" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="F162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="F163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K165" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="166" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="K166" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="167" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="K167" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="170" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B175" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G175" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H175" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I175" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J175" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B176" s="2">
+        <v>14</v>
+      </c>
+      <c r="C176" s="10" t="s">
+        <v>894</v>
+      </c>
+      <c r="D176" s="10" t="s">
+        <v>895</v>
+      </c>
+      <c r="E176" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="F176" s="10" t="s">
+        <v>897</v>
+      </c>
+      <c r="G176" s="10" t="s">
+        <v>898</v>
+      </c>
+      <c r="H176" s="10" t="s">
+        <v>899</v>
+      </c>
+      <c r="I176" s="10" t="s">
+        <v>900</v>
+      </c>
+      <c r="J176" s="10" t="s">
+        <v>901</v>
+      </c>
+      <c r="K176" s="8" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="178" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K178" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="179" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="180" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+      <c r="K180" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="181" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="182" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="184" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C184" t="s">
+        <v>914</v>
+      </c>
+      <c r="D184" t="s">
+        <v>914</v>
+      </c>
+      <c r="E184" t="s">
+        <v>914</v>
+      </c>
+      <c r="F184" t="s">
+        <v>914</v>
+      </c>
+      <c r="G184" t="s">
+        <v>914</v>
+      </c>
+      <c r="H184" t="s">
+        <v>914</v>
+      </c>
+      <c r="K184" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="186" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B186" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G186" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H186" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I186" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J186" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B187" s="2">
         <v>15</v>
       </c>
-      <c r="C152" s="10">
-        <v>0</v>
-      </c>
-      <c r="D152" s="10">
-        <v>0</v>
-      </c>
-      <c r="E152" s="10" t="s">
+      <c r="C187" s="3">
+        <v>0</v>
+      </c>
+      <c r="D187" s="3">
+        <v>0</v>
+      </c>
+      <c r="E187" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="F152" s="10" t="s">
+      <c r="F187" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="G152" s="10" t="s">
+      <c r="G187" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="H152" s="10" t="s">
+      <c r="H187" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="I152" s="10" t="s">
+      <c r="I187" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="J152" s="10" t="s">
+      <c r="J187" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="K152" s="8" t="s">
+      <c r="K187" s="8" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B154" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D154" s="5" t="s">
+    <row r="189" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B189" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D189" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E154" s="5" t="s">
+      <c r="E189" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F154" s="5" t="s">
+      <c r="F189" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G154" s="5" t="s">
+      <c r="G189" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H154" s="5" t="s">
+      <c r="H189" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I154" s="5" t="s">
+      <c r="I189" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J154" s="5" t="s">
+      <c r="J189" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B155" s="2">
+    <row r="190" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B190" s="2">
+        <v>16</v>
+      </c>
+      <c r="C190" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D190" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E190" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F190" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="G190" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="H190" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="I190" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J190" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K190" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="192" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="G192" t="s">
+        <v>167</v>
+      </c>
+      <c r="H192" t="s">
+        <v>167</v>
+      </c>
+      <c r="I192" t="s">
+        <v>167</v>
+      </c>
+      <c r="J192" t="s">
+        <v>167</v>
+      </c>
+      <c r="K192" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="193" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C193" t="s">
+        <v>167</v>
+      </c>
+      <c r="D193" t="s">
+        <v>167</v>
+      </c>
+      <c r="E193" t="s">
+        <v>167</v>
+      </c>
+      <c r="F193" t="s">
+        <v>167</v>
+      </c>
+      <c r="K193" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="195" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B195" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G195" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H195" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I195" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J195" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B196" s="2">
+        <v>17</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>916</v>
+      </c>
+      <c r="D196" s="10" t="s">
+        <v>917</v>
+      </c>
+      <c r="E196" s="10" t="s">
+        <v>918</v>
+      </c>
+      <c r="F196" s="10" t="s">
+        <v>919</v>
+      </c>
+      <c r="G196" s="10" t="s">
+        <v>920</v>
+      </c>
+      <c r="H196" s="10" t="s">
+        <v>921</v>
+      </c>
+      <c r="I196" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="J196" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="K196" s="8" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="198" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B198" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G198" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H198" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I198" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J198" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B199" s="2">
+        <v>18</v>
+      </c>
+      <c r="C199" s="10" t="s">
+        <v>925</v>
+      </c>
+      <c r="D199" s="10" t="s">
+        <v>926</v>
+      </c>
+      <c r="E199" s="3">
+        <v>0</v>
+      </c>
+      <c r="F199" s="10" t="s">
+        <v>927</v>
+      </c>
+      <c r="G199" s="10" t="s">
+        <v>928</v>
+      </c>
+      <c r="H199" s="10" t="s">
+        <v>929</v>
+      </c>
+      <c r="I199" s="10" t="s">
+        <v>930</v>
+      </c>
+      <c r="J199" s="10" t="s">
+        <v>931</v>
+      </c>
+      <c r="K199" s="8" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="201" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="K201" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="202" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+      <c r="K202" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="203" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="K203" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="204" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+      <c r="K204" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="206" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B206" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G206" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H206" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I206" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J206" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B207" s="2">
+        <v>19</v>
+      </c>
+      <c r="C207" s="3">
+        <v>0</v>
+      </c>
+      <c r="D207" s="3">
+        <v>0</v>
+      </c>
+      <c r="E207" s="3">
+        <v>0</v>
+      </c>
+      <c r="F207" s="3">
+        <v>0</v>
+      </c>
+      <c r="G207" s="3">
+        <v>0</v>
+      </c>
+      <c r="H207" s="10" t="s">
+        <v>935</v>
+      </c>
+      <c r="I207" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="J207" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="K207" s="8" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="209" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B209" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F209" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G209" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H209" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I209" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J209" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B210" s="2">
+        <v>20</v>
+      </c>
+      <c r="C210" s="10" t="s">
+        <v>938</v>
+      </c>
+      <c r="D210" s="10" t="s">
+        <v>939</v>
+      </c>
+      <c r="E210" s="10" t="s">
+        <v>940</v>
+      </c>
+      <c r="F210" s="10" t="s">
+        <v>941</v>
+      </c>
+      <c r="G210" s="10" t="s">
+        <v>942</v>
+      </c>
+      <c r="H210" s="10" t="s">
+        <v>943</v>
+      </c>
+      <c r="I210" s="10" t="s">
+        <v>944</v>
+      </c>
+      <c r="J210" s="10" t="s">
+        <v>945</v>
+      </c>
+      <c r="K210" s="8" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="212" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B212" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F212" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G212" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H212" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I212" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J212" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B213" s="2">
+        <v>21</v>
+      </c>
+      <c r="C213" s="10" t="s">
+        <v>946</v>
+      </c>
+      <c r="D213" s="10" t="s">
+        <v>947</v>
+      </c>
+      <c r="E213" s="10" t="s">
+        <v>948</v>
+      </c>
+      <c r="F213" s="10" t="s">
+        <v>949</v>
+      </c>
+      <c r="G213" s="10" t="s">
+        <v>950</v>
+      </c>
+      <c r="H213" s="10" t="s">
+        <v>951</v>
+      </c>
+      <c r="I213" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="J213" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="K213" s="8" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="215" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B215" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E215" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F215" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G215" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H215" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I215" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J215" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B216" s="2">
+        <v>22</v>
+      </c>
+      <c r="C216" s="3">
+        <v>0</v>
+      </c>
+      <c r="D216" s="3">
+        <v>0</v>
+      </c>
+      <c r="E216" s="3">
+        <v>0</v>
+      </c>
+      <c r="F216" s="3">
+        <v>0</v>
+      </c>
+      <c r="G216" s="3">
+        <v>0</v>
+      </c>
+      <c r="H216" s="3">
+        <v>0</v>
+      </c>
+      <c r="I216" s="3">
+        <v>0</v>
+      </c>
+      <c r="J216" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="K216" s="8" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="218" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B218" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F218" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G218" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H218" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I218" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J218" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B219" s="2">
+        <v>23</v>
+      </c>
+      <c r="C219" s="3">
+        <v>0</v>
+      </c>
+      <c r="D219" s="3">
+        <v>0</v>
+      </c>
+      <c r="E219" s="3">
+        <v>0</v>
+      </c>
+      <c r="F219" s="3">
+        <v>0</v>
+      </c>
+      <c r="G219" s="3">
+        <v>0</v>
+      </c>
+      <c r="H219" s="10" t="s">
+        <v>955</v>
+      </c>
+      <c r="I219" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="J219" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="K219" s="8" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="221" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B221" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D221" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E221" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F221" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G221" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H221" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I221" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J221" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B222" s="2">
+        <v>24</v>
+      </c>
+      <c r="C222" s="10" t="s">
+        <v>958</v>
+      </c>
+      <c r="D222" s="10" t="s">
+        <v>959</v>
+      </c>
+      <c r="E222" s="10" t="s">
+        <v>960</v>
+      </c>
+      <c r="F222" s="10" t="s">
+        <v>961</v>
+      </c>
+      <c r="G222" s="10" t="s">
+        <v>962</v>
+      </c>
+      <c r="H222" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="I222" s="10" t="s">
+        <v>964</v>
+      </c>
+      <c r="J222" s="10" t="s">
+        <v>965</v>
+      </c>
+      <c r="K222" s="8" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="224" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B224" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D224" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F224" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G224" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H224" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I224" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J224" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B225" s="2">
+        <v>25</v>
+      </c>
+      <c r="C225" s="3">
+        <v>0</v>
+      </c>
+      <c r="D225" s="3">
+        <v>0</v>
+      </c>
+      <c r="E225" s="3">
+        <v>0</v>
+      </c>
+      <c r="F225" s="3">
+        <v>0</v>
+      </c>
+      <c r="G225" s="10" t="s">
+        <v>966</v>
+      </c>
+      <c r="H225" s="10" t="s">
+        <v>967</v>
+      </c>
+      <c r="I225" s="10" t="s">
+        <v>968</v>
+      </c>
+      <c r="J225" s="3">
+        <v>0</v>
+      </c>
+      <c r="K225" s="16" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="226" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B226" s="2">
+        <v>25</v>
+      </c>
+      <c r="C226" s="3">
+        <v>0</v>
+      </c>
+      <c r="D226" s="3">
+        <v>0</v>
+      </c>
+      <c r="E226" s="3">
+        <v>0</v>
+      </c>
+      <c r="F226" s="3">
+        <v>0</v>
+      </c>
+      <c r="G226" s="10" t="s">
+        <v>970</v>
+      </c>
+      <c r="H226" s="10" t="s">
+        <v>966</v>
+      </c>
+      <c r="I226" s="10" t="s">
+        <v>967</v>
+      </c>
+      <c r="J226" s="10" t="s">
+        <v>968</v>
+      </c>
+      <c r="K226" s="16" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="228" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B228" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D228" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E228" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F228" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G228" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H228" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I228" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J228" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B229" s="2">
+        <v>26</v>
+      </c>
+      <c r="C229" s="3">
+        <v>0</v>
+      </c>
+      <c r="D229" s="3">
+        <v>0</v>
+      </c>
+      <c r="E229" s="3">
+        <v>0</v>
+      </c>
+      <c r="F229" s="10" t="s">
+        <v>972</v>
+      </c>
+      <c r="G229" s="10" t="s">
+        <v>973</v>
+      </c>
+      <c r="H229" s="10" t="s">
+        <v>974</v>
+      </c>
+      <c r="I229" s="10" t="s">
+        <v>975</v>
+      </c>
+      <c r="J229" s="10" t="s">
+        <v>976</v>
+      </c>
+      <c r="K229" s="8" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="231" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B231" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D231" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E231" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F231" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G231" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H231" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I231" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J231" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B232" s="2">
+        <v>27</v>
+      </c>
+      <c r="C232" s="3">
+        <v>0</v>
+      </c>
+      <c r="D232" s="3">
+        <v>0</v>
+      </c>
+      <c r="E232" s="3">
+        <v>0</v>
+      </c>
+      <c r="F232" s="3">
+        <v>0</v>
+      </c>
+      <c r="G232" s="10" t="s">
+        <v>978</v>
+      </c>
+      <c r="H232" s="10" t="s">
+        <v>979</v>
+      </c>
+      <c r="I232" s="10" t="s">
+        <v>980</v>
+      </c>
+      <c r="J232" s="10" t="s">
+        <v>981</v>
+      </c>
+      <c r="K232" s="8" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="234" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B234" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D234" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F234" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G234" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H234" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I234" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J234" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B235" s="2">
         <v>28</v>
       </c>
-      <c r="C155" s="10">
-        <v>0</v>
-      </c>
-      <c r="D155" s="10">
-        <v>0</v>
-      </c>
-      <c r="E155" s="10">
-        <v>0</v>
-      </c>
-      <c r="F155" s="10">
-        <v>0</v>
-      </c>
-      <c r="G155" s="10" t="s">
+      <c r="C235" s="3">
+        <v>0</v>
+      </c>
+      <c r="D235" s="3">
+        <v>0</v>
+      </c>
+      <c r="E235" s="3">
+        <v>0</v>
+      </c>
+      <c r="F235" s="3">
+        <v>0</v>
+      </c>
+      <c r="G235" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="H155" s="10" t="s">
+      <c r="H235" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="I155" s="10" t="s">
+      <c r="I235" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="J155" s="10" t="s">
+      <c r="J235" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="K155" s="8" t="s">
+      <c r="K235" s="8" t="s">
         <v>489</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/msx3gen/v9978/files/v99x8_spec_registers.xlsx
+++ b/msx3gen/v9978/files/v99x8_spec_registers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="11745" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="11745" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="V9958(CONTROL)" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,11 @@
     <sheet name="V9958(STATUS)" sheetId="3" r:id="rId3"/>
     <sheet name="V9990(CONTROL)" sheetId="4" r:id="rId4"/>
     <sheet name="V9990(VDP COMMAND)" sheetId="5" r:id="rId5"/>
-    <sheet name="PORT" sheetId="10" r:id="rId6"/>
-    <sheet name="V9968 DRAFT1(CONTROL)" sheetId="7" r:id="rId7"/>
-    <sheet name="V9968 DRAFT1(VDP COMMAND)" sheetId="8" r:id="rId8"/>
-    <sheet name="V9968 DRAFT1(STATUS)" sheetId="9" r:id="rId9"/>
+    <sheet name="PORT assign" sheetId="10" r:id="rId6"/>
+    <sheet name="PORT means" sheetId="11" r:id="rId7"/>
+    <sheet name="V9968 DRAFT1(CONTROL)" sheetId="7" r:id="rId8"/>
+    <sheet name="V9968 DRAFT1(VDP COMMAND)" sheetId="8" r:id="rId9"/>
+    <sheet name="V9968 DRAFT1(STATUS)" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2908" uniqueCount="983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3093" uniqueCount="1065">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -3878,10 +3879,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>STATUS2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>各種割込フラグ、完了フラグ</t>
     <rPh sb="0" eb="2">
       <t>カクシュ</t>
@@ -4928,6 +4925,474 @@
   </si>
   <si>
     <t>Priority Control Register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P#0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VD7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VD6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VD5</t>
+  </si>
+  <si>
+    <t>VD4</t>
+  </si>
+  <si>
+    <t>VD3</t>
+  </si>
+  <si>
+    <t>VD2</t>
+  </si>
+  <si>
+    <t>VD1</t>
+  </si>
+  <si>
+    <t>VD0</t>
+  </si>
+  <si>
+    <t>このポートへ書き込むと、VRAM Write Pointer Register が示している VRAMアドレスに書き込む。</t>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VRAM Write Pointer Register は、オートインクリメント指定であれば、そのタイミングで 1 進む。</t>
+    <rPh sb="40" eb="42">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このポートを読み出すと、VRAM Read Pointer Register が示している VRAMアドレスから読み出す。</t>
+    <rPh sb="6" eb="7">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VRAM Read Pointer Register は、オートインクリメント指定であれば、そのタイミングで 1 進む。</t>
+    <rPh sb="39" eb="41">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V9968拡張モード</t>
+    <rPh sb="5" eb="7">
+      <t>カクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V9958 の Status Register #0 を模したリードバックポートである。</t>
+    <rPh sb="28" eb="29">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PD4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PD3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PD2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PD1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PD0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RED, GREEN, BLUE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RD7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RD6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RD5</t>
+  </si>
+  <si>
+    <t>RD4</t>
+  </si>
+  <si>
+    <t>RD3</t>
+  </si>
+  <si>
+    <t>RD2</t>
+  </si>
+  <si>
+    <t>RD1</t>
+  </si>
+  <si>
+    <t>RD0</t>
+  </si>
+  <si>
+    <t>VRAM Data Port (Read/Write)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Palette Data Port (Read/Write)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Register Data Port (Read/Write)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レジスタへの読み書きポート。アクセス対象のレジスタ番号は P#4 で指定する。</t>
+    <rPh sb="6" eb="7">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P#4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WII</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RII</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Register Select Port (Read/Write)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RA5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RA4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RA3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RA2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RA1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RA0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P#5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CD7</t>
+  </si>
+  <si>
+    <t>CD6</t>
+  </si>
+  <si>
+    <t>CD5</t>
+  </si>
+  <si>
+    <t>CD4</t>
+  </si>
+  <si>
+    <t>CD3</t>
+  </si>
+  <si>
+    <t>CD2</t>
+  </si>
+  <si>
+    <t>CD1</t>
+  </si>
+  <si>
+    <t>CD0</t>
+  </si>
+  <si>
+    <t>Command Data Port (Read/Write)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P#6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VI には、垂直帰線割込フラグが出現しており、このポートを読み出すとクリアされる。</t>
+    <rPh sb="6" eb="8">
+      <t>スイチョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キセン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ワリコミ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Interrupt Flag Port (Read/Write)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STATUS2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>割込状態</t>
+    <rPh sb="0" eb="2">
+      <t>ワリコミ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水平帰線割込フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>スイヘイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キセン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ワリコミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VDPコマンド完了割込フラグ</t>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ワリコミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>割込が上がっていれば 1 になる。</t>
+    <rPh sb="0" eb="2">
+      <t>ワリコミ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1を書き込むとクリアされる。</t>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Status Port (Read)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vertical Interrupt Port (Read Only)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P#7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンド実行中フラグ</t>
+    <rPh sb="4" eb="7">
+      <t>ジッコウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Even/Oddフラグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>転送完了フラグ。読み出すとクリアされる。</t>
+    <rPh sb="0" eb="2">
+      <t>テンソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vブランキング期間フラグ。</t>
+    <rPh sb="7" eb="9">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hブランキング期間フラグ。</t>
+    <rPh sb="7" eb="9">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボーダーカラー検出フラグ(SRCHコマンド)。</t>
+    <rPh sb="7" eb="9">
+      <t>ケンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Control Port (Write)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EXM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拡張モードフラグ</t>
+    <rPh sb="0" eb="2">
+      <t>カクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拡張モードフラグ　0: 互換モード, 1: 拡張モード</t>
+    <rPh sb="0" eb="2">
+      <t>カクチョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゴカン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V9958互換モード</t>
+    <rPh sb="5" eb="7">
+      <t>ゴカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拡張モード</t>
+    <rPh sb="0" eb="2">
+      <t>カクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>---</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCREEN8/10/11/12 (GRAPHIC7)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCREEN0 W40 (TEXT1), SCREEN1 (GRAPHIC1), SCREEN3 (MULTI COLOR)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCREEN0 W80 (TEXT2), SCREEN4 (GRAPHIC3)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5065,7 +5530,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5124,6 +5589,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5384,13 +5852,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>14653</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>80597</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>608134</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>80597</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5431,13 +5899,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>13188</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>79132</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>593481</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>87924</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5478,13 +5946,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>674077</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>58616</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>630115</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>73270</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5525,13 +5993,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>7327</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>600808</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5572,13 +6040,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>27842</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>86458</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>621323</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>86458</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5619,14 +6087,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>48357</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>92321</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>611605</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>90237</xdr:rowOff>
+      <xdr:colOff>642938</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>113109</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5635,8 +6103,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3928541" y="3160374"/>
-          <a:ext cx="563248" cy="168363"/>
+          <a:off x="3923841" y="3199852"/>
+          <a:ext cx="594581" cy="538710"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5666,13 +6134,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>29308</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>65171</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>611605</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>87924</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5713,13 +6181,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>27843</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>93785</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>621324</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>93785</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5760,13 +6228,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>21647</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>99579</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>632113</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>99579</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9259,6 +9727,19 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K46"/>
@@ -10205,7 +10686,7 @@
   <dimension ref="B2:K78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11530,8 +12011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11576,31 +12057,31 @@
         <v>0</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>851</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>852</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>853</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>855</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>856</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>857</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>858</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>859</v>
-      </c>
       <c r="K3" s="8" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.15">
@@ -11637,31 +12118,31 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>859</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>860</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>861</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>862</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>863</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="H6" s="10" t="s">
         <v>864</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="I6" s="10" t="s">
         <v>865</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="J6" s="10" t="s">
         <v>866</v>
       </c>
-      <c r="J6" s="10" t="s">
-        <v>867</v>
-      </c>
       <c r="K6" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.15">
@@ -11698,31 +12179,31 @@
         <v>2</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>867</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>868</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="10" t="s">
+      <c r="I9" s="10" t="s">
         <v>869</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="J9" s="10" t="s">
         <v>870</v>
       </c>
-      <c r="J9" s="10" t="s">
-        <v>871</v>
-      </c>
       <c r="K9" s="8" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.15">
@@ -11730,7 +12211,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
@@ -11738,7 +12219,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
@@ -11775,31 +12256,31 @@
         <v>3</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>873</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>874</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="E15" s="10" t="s">
         <v>875</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="F15" s="10" t="s">
         <v>876</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="G15" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="H15" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="I15" s="10" t="s">
         <v>879</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="J15" s="10" t="s">
         <v>880</v>
       </c>
-      <c r="J15" s="10" t="s">
-        <v>881</v>
-      </c>
       <c r="K15" s="8" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.15">
@@ -11836,31 +12317,31 @@
         <v>4</v>
       </c>
       <c r="C18" s="10" t="s">
+        <v>881</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>882</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="E18" s="10" t="s">
         <v>883</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="F18" s="10" t="s">
         <v>884</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="G18" s="10" t="s">
         <v>885</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="H18" s="10" t="s">
         <v>886</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="I18" s="10" t="s">
         <v>887</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="J18" s="10" t="s">
         <v>888</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>889</v>
-      </c>
       <c r="K18" s="8" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.15">
@@ -11897,31 +12378,31 @@
         <v>5</v>
       </c>
       <c r="C21" s="10" t="s">
+        <v>889</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="10" t="s">
         <v>890</v>
       </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="10" t="s">
+      <c r="I21" s="10" t="s">
         <v>891</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="J21" s="10" t="s">
         <v>892</v>
       </c>
-      <c r="J21" s="10" t="s">
-        <v>893</v>
-      </c>
       <c r="K21" s="8" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.15">
@@ -11929,7 +12410,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.15">
@@ -11937,7 +12418,7 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.15">
@@ -12009,7 +12490,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.15">
@@ -12020,7 +12501,7 @@
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.15">
@@ -12031,7 +12512,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.15">
@@ -12042,12 +12523,12 @@
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.15">
       <c r="K35" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.15">
@@ -12058,7 +12539,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.15">
@@ -12069,7 +12550,7 @@
         <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.15">
@@ -12080,7 +12561,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="39" spans="3:11" x14ac:dyDescent="0.15">
@@ -12091,12 +12572,12 @@
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="41" spans="3:11" x14ac:dyDescent="0.15">
       <c r="K41" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.15">
@@ -12217,33 +12698,33 @@
         <v>0</v>
       </c>
       <c r="D54" s="10" t="s">
+        <v>821</v>
+      </c>
+      <c r="E54" s="10" t="s">
         <v>822</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="F54" s="10" t="s">
         <v>823</v>
       </c>
-      <c r="F54" s="10" t="s">
+      <c r="G54" s="10" t="s">
         <v>824</v>
       </c>
-      <c r="G54" s="10" t="s">
+      <c r="H54" s="10" t="s">
         <v>825</v>
       </c>
-      <c r="H54" s="10" t="s">
+      <c r="I54" s="10" t="s">
         <v>826</v>
       </c>
-      <c r="I54" s="10" t="s">
+      <c r="J54" s="10" t="s">
         <v>827</v>
       </c>
-      <c r="J54" s="10" t="s">
-        <v>828</v>
-      </c>
       <c r="K54" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K56" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.15">
@@ -12251,7 +12732,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.15">
@@ -12259,12 +12740,12 @@
         <v>1</v>
       </c>
       <c r="K58" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K60" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.15">
@@ -12272,7 +12753,7 @@
         <v>0</v>
       </c>
       <c r="K61" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.15">
@@ -12280,7 +12761,7 @@
         <v>1</v>
       </c>
       <c r="K62" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="65" spans="5:11" x14ac:dyDescent="0.15">
@@ -12288,7 +12769,7 @@
         <v>0</v>
       </c>
       <c r="K65" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="66" spans="5:11" x14ac:dyDescent="0.15">
@@ -12296,7 +12777,7 @@
         <v>1</v>
       </c>
       <c r="K66" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="69" spans="5:11" x14ac:dyDescent="0.15">
@@ -12304,7 +12785,7 @@
         <v>0</v>
       </c>
       <c r="K69" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="70" spans="5:11" x14ac:dyDescent="0.15">
@@ -12312,7 +12793,7 @@
         <v>1</v>
       </c>
       <c r="K70" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="73" spans="5:11" x14ac:dyDescent="0.15">
@@ -12320,7 +12801,7 @@
         <v>0</v>
       </c>
       <c r="K73" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="74" spans="5:11" x14ac:dyDescent="0.15">
@@ -12328,7 +12809,7 @@
         <v>1</v>
       </c>
       <c r="K74" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="77" spans="5:11" x14ac:dyDescent="0.15">
@@ -12336,7 +12817,7 @@
         <v>0</v>
       </c>
       <c r="K77" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="78" spans="5:11" x14ac:dyDescent="0.15">
@@ -12344,7 +12825,7 @@
         <v>1</v>
       </c>
       <c r="K78" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.15">
@@ -12352,7 +12833,7 @@
         <v>0</v>
       </c>
       <c r="K81" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.15">
@@ -12360,7 +12841,7 @@
         <v>1</v>
       </c>
       <c r="K82" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.15">
@@ -12397,31 +12878,31 @@
         <v>8</v>
       </c>
       <c r="C88" s="10" t="s">
+        <v>793</v>
+      </c>
+      <c r="D88" s="10" t="s">
         <v>794</v>
       </c>
-      <c r="D88" s="10" t="s">
+      <c r="E88" s="10" t="s">
         <v>795</v>
       </c>
-      <c r="E88" s="10" t="s">
+      <c r="F88" s="10" t="s">
         <v>796</v>
       </c>
-      <c r="F88" s="10" t="s">
+      <c r="G88" s="10" t="s">
         <v>797</v>
       </c>
-      <c r="G88" s="10" t="s">
+      <c r="H88" s="10" t="s">
         <v>798</v>
       </c>
-      <c r="H88" s="10" t="s">
+      <c r="I88" s="10" t="s">
         <v>799</v>
       </c>
-      <c r="I88" s="10" t="s">
+      <c r="J88" s="10" t="s">
         <v>800</v>
       </c>
-      <c r="J88" s="10" t="s">
+      <c r="K88" s="8" t="s">
         <v>801</v>
-      </c>
-      <c r="K88" s="8" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.15">
@@ -12447,7 +12928,7 @@
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="11" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.15">
@@ -12465,7 +12946,7 @@
         <v>0</v>
       </c>
       <c r="K91" s="11" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.15">
@@ -12483,7 +12964,7 @@
         <v>1</v>
       </c>
       <c r="K92" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.15">
@@ -12501,7 +12982,7 @@
         <v>0</v>
       </c>
       <c r="K93" s="11" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.15">
@@ -12545,7 +13026,7 @@
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.15">
@@ -12561,7 +13042,7 @@
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="K97" s="11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.15">
@@ -12577,7 +13058,7 @@
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="K98" s="11" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.15">
@@ -12603,7 +13084,7 @@
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
       <c r="K100" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.15">
@@ -12657,7 +13138,7 @@
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
       <c r="K104" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.15">
@@ -12673,7 +13154,7 @@
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
       <c r="K105" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.15">
@@ -12689,7 +13170,7 @@
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
       <c r="K106" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.15">
@@ -12697,7 +13178,7 @@
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K108" s="12" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.15">
@@ -12705,7 +13186,7 @@
         <v>0</v>
       </c>
       <c r="K109" s="12" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.15">
@@ -12713,7 +13194,7 @@
         <v>1</v>
       </c>
       <c r="K110" s="12" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.15">
@@ -12721,7 +13202,7 @@
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K112" s="12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.15">
@@ -12729,7 +13210,7 @@
         <v>0</v>
       </c>
       <c r="K113" s="12" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.15">
@@ -12737,7 +13218,7 @@
         <v>1</v>
       </c>
       <c r="K114" s="12" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.15">
@@ -12745,7 +13226,7 @@
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K116" s="12" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.15">
@@ -12753,7 +13234,7 @@
         <v>0</v>
       </c>
       <c r="K117" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.15">
@@ -12761,7 +13242,7 @@
         <v>1</v>
       </c>
       <c r="K118" s="12" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.15">
@@ -12819,21 +13300,21 @@
         <v>0</v>
       </c>
       <c r="H122" s="10" t="s">
+        <v>771</v>
+      </c>
+      <c r="I122" s="10" t="s">
         <v>772</v>
       </c>
-      <c r="I122" s="10" t="s">
+      <c r="J122" s="10" t="s">
         <v>773</v>
       </c>
-      <c r="J122" s="10" t="s">
+      <c r="K122" s="15" t="s">
         <v>774</v>
-      </c>
-      <c r="K122" s="15" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K124" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.15">
@@ -12841,7 +13322,7 @@
         <v>0</v>
       </c>
       <c r="K125" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.15">
@@ -12849,12 +13330,12 @@
         <v>1</v>
       </c>
       <c r="K126" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K128" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.15">
@@ -12862,7 +13343,7 @@
         <v>0</v>
       </c>
       <c r="K129" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.15">
@@ -12870,12 +13351,12 @@
         <v>1</v>
       </c>
       <c r="K130" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K132" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.15">
@@ -12883,7 +13364,7 @@
         <v>0</v>
       </c>
       <c r="K133" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.15">
@@ -12891,7 +13372,7 @@
         <v>1</v>
       </c>
       <c r="K134" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="136" spans="2:11" x14ac:dyDescent="0.15">
@@ -12962,7 +13443,7 @@
     </row>
     <row r="139" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K139" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="141" spans="2:11" x14ac:dyDescent="0.15">
@@ -12999,28 +13480,28 @@
         <v>11</v>
       </c>
       <c r="C142" s="10" t="s">
+        <v>780</v>
+      </c>
+      <c r="D142" s="3">
+        <v>0</v>
+      </c>
+      <c r="E142" s="3">
+        <v>0</v>
+      </c>
+      <c r="F142" s="3">
+        <v>0</v>
+      </c>
+      <c r="G142" s="3">
+        <v>0</v>
+      </c>
+      <c r="H142" s="3">
+        <v>0</v>
+      </c>
+      <c r="I142" s="10" t="s">
         <v>781</v>
       </c>
-      <c r="D142" s="3">
-        <v>0</v>
-      </c>
-      <c r="E142" s="3">
-        <v>0</v>
-      </c>
-      <c r="F142" s="3">
-        <v>0</v>
-      </c>
-      <c r="G142" s="3">
-        <v>0</v>
-      </c>
-      <c r="H142" s="3">
-        <v>0</v>
-      </c>
-      <c r="I142" s="10" t="s">
+      <c r="J142" s="10" t="s">
         <v>782</v>
-      </c>
-      <c r="J142" s="10" t="s">
-        <v>783</v>
       </c>
       <c r="K142" s="8" t="s">
         <v>225</v>
@@ -13034,12 +13515,12 @@
         <v>483</v>
       </c>
       <c r="K144" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="146" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K146" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="147" spans="2:11" x14ac:dyDescent="0.15">
@@ -13047,7 +13528,7 @@
         <v>0</v>
       </c>
       <c r="K147" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="148" spans="2:11" x14ac:dyDescent="0.15">
@@ -13055,7 +13536,7 @@
         <v>1</v>
       </c>
       <c r="K148" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="150" spans="2:11" x14ac:dyDescent="0.15">
@@ -13104,16 +13585,16 @@
         <v>0</v>
       </c>
       <c r="G151" s="10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H151" s="10" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="I151" s="10" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="J151" s="10" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="K151" s="8" t="s">
         <v>225</v>
@@ -13121,7 +13602,7 @@
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K153" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="155" spans="2:11" x14ac:dyDescent="0.15">
@@ -13296,36 +13777,36 @@
         <v>14</v>
       </c>
       <c r="C176" s="10" t="s">
+        <v>893</v>
+      </c>
+      <c r="D176" s="10" t="s">
         <v>894</v>
       </c>
-      <c r="D176" s="10" t="s">
+      <c r="E176" s="10" t="s">
         <v>895</v>
       </c>
-      <c r="E176" s="10" t="s">
+      <c r="F176" s="10" t="s">
         <v>896</v>
       </c>
-      <c r="F176" s="10" t="s">
+      <c r="G176" s="10" t="s">
         <v>897</v>
       </c>
-      <c r="G176" s="10" t="s">
+      <c r="H176" s="10" t="s">
         <v>898</v>
       </c>
-      <c r="H176" s="10" t="s">
+      <c r="I176" s="10" t="s">
         <v>899</v>
       </c>
-      <c r="I176" s="10" t="s">
+      <c r="J176" s="10" t="s">
         <v>900</v>
       </c>
-      <c r="J176" s="10" t="s">
+      <c r="K176" s="8" t="s">
         <v>901</v>
-      </c>
-      <c r="K176" s="8" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="178" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K178" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="179" spans="2:11" x14ac:dyDescent="0.15">
@@ -13336,7 +13817,7 @@
         <v>0</v>
       </c>
       <c r="K179" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="180" spans="2:11" x14ac:dyDescent="0.15">
@@ -13347,7 +13828,7 @@
         <v>1</v>
       </c>
       <c r="K180" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="181" spans="2:11" x14ac:dyDescent="0.15">
@@ -13358,7 +13839,7 @@
         <v>0</v>
       </c>
       <c r="K181" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="182" spans="2:11" x14ac:dyDescent="0.15">
@@ -13369,30 +13850,30 @@
         <v>1</v>
       </c>
       <c r="K182" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="184" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C184" t="s">
+        <v>913</v>
+      </c>
+      <c r="D184" t="s">
+        <v>913</v>
+      </c>
+      <c r="E184" t="s">
+        <v>913</v>
+      </c>
+      <c r="F184" t="s">
+        <v>913</v>
+      </c>
+      <c r="G184" t="s">
+        <v>913</v>
+      </c>
+      <c r="H184" t="s">
+        <v>913</v>
+      </c>
+      <c r="K184" t="s">
         <v>914</v>
-      </c>
-      <c r="D184" t="s">
-        <v>914</v>
-      </c>
-      <c r="E184" t="s">
-        <v>914</v>
-      </c>
-      <c r="F184" t="s">
-        <v>914</v>
-      </c>
-      <c r="G184" t="s">
-        <v>914</v>
-      </c>
-      <c r="H184" t="s">
-        <v>914</v>
-      </c>
-      <c r="K184" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="186" spans="2:11" x14ac:dyDescent="0.15">
@@ -13585,31 +14066,31 @@
         <v>17</v>
       </c>
       <c r="C196" s="10" t="s">
+        <v>915</v>
+      </c>
+      <c r="D196" s="10" t="s">
         <v>916</v>
       </c>
-      <c r="D196" s="10" t="s">
+      <c r="E196" s="10" t="s">
         <v>917</v>
       </c>
-      <c r="E196" s="10" t="s">
+      <c r="F196" s="10" t="s">
         <v>918</v>
       </c>
-      <c r="F196" s="10" t="s">
+      <c r="G196" s="10" t="s">
         <v>919</v>
       </c>
-      <c r="G196" s="10" t="s">
+      <c r="H196" s="10" t="s">
         <v>920</v>
       </c>
-      <c r="H196" s="10" t="s">
+      <c r="I196" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="I196" s="2" t="s">
+      <c r="J196" s="2" t="s">
         <v>922</v>
       </c>
-      <c r="J196" s="2" t="s">
+      <c r="K196" s="8" t="s">
         <v>923</v>
-      </c>
-      <c r="K196" s="8" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="198" spans="2:11" x14ac:dyDescent="0.15">
@@ -13646,31 +14127,31 @@
         <v>18</v>
       </c>
       <c r="C199" s="10" t="s">
+        <v>924</v>
+      </c>
+      <c r="D199" s="10" t="s">
         <v>925</v>
       </c>
-      <c r="D199" s="10" t="s">
+      <c r="E199" s="3">
+        <v>0</v>
+      </c>
+      <c r="F199" s="10" t="s">
         <v>926</v>
       </c>
-      <c r="E199" s="3">
-        <v>0</v>
-      </c>
-      <c r="F199" s="10" t="s">
+      <c r="G199" s="10" t="s">
         <v>927</v>
       </c>
-      <c r="G199" s="10" t="s">
+      <c r="H199" s="10" t="s">
         <v>928</v>
       </c>
-      <c r="H199" s="10" t="s">
+      <c r="I199" s="10" t="s">
         <v>929</v>
       </c>
-      <c r="I199" s="10" t="s">
+      <c r="J199" s="10" t="s">
         <v>930</v>
       </c>
-      <c r="J199" s="10" t="s">
-        <v>931</v>
-      </c>
       <c r="K199" s="8" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="201" spans="2:11" x14ac:dyDescent="0.15">
@@ -13681,7 +14162,7 @@
         <v>0</v>
       </c>
       <c r="K201" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="202" spans="2:11" x14ac:dyDescent="0.15">
@@ -13692,7 +14173,7 @@
         <v>1</v>
       </c>
       <c r="K202" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="203" spans="2:11" x14ac:dyDescent="0.15">
@@ -13703,7 +14184,7 @@
         <v>0</v>
       </c>
       <c r="K203" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="204" spans="2:11" x14ac:dyDescent="0.15">
@@ -13714,7 +14195,7 @@
         <v>1</v>
       </c>
       <c r="K204" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="206" spans="2:11" x14ac:dyDescent="0.15">
@@ -13766,16 +14247,16 @@
         <v>0</v>
       </c>
       <c r="H207" s="10" t="s">
+        <v>934</v>
+      </c>
+      <c r="I207" s="2" t="s">
         <v>935</v>
       </c>
-      <c r="I207" s="2" t="s">
+      <c r="J207" s="2" t="s">
         <v>936</v>
       </c>
-      <c r="J207" s="2" t="s">
-        <v>937</v>
-      </c>
       <c r="K207" s="8" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="209" spans="2:11" x14ac:dyDescent="0.15">
@@ -13812,31 +14293,31 @@
         <v>20</v>
       </c>
       <c r="C210" s="10" t="s">
+        <v>937</v>
+      </c>
+      <c r="D210" s="10" t="s">
         <v>938</v>
       </c>
-      <c r="D210" s="10" t="s">
+      <c r="E210" s="10" t="s">
         <v>939</v>
       </c>
-      <c r="E210" s="10" t="s">
+      <c r="F210" s="10" t="s">
         <v>940</v>
       </c>
-      <c r="F210" s="10" t="s">
+      <c r="G210" s="10" t="s">
         <v>941</v>
       </c>
-      <c r="G210" s="10" t="s">
+      <c r="H210" s="10" t="s">
         <v>942</v>
       </c>
-      <c r="H210" s="10" t="s">
+      <c r="I210" s="10" t="s">
         <v>943</v>
       </c>
-      <c r="I210" s="10" t="s">
+      <c r="J210" s="10" t="s">
         <v>944</v>
       </c>
-      <c r="J210" s="10" t="s">
-        <v>945</v>
-      </c>
       <c r="K210" s="8" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="212" spans="2:11" x14ac:dyDescent="0.15">
@@ -13873,31 +14354,31 @@
         <v>21</v>
       </c>
       <c r="C213" s="10" t="s">
+        <v>945</v>
+      </c>
+      <c r="D213" s="10" t="s">
         <v>946</v>
       </c>
-      <c r="D213" s="10" t="s">
+      <c r="E213" s="10" t="s">
         <v>947</v>
       </c>
-      <c r="E213" s="10" t="s">
+      <c r="F213" s="10" t="s">
         <v>948</v>
       </c>
-      <c r="F213" s="10" t="s">
+      <c r="G213" s="10" t="s">
         <v>949</v>
       </c>
-      <c r="G213" s="10" t="s">
+      <c r="H213" s="10" t="s">
         <v>950</v>
       </c>
-      <c r="H213" s="10" t="s">
+      <c r="I213" s="2" t="s">
         <v>951</v>
       </c>
-      <c r="I213" s="2" t="s">
+      <c r="J213" s="2" t="s">
         <v>952</v>
       </c>
-      <c r="J213" s="2" t="s">
-        <v>953</v>
-      </c>
       <c r="K213" s="8" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="215" spans="2:11" x14ac:dyDescent="0.15">
@@ -13955,10 +14436,10 @@
         <v>0</v>
       </c>
       <c r="J216" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="K216" s="8" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="218" spans="2:11" x14ac:dyDescent="0.15">
@@ -14010,16 +14491,16 @@
         <v>0</v>
       </c>
       <c r="H219" s="10" t="s">
+        <v>954</v>
+      </c>
+      <c r="I219" s="2" t="s">
         <v>955</v>
       </c>
-      <c r="I219" s="2" t="s">
+      <c r="J219" s="2" t="s">
         <v>956</v>
       </c>
-      <c r="J219" s="2" t="s">
-        <v>957</v>
-      </c>
       <c r="K219" s="8" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="221" spans="2:11" x14ac:dyDescent="0.15">
@@ -14056,31 +14537,31 @@
         <v>24</v>
       </c>
       <c r="C222" s="10" t="s">
+        <v>957</v>
+      </c>
+      <c r="D222" s="10" t="s">
         <v>958</v>
       </c>
-      <c r="D222" s="10" t="s">
+      <c r="E222" s="10" t="s">
         <v>959</v>
       </c>
-      <c r="E222" s="10" t="s">
+      <c r="F222" s="10" t="s">
         <v>960</v>
       </c>
-      <c r="F222" s="10" t="s">
+      <c r="G222" s="10" t="s">
         <v>961</v>
       </c>
-      <c r="G222" s="10" t="s">
+      <c r="H222" s="10" t="s">
         <v>962</v>
       </c>
-      <c r="H222" s="10" t="s">
+      <c r="I222" s="10" t="s">
         <v>963</v>
       </c>
-      <c r="I222" s="10" t="s">
+      <c r="J222" s="10" t="s">
         <v>964</v>
       </c>
-      <c r="J222" s="10" t="s">
-        <v>965</v>
-      </c>
       <c r="K222" s="8" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="224" spans="2:11" x14ac:dyDescent="0.15">
@@ -14129,19 +14610,19 @@
         <v>0</v>
       </c>
       <c r="G225" s="10" t="s">
+        <v>965</v>
+      </c>
+      <c r="H225" s="10" t="s">
         <v>966</v>
       </c>
-      <c r="H225" s="10" t="s">
+      <c r="I225" s="10" t="s">
         <v>967</v>
       </c>
-      <c r="I225" s="10" t="s">
+      <c r="J225" s="3">
+        <v>0</v>
+      </c>
+      <c r="K225" s="16" t="s">
         <v>968</v>
-      </c>
-      <c r="J225" s="3">
-        <v>0</v>
-      </c>
-      <c r="K225" s="16" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="226" spans="2:11" x14ac:dyDescent="0.15">
@@ -14161,19 +14642,19 @@
         <v>0</v>
       </c>
       <c r="G226" s="10" t="s">
+        <v>969</v>
+      </c>
+      <c r="H226" s="10" t="s">
+        <v>965</v>
+      </c>
+      <c r="I226" s="10" t="s">
+        <v>966</v>
+      </c>
+      <c r="J226" s="10" t="s">
+        <v>967</v>
+      </c>
+      <c r="K226" s="16" t="s">
         <v>970</v>
-      </c>
-      <c r="H226" s="10" t="s">
-        <v>966</v>
-      </c>
-      <c r="I226" s="10" t="s">
-        <v>967</v>
-      </c>
-      <c r="J226" s="10" t="s">
-        <v>968</v>
-      </c>
-      <c r="K226" s="16" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="228" spans="2:11" x14ac:dyDescent="0.15">
@@ -14219,22 +14700,22 @@
         <v>0</v>
       </c>
       <c r="F229" s="10" t="s">
+        <v>971</v>
+      </c>
+      <c r="G229" s="10" t="s">
         <v>972</v>
       </c>
-      <c r="G229" s="10" t="s">
+      <c r="H229" s="10" t="s">
         <v>973</v>
       </c>
-      <c r="H229" s="10" t="s">
+      <c r="I229" s="10" t="s">
         <v>974</v>
       </c>
-      <c r="I229" s="10" t="s">
+      <c r="J229" s="10" t="s">
         <v>975</v>
       </c>
-      <c r="J229" s="10" t="s">
+      <c r="K229" s="8" t="s">
         <v>976</v>
-      </c>
-      <c r="K229" s="8" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="231" spans="2:11" x14ac:dyDescent="0.15">
@@ -14283,19 +14764,19 @@
         <v>0</v>
       </c>
       <c r="G232" s="10" t="s">
+        <v>977</v>
+      </c>
+      <c r="H232" s="10" t="s">
         <v>978</v>
       </c>
-      <c r="H232" s="10" t="s">
+      <c r="I232" s="10" t="s">
         <v>979</v>
       </c>
-      <c r="I232" s="10" t="s">
+      <c r="J232" s="10" t="s">
         <v>980</v>
       </c>
-      <c r="J232" s="10" t="s">
+      <c r="K232" s="8" t="s">
         <v>981</v>
-      </c>
-      <c r="K232" s="8" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="234" spans="2:11" x14ac:dyDescent="0.15">
@@ -14371,7 +14852,7 @@
   <dimension ref="B1:K111"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M80" sqref="M80"/>
+      <selection activeCell="M80" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16711,10 +17192,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16868,7 +17349,7 @@
         <v>753</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -16885,7 +17366,7 @@
         <v>753</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -16896,13 +17377,13 @@
         <v>731</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>767</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -16916,100 +17397,94 @@
         <v>744</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F12" s="19" t="s">
+        <v>732</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>751</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>754</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F14" s="19" t="s">
         <v>761</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>725</v>
-      </c>
-      <c r="C14" t="s">
-        <v>737</v>
-      </c>
-      <c r="D14" t="s">
-        <v>753</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>725</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>737</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>753</v>
-      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C15" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D15" t="s">
         <v>753</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>756</v>
+        <v>725</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>751</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>768</v>
+        <v>753</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C16" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D16" t="s">
         <v>753</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>753</v>
+        <v>751</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C17" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D17" t="s">
         <v>753</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>728</v>
+        <v>757</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="H17" s="19" t="s">
         <v>753</v>
@@ -17017,42 +17492,39 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C18" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D18" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H18" s="19" t="s">
         <v>753</v>
       </c>
-      <c r="I18" s="19" t="s">
-        <v>770</v>
-      </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C19" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D19" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="H19" s="19" t="s">
         <v>753</v>
@@ -17063,76 +17535,97 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C20" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D20" t="s">
+        <v>751</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>730</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>739</v>
+      </c>
+      <c r="H20" s="19" t="s">
         <v>753</v>
       </c>
-      <c r="F20" s="19" t="s">
-        <v>731</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>766</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>751</v>
-      </c>
       <c r="I20" s="19" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C21" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D21" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H21" s="19" t="s">
         <v>753</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>771</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C22" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D22" t="s">
         <v>752</v>
       </c>
-      <c r="E22" t="s">
-        <v>763</v>
+      <c r="F22" s="19" t="s">
+        <v>732</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>744</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>752</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C23" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D23" t="s">
         <v>752</v>
       </c>
       <c r="E23" t="s">
         <v>763</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>732</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>751</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
@@ -17140,10 +17633,10 @@
         <v>734</v>
       </c>
       <c r="C24" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D24" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E24" t="s">
         <v>763</v>
@@ -17151,13 +17644,13 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C25" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D25" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E25" t="s">
         <v>763</v>
@@ -17165,10 +17658,10 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C26" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D26" t="s">
         <v>752</v>
@@ -17182,12 +17675,26 @@
         <v>736</v>
       </c>
       <c r="C27" t="s">
+        <v>749</v>
+      </c>
+      <c r="D27" t="s">
+        <v>752</v>
+      </c>
+      <c r="E27" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>736</v>
+      </c>
+      <c r="C28" t="s">
         <v>750</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>751</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>763</v>
       </c>
     </row>
@@ -17200,17 +17707,1901 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K266"/>
+  <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="10" width="6.625" customWidth="1"/>
+    <col min="11" max="11" width="79" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B1" s="6" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>983</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>984</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>985</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>986</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>987</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>988</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>989</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>990</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="11" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="11" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="11" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="11" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="11" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="11" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" s="4"/>
+      <c r="B19" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>997</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>998</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>999</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>1001</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="11" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="11"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="11"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" s="4"/>
+      <c r="B24" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>1010</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="11"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="11" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="11"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K28" s="11"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29" s="4"/>
+      <c r="B29" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="11"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K31" s="11"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32" s="4"/>
+      <c r="B32" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>1032</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>1033</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="8"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K34" s="11"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A35" s="4"/>
+      <c r="B35" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C35" s="10">
+        <v>0</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0</v>
+      </c>
+      <c r="E35" s="10">
+        <v>0</v>
+      </c>
+      <c r="F35" s="10">
+        <v>0</v>
+      </c>
+      <c r="G35" s="10">
+        <v>0</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="J38" s="4"/>
+      <c r="K38" s="11" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="11" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="11"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="11" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="11" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="8"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="11"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A45" s="4"/>
+      <c r="B45" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="G45" s="10">
+        <v>0</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="K45" s="16" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="11"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="J48" s="4"/>
+      <c r="K48" s="11" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="11" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="11" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="11" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="11" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="11" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="11"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A55" s="4"/>
+      <c r="B55" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K55" s="11"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A56" s="4"/>
+      <c r="B56" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C56" s="10">
+        <v>0</v>
+      </c>
+      <c r="D56" s="10">
+        <v>0</v>
+      </c>
+      <c r="E56" s="10">
+        <v>0</v>
+      </c>
+      <c r="F56" s="10">
+        <v>0</v>
+      </c>
+      <c r="G56" s="10">
+        <v>0</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="I56" s="10">
+        <v>0</v>
+      </c>
+      <c r="J56" s="10">
+        <v>0</v>
+      </c>
+      <c r="K56" s="16" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="11" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4">
+        <v>0</v>
+      </c>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="11" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4">
+        <v>1</v>
+      </c>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="11" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="11"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="11"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="11"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="11"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="11"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="11"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="11"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="11"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="11"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="11"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="11"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="11"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="11"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="8"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="11"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="11"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="11"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="11"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="11"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="11"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="11"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="11"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="11"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="11"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="8"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="8"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="8"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="8"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="8"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="8"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="8"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="8"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="8"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K261"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.125" customWidth="1"/>
     <col min="2" max="10" width="4.75" customWidth="1"/>
-    <col min="11" max="11" width="61.25" customWidth="1"/>
+    <col min="11" max="11" width="65.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.15">
@@ -17303,7 +19694,7 @@
       </c>
       <c r="J5" s="1"/>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.15">
@@ -17311,18 +19702,18 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.15">
@@ -17334,14 +19725,14 @@
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" t="s">
-        <v>21</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.15">
@@ -17353,14 +19744,14 @@
         <v>0</v>
       </c>
       <c r="H8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">
@@ -17369,7 +19760,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
@@ -17379,7 +19770,7 @@
       </c>
       <c r="J9" s="1"/>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.15">
@@ -17388,17 +19779,17 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.15">
@@ -17407,17 +19798,17 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="4">
         <v>1</v>
       </c>
       <c r="I11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" t="s">
-        <v>25</v>
+      <c r="K11" s="20" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
@@ -17429,14 +19820,14 @@
         <v>1</v>
       </c>
       <c r="H12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" t="s">
-        <v>26</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
@@ -17444,75 +19835,52 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <v>1</v>
-      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="4">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4">
-        <v>1</v>
-      </c>
-      <c r="I14" s="4">
-        <v>1</v>
-      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="4">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4">
-        <v>1</v>
-      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="4">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4">
-        <v>1</v>
-      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.15">
@@ -17520,19 +19888,10 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="4">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4">
-        <v>1</v>
-      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C18" s="1"/>
@@ -17543,49 +19902,49 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
+      <c r="K18" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
+      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C22" s="1"/>
@@ -17596,10 +19955,15 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
+      <c r="K22" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -17607,230 +19971,217 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
+      <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" t="s">
-        <v>32</v>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
       <c r="K28" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="J29">
+        <v>0</v>
+      </c>
       <c r="K29" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B31" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>8</v>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B32" s="2">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>36</v>
+      <c r="K32" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="I33">
+        <v>0</v>
+      </c>
       <c r="K33" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="6:11" x14ac:dyDescent="0.15">
-      <c r="J34">
-        <v>0</v>
+      <c r="I34">
+        <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="6:11" x14ac:dyDescent="0.15">
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="K36" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
       <c r="K37" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="6:11" x14ac:dyDescent="0.15">
-      <c r="I38">
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="6:11" x14ac:dyDescent="0.15">
-      <c r="I39">
-        <v>1</v>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="6:11" x14ac:dyDescent="0.15">
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
       <c r="K41" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="6:11" x14ac:dyDescent="0.15">
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="6:11" x14ac:dyDescent="0.15">
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="6:11" x14ac:dyDescent="0.15">
@@ -17841,7 +20192,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="6:11" x14ac:dyDescent="0.15">
@@ -17852,7 +20203,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="6:11" x14ac:dyDescent="0.15">
@@ -17860,10 +20211,10 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="6:11" x14ac:dyDescent="0.15">
@@ -17874,7 +20225,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="6:11" x14ac:dyDescent="0.15">
@@ -17885,7 +20236,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.15">
@@ -17896,170 +20247,190 @@
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="K50" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
       <c r="K51" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
+      <c r="E52">
         <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
+      <c r="E53">
+        <v>1</v>
       </c>
       <c r="K53" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="K54" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K55" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D56">
+        <v>0</v>
+      </c>
       <c r="K56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E57">
-        <v>0</v>
+      <c r="D57">
+        <v>1</v>
       </c>
       <c r="K57" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="K58" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B59" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K60" t="s">
-        <v>53</v>
+      <c r="B60" s="2">
+        <v>2</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K60" s="8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="K61" t="s">
-        <v>51</v>
+      <c r="K61" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="K62" t="s">
-        <v>17</v>
-      </c>
+      <c r="K62" s="9"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B63" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K63" s="9"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B64" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E64" s="5" t="s">
+      <c r="B64" s="2">
         <v>3</v>
       </c>
-      <c r="F64" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J64" s="5" t="s">
-        <v>8</v>
+      <c r="C64" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K64" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B65" s="2">
-        <v>2</v>
-      </c>
-      <c r="C65" s="3">
-        <v>0</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K65" s="8" t="s">
-        <v>67</v>
+      <c r="K65" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K66" s="9" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.15">
@@ -18097,48 +20468,45 @@
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B69" s="2">
-        <v>3</v>
-      </c>
-      <c r="C69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H69" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="I69" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="J69" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="K69" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K70" s="9" t="s">
-        <v>68</v>
+      <c r="K70" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K71" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K72" s="9"/>
+      <c r="K71" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B73" s="5" t="s">
@@ -18168,48 +20536,47 @@
       <c r="J73" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K73" s="9"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B74" s="2">
-        <v>4</v>
-      </c>
-      <c r="C74" s="3">
-        <v>0</v>
-      </c>
-      <c r="D74" s="3">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="I74" s="3">
+        <v>1</v>
+      </c>
+      <c r="J74" s="3">
+        <v>1</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K75" s="4" t="s">
-        <v>71</v>
+      <c r="K75" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K76" s="4" t="s">
-        <v>72</v>
+      <c r="K76" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.15">
@@ -18243,44 +20610,44 @@
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B79" s="2">
-        <v>5</v>
-      </c>
-      <c r="C79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="3">
+        <v>0</v>
+      </c>
+      <c r="D79" s="3">
+        <v>0</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="H79" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="I79" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="J79" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G79" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I79" s="3">
-        <v>1</v>
-      </c>
-      <c r="J79" s="3">
-        <v>1</v>
-      </c>
       <c r="K79" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K80" t="s">
-        <v>74</v>
+      <c r="K80" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K81" t="s">
-        <v>75</v>
+      <c r="K81" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.15">
@@ -18314,587 +20681,587 @@
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B84" s="2">
-        <v>6</v>
-      </c>
-      <c r="C84" s="3">
-        <v>0</v>
-      </c>
-      <c r="D84" s="3">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K85" s="4" t="s">
-        <v>77</v>
+      <c r="K85" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K86" s="4" t="s">
-        <v>72</v>
+      <c r="K86" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K87" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B88" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H88" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I88" s="5" t="s">
+      <c r="B88" s="2">
         <v>7</v>
       </c>
-      <c r="J88" s="7" t="s">
-        <v>8</v>
+      <c r="C88" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B89" s="2">
-        <v>7</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J89" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K89" s="8" t="s">
-        <v>86</v>
+      <c r="K89" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K90" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K91" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K92" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B93" s="2">
+      <c r="B93" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I93" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J93" s="2" t="s">
-        <v>85</v>
+      <c r="J93" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K94" t="s">
-        <v>90</v>
+      <c r="B94" s="2">
+        <v>8</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K94" s="8" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K95" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J96">
+        <v>0</v>
+      </c>
       <c r="K96" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B98" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D98" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="97" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="K99" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="100" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="K100" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="101" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="K101" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="103" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="K103" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="104" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="K104" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="105" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="K105" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="107" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="K107" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="108" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="K108" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="109" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="K109" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="111" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="K111" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="112" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="K112" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="K113" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K115" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="K116" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="K117" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K119" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="K120" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="K121" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B123" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D123" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E98" s="5" t="s">
+      <c r="E123" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F98" s="5" t="s">
+      <c r="F123" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G98" s="5" t="s">
+      <c r="G123" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H98" s="5" t="s">
+      <c r="H123" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I98" s="5" t="s">
+      <c r="I123" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J98" s="7" t="s">
+      <c r="J123" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B99" s="2">
+    <row r="124" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B124" s="2">
+        <v>9</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D124" s="3">
+        <v>0</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K124" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K125" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="129" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="K129" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="130" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="K130" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="131" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="K131" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="133" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="K133" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="134" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="K134" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="135" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="K135" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="137" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="K137" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="138" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="K138" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="139" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="K139" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="K141" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="142" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="K142" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="143" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="K143" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="144" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="K144" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="145" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="K145" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K147" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="148" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="K148" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="149" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="K149" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B151" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G151" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I151" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J151" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H99" s="3">
-        <v>0</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="K99" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K100" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="J101">
-        <v>0</v>
-      </c>
-      <c r="K101" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="J102">
-        <v>1</v>
-      </c>
-      <c r="K102" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K104" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="I105">
-        <v>0</v>
-      </c>
-      <c r="K105" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="I106">
-        <v>1</v>
-      </c>
-      <c r="K106" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K108" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G109">
-        <v>0</v>
-      </c>
-      <c r="K109" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G110">
-        <v>1</v>
-      </c>
-      <c r="K110" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K112" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="F113">
-        <v>0</v>
-      </c>
-      <c r="K113" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="F114">
-        <v>1</v>
-      </c>
-      <c r="K114" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K116" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E117">
-        <v>0</v>
-      </c>
-      <c r="K117" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E118">
-        <v>1</v>
-      </c>
-      <c r="K118" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K120" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D121">
-        <v>0</v>
-      </c>
-      <c r="K121" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D122">
-        <v>1</v>
-      </c>
-      <c r="K122" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K124" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C125">
-        <v>0</v>
-      </c>
-      <c r="K125" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C126">
-        <v>1</v>
-      </c>
-      <c r="K126" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B128" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G128" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H128" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I128" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J128" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B129" s="2">
-        <v>9</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D129" s="3">
-        <v>0</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J129" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K129" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K130" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="J131">
-        <v>0</v>
-      </c>
-      <c r="K131" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="J132">
-        <v>1</v>
-      </c>
-      <c r="K132" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K134" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="I135">
-        <v>0</v>
-      </c>
-      <c r="K135" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="I136">
-        <v>1</v>
-      </c>
-      <c r="K136" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K138" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="H139">
-        <v>0</v>
-      </c>
-      <c r="K139" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="H140">
-        <v>1</v>
-      </c>
-      <c r="K140" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K142" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G143">
-        <v>0</v>
-      </c>
-      <c r="K143" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="144" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G144">
-        <v>1</v>
-      </c>
-      <c r="K144" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K146" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E147">
-        <v>0</v>
-      </c>
-      <c r="F147">
-        <v>0</v>
-      </c>
-      <c r="K147" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E148">
-        <v>0</v>
-      </c>
-      <c r="F148">
-        <v>1</v>
-      </c>
-      <c r="K148" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E149">
-        <v>1</v>
-      </c>
-      <c r="F149">
-        <v>0</v>
-      </c>
-      <c r="K149" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E150">
-        <v>1</v>
-      </c>
-      <c r="F150">
-        <v>1</v>
-      </c>
-      <c r="K150" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="152" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K152" t="s">
-        <v>148</v>
+      <c r="B152" s="2">
+        <v>10</v>
+      </c>
+      <c r="C152" s="3">
+        <v>0</v>
+      </c>
+      <c r="D152" s="3">
+        <v>0</v>
+      </c>
+      <c r="E152" s="3">
+        <v>0</v>
+      </c>
+      <c r="F152" s="3">
+        <v>0</v>
+      </c>
+      <c r="G152" s="3">
+        <v>0</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J152" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K152" s="8" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C153">
-        <v>0</v>
-      </c>
       <c r="K153" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C154">
-        <v>1</v>
-      </c>
       <c r="K154" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="156" spans="2:11" x14ac:dyDescent="0.15">
@@ -18928,7 +21295,7 @@
     </row>
     <row r="157" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B157" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C157" s="3">
         <v>0</v>
@@ -18945,27 +21312,27 @@
       <c r="G157" s="3">
         <v>0</v>
       </c>
-      <c r="H157" s="2" t="s">
+      <c r="H157" s="3">
+        <v>0</v>
+      </c>
+      <c r="I157" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I157" s="2" t="s">
+      <c r="J157" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="K157" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="158" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K158" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="159" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K159" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="161" spans="2:11" x14ac:dyDescent="0.15">
@@ -18999,647 +21366,647 @@
     </row>
     <row r="162" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B162" s="2">
-        <v>11</v>
-      </c>
-      <c r="C162" s="3">
-        <v>0</v>
-      </c>
-      <c r="D162" s="3">
-        <v>0</v>
-      </c>
-      <c r="E162" s="3">
-        <v>0</v>
-      </c>
-      <c r="F162" s="3">
-        <v>0</v>
-      </c>
-      <c r="G162" s="3">
-        <v>0</v>
-      </c>
-      <c r="H162" s="3">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D162" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E162" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F162" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="G162" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="H162" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>55</v>
+        <v>164</v>
       </c>
       <c r="K162" s="8" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="163" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K163" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="164" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="G164" t="s">
+        <v>167</v>
+      </c>
+      <c r="H164" t="s">
+        <v>167</v>
+      </c>
+      <c r="I164" t="s">
+        <v>167</v>
+      </c>
+      <c r="J164" t="s">
+        <v>167</v>
+      </c>
       <c r="K164" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="166" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B166" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D166" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="165" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C165" t="s">
+        <v>167</v>
+      </c>
+      <c r="D165" t="s">
+        <v>167</v>
+      </c>
+      <c r="E165" t="s">
+        <v>167</v>
+      </c>
+      <c r="F165" t="s">
+        <v>167</v>
+      </c>
+      <c r="K165" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="167" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B167" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D167" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E166" s="5" t="s">
+      <c r="E167" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F166" s="5" t="s">
+      <c r="F167" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G166" s="5" t="s">
+      <c r="G167" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H166" s="5" t="s">
+      <c r="H167" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I166" s="5" t="s">
+      <c r="I167" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J166" s="7" t="s">
+      <c r="J167" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B167" s="2">
-        <v>12</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D167" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E167" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="F167" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="G167" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="H167" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="I167" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="J167" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="K167" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
     <row r="168" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K168" t="s">
-        <v>166</v>
+      <c r="B168" s="2">
+        <v>13</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D168" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E168" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F168" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G168" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H168" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J168" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K168" s="8" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="169" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G169" t="s">
+      <c r="K169" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="170" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="G170" t="s">
         <v>167</v>
       </c>
-      <c r="H169" t="s">
+      <c r="H170" t="s">
         <v>167</v>
       </c>
-      <c r="I169" t="s">
+      <c r="I170" t="s">
         <v>167</v>
       </c>
-      <c r="J169" t="s">
+      <c r="J170" t="s">
         <v>167</v>
       </c>
-      <c r="K169" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="170" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C170" t="s">
+      <c r="K170" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="171" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C171" t="s">
         <v>167</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D171" t="s">
         <v>167</v>
       </c>
-      <c r="E170" t="s">
+      <c r="E171" t="s">
         <v>167</v>
       </c>
-      <c r="F170" t="s">
+      <c r="F171" t="s">
         <v>167</v>
       </c>
-      <c r="K170" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="172" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B172" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D172" s="5" t="s">
+      <c r="K171" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="173" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B173" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D173" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E172" s="5" t="s">
+      <c r="E173" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F172" s="5" t="s">
+      <c r="F173" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G172" s="5" t="s">
+      <c r="G173" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H172" s="5" t="s">
+      <c r="H173" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I172" s="5" t="s">
+      <c r="I173" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J172" s="7" t="s">
+      <c r="J173" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B173" s="2">
-        <v>13</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="D173" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="E173" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="F173" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="G173" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="H173" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="I173" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="J173" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="K173" s="8" t="s">
+    <row r="174" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B174" s="2">
+        <v>14</v>
+      </c>
+      <c r="C174" s="3">
+        <v>0</v>
+      </c>
+      <c r="D174" s="3">
+        <v>0</v>
+      </c>
+      <c r="E174" s="3">
+        <v>0</v>
+      </c>
+      <c r="F174" s="3">
+        <v>0</v>
+      </c>
+      <c r="G174" s="3">
+        <v>0</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J174" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K174" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="175" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K175" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="177" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B177" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G177" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H177" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I177" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J177" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B178" s="2">
+        <v>15</v>
+      </c>
+      <c r="C178" s="3">
+        <v>0</v>
+      </c>
+      <c r="D178" s="3">
+        <v>0</v>
+      </c>
+      <c r="E178" s="3">
+        <v>0</v>
+      </c>
+      <c r="F178" s="3">
+        <v>0</v>
+      </c>
+      <c r="G178" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="H178" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I178" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J178" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K178" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="179" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K179" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="181" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B181" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G181" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H181" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I181" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J181" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B182" s="2">
+        <v>16</v>
+      </c>
+      <c r="C182" s="3">
+        <v>0</v>
+      </c>
+      <c r="D182" s="3">
+        <v>0</v>
+      </c>
+      <c r="E182" s="3">
+        <v>0</v>
+      </c>
+      <c r="F182" s="3">
+        <v>0</v>
+      </c>
+      <c r="G182" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="H182" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="I182" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J182" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K182" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="183" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K183" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="185" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B185" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F185" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G185" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H185" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I185" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J185" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B186" s="2">
+        <v>17</v>
+      </c>
+      <c r="C186" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D186" s="3">
+        <v>0</v>
+      </c>
+      <c r="E186" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F186" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="G186" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="H186" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="I186" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="J186" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K186" s="8" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="174" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K174" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="175" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G175" t="s">
+    <row r="187" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K187" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="188" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E188" t="s">
         <v>167</v>
       </c>
-      <c r="H175" t="s">
+      <c r="F188" t="s">
         <v>167</v>
       </c>
-      <c r="I175" t="s">
+      <c r="G188" t="s">
         <v>167</v>
       </c>
-      <c r="J175" t="s">
+      <c r="H188" t="s">
         <v>167</v>
       </c>
-      <c r="K175" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="176" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C176" t="s">
+      <c r="I188" t="s">
         <v>167</v>
       </c>
-      <c r="D176" t="s">
+      <c r="J188" t="s">
         <v>167</v>
       </c>
-      <c r="E176" t="s">
+      <c r="K188" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="190" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K190" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="191" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="K191" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="192" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="K192" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="194" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B194" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G194" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H194" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I194" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J194" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B195" s="2">
+        <v>18</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D195" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E195" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F195" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="G195" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="H195" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="I195" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J195" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K195" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="197" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="G197" t="s">
         <v>167</v>
       </c>
-      <c r="F176" t="s">
+      <c r="H197" t="s">
         <v>167</v>
       </c>
-      <c r="K176" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="178" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B178" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D178" s="5" t="s">
+      <c r="I197" t="s">
+        <v>167</v>
+      </c>
+      <c r="J197" t="s">
+        <v>167</v>
+      </c>
+      <c r="K197" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="198" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C198" t="s">
+        <v>167</v>
+      </c>
+      <c r="D198" t="s">
+        <v>167</v>
+      </c>
+      <c r="E198" t="s">
+        <v>167</v>
+      </c>
+      <c r="F198" t="s">
+        <v>167</v>
+      </c>
+      <c r="K198" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="200" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B200" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D200" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E178" s="5" t="s">
+      <c r="E200" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F178" s="5" t="s">
+      <c r="F200" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G178" s="5" t="s">
+      <c r="G200" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H178" s="5" t="s">
+      <c r="H200" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I178" s="5" t="s">
+      <c r="I200" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J178" s="7" t="s">
+      <c r="J200" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B179" s="2">
-        <v>14</v>
-      </c>
-      <c r="C179" s="3">
-        <v>0</v>
-      </c>
-      <c r="D179" s="3">
-        <v>0</v>
-      </c>
-      <c r="E179" s="3">
-        <v>0</v>
-      </c>
-      <c r="F179" s="3">
-        <v>0</v>
-      </c>
-      <c r="G179" s="3">
-        <v>0</v>
-      </c>
-      <c r="H179" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I179" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J179" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K179" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="180" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K180" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="182" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B182" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C182" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D182" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E182" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F182" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G182" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H182" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I182" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J182" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="183" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B183" s="2">
-        <v>15</v>
-      </c>
-      <c r="C183" s="3">
-        <v>0</v>
-      </c>
-      <c r="D183" s="3">
-        <v>0</v>
-      </c>
-      <c r="E183" s="3">
-        <v>0</v>
-      </c>
-      <c r="F183" s="3">
-        <v>0</v>
-      </c>
-      <c r="G183" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="H183" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="I183" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="J183" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="K183" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="184" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K184" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="186" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B186" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C186" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D186" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E186" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F186" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G186" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H186" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I186" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J186" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="187" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B187" s="2">
-        <v>16</v>
-      </c>
-      <c r="C187" s="3">
-        <v>0</v>
-      </c>
-      <c r="D187" s="3">
-        <v>0</v>
-      </c>
-      <c r="E187" s="3">
-        <v>0</v>
-      </c>
-      <c r="F187" s="3">
-        <v>0</v>
-      </c>
-      <c r="G187" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="H187" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="I187" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J187" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="K187" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="188" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K188" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="190" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B190" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C190" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D190" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E190" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F190" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G190" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H190" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I190" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J190" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="191" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B191" s="2">
-        <v>17</v>
-      </c>
-      <c r="C191" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D191" s="3">
-        <v>0</v>
-      </c>
-      <c r="E191" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="F191" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="G191" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="H191" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="I191" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J191" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="K191" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="192" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K192" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="193" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E193" t="s">
-        <v>167</v>
-      </c>
-      <c r="F193" t="s">
-        <v>167</v>
-      </c>
-      <c r="G193" t="s">
-        <v>167</v>
-      </c>
-      <c r="H193" t="s">
-        <v>167</v>
-      </c>
-      <c r="I193" t="s">
-        <v>167</v>
-      </c>
-      <c r="J193" t="s">
-        <v>167</v>
-      </c>
-      <c r="K193" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="195" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K195" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="196" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C196">
-        <v>0</v>
-      </c>
-      <c r="K196" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="197" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C197">
-        <v>1</v>
-      </c>
-      <c r="K197" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="199" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B199" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C199" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D199" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E199" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F199" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G199" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H199" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I199" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J199" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="200" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B200" s="2">
-        <v>18</v>
-      </c>
-      <c r="C200" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D200" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="E200" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="F200" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="G200" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="H200" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="I200" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="J200" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K200" s="8" t="s">
-        <v>214</v>
+    <row r="201" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B201" s="2">
+        <v>19</v>
+      </c>
+      <c r="C201" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D201" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E201" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F201" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G201" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="H201" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="I201" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="J201" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="K201" s="8" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="202" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G202" t="s">
-        <v>167</v>
-      </c>
-      <c r="H202" t="s">
-        <v>167</v>
-      </c>
-      <c r="I202" t="s">
-        <v>167</v>
-      </c>
-      <c r="J202" t="s">
-        <v>167</v>
-      </c>
       <c r="K202" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="203" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C203" t="s">
-        <v>167</v>
-      </c>
-      <c r="D203" t="s">
-        <v>167</v>
-      </c>
-      <c r="E203" t="s">
-        <v>167</v>
-      </c>
-      <c r="F203" t="s">
-        <v>167</v>
-      </c>
       <c r="K203" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="205" spans="2:11" x14ac:dyDescent="0.15">
@@ -19673,242 +22040,242 @@
     </row>
     <row r="206" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B206" s="2">
-        <v>19</v>
-      </c>
-      <c r="C206" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="D206" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E206" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="F206" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="G206" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="H206" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="I206" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="J206" s="10" t="s">
-        <v>224</v>
+        <v>20</v>
+      </c>
+      <c r="C206" s="3">
+        <v>0</v>
+      </c>
+      <c r="D206" s="3">
+        <v>0</v>
+      </c>
+      <c r="E206" s="3">
+        <v>0</v>
+      </c>
+      <c r="F206" s="3">
+        <v>0</v>
+      </c>
+      <c r="G206" s="3">
+        <v>0</v>
+      </c>
+      <c r="H206" s="3">
+        <v>0</v>
+      </c>
+      <c r="I206" s="3">
+        <v>0</v>
+      </c>
+      <c r="J206" s="3">
+        <v>0</v>
       </c>
       <c r="K206" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="207" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K207" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="208" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K208" t="s">
-        <v>227</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="209" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B209" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F209" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G209" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H209" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I209" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J209" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="210" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B210" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C210" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D210" s="5" t="s">
+      <c r="B210" s="2">
+        <v>21</v>
+      </c>
+      <c r="C210" s="3">
+        <v>0</v>
+      </c>
+      <c r="D210" s="3">
+        <v>0</v>
+      </c>
+      <c r="E210" s="3">
+        <v>1</v>
+      </c>
+      <c r="F210" s="3">
+        <v>1</v>
+      </c>
+      <c r="G210" s="3">
+        <v>1</v>
+      </c>
+      <c r="H210" s="3">
+        <v>0</v>
+      </c>
+      <c r="I210" s="3">
+        <v>1</v>
+      </c>
+      <c r="J210" s="3">
+        <v>1</v>
+      </c>
+      <c r="K210" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="211" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K211" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="213" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B213" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D213" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E210" s="5" t="s">
+      <c r="E213" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F210" s="5" t="s">
+      <c r="F213" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G210" s="5" t="s">
+      <c r="G213" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H210" s="5" t="s">
+      <c r="H213" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I210" s="5" t="s">
+      <c r="I213" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J210" s="7" t="s">
+      <c r="J213" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B211" s="2">
-        <v>20</v>
-      </c>
-      <c r="C211" s="3">
-        <v>0</v>
-      </c>
-      <c r="D211" s="3">
-        <v>0</v>
-      </c>
-      <c r="E211" s="3">
-        <v>0</v>
-      </c>
-      <c r="F211" s="3">
-        <v>0</v>
-      </c>
-      <c r="G211" s="3">
-        <v>0</v>
-      </c>
-      <c r="H211" s="3">
-        <v>0</v>
-      </c>
-      <c r="I211" s="3">
-        <v>0</v>
-      </c>
-      <c r="J211" s="3">
-        <v>0</v>
-      </c>
-      <c r="K211" s="8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="212" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K212" t="s">
+    <row r="214" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B214" s="2">
+        <v>22</v>
+      </c>
+      <c r="C214" s="3">
+        <v>0</v>
+      </c>
+      <c r="D214" s="3">
+        <v>0</v>
+      </c>
+      <c r="E214" s="3">
+        <v>0</v>
+      </c>
+      <c r="F214" s="3">
+        <v>0</v>
+      </c>
+      <c r="G214" s="3">
+        <v>0</v>
+      </c>
+      <c r="H214" s="3">
+        <v>1</v>
+      </c>
+      <c r="I214" s="3">
+        <v>0</v>
+      </c>
+      <c r="J214" s="3">
+        <v>1</v>
+      </c>
+      <c r="K214" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="215" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K215" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="214" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B214" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C214" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D214" s="5" t="s">
+    <row r="217" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B217" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D217" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E214" s="5" t="s">
+      <c r="E217" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F214" s="5" t="s">
+      <c r="F217" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G214" s="5" t="s">
+      <c r="G217" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H214" s="5" t="s">
+      <c r="H217" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I214" s="5" t="s">
+      <c r="I217" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J214" s="7" t="s">
+      <c r="J217" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B215" s="2">
-        <v>21</v>
-      </c>
-      <c r="C215" s="3">
-        <v>0</v>
-      </c>
-      <c r="D215" s="3">
-        <v>0</v>
-      </c>
-      <c r="E215" s="3">
-        <v>1</v>
-      </c>
-      <c r="F215" s="3">
-        <v>1</v>
-      </c>
-      <c r="G215" s="3">
-        <v>1</v>
-      </c>
-      <c r="H215" s="3">
-        <v>0</v>
-      </c>
-      <c r="I215" s="3">
-        <v>1</v>
-      </c>
-      <c r="J215" s="3">
-        <v>1</v>
-      </c>
-      <c r="K215" s="8" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="216" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K216" t="s">
-        <v>229</v>
-      </c>
-    </row>
     <row r="218" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B218" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C218" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D218" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E218" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F218" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G218" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H218" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I218" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J218" s="7" t="s">
-        <v>8</v>
+      <c r="B218" s="2">
+        <v>23</v>
+      </c>
+      <c r="C218" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D218" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E218" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F218" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="G218" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="H218" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="I218" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="J218" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="K218" s="8" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="219" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B219" s="2">
-        <v>22</v>
-      </c>
-      <c r="C219" s="3">
-        <v>0</v>
-      </c>
-      <c r="D219" s="3">
-        <v>0</v>
-      </c>
-      <c r="E219" s="3">
-        <v>0</v>
-      </c>
-      <c r="F219" s="3">
-        <v>0</v>
-      </c>
-      <c r="G219" s="3">
-        <v>0</v>
-      </c>
-      <c r="H219" s="3">
-        <v>1</v>
-      </c>
-      <c r="I219" s="3">
-        <v>0</v>
-      </c>
-      <c r="J219" s="3">
-        <v>1</v>
-      </c>
-      <c r="K219" s="8" t="s">
-        <v>231</v>
+      <c r="K219" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="220" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K220" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
     </row>
     <row r="222" spans="2:11" x14ac:dyDescent="0.15">
@@ -19942,461 +22309,377 @@
     </row>
     <row r="223" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B223" s="2">
-        <v>23</v>
-      </c>
-      <c r="C223" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="D223" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="E223" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="F223" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="G223" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="H223" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="I223" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="J223" s="10" t="s">
-        <v>239</v>
+        <v>24</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H223" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I223" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="J223" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="K223" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="224" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K224" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="225" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K225" t="s">
-        <v>242</v>
+      <c r="B225" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D225" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E225" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F225" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G225" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H225" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I225" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J225" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B226" s="2">
+        <v>25</v>
+      </c>
+      <c r="C226" s="3">
+        <v>0</v>
+      </c>
+      <c r="D226" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E226" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F226" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="G226" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="H226" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="I226" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="J226" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="K226" s="8" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="227" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B227" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C227" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D227" s="5" t="s">
+      <c r="K227" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="228" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="229" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="J229">
+        <v>1</v>
+      </c>
+      <c r="K229" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="231" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K231" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="232" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="K232" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="233" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="I233">
+        <v>1</v>
+      </c>
+      <c r="K233" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="235" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K235" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="236" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="H236">
+        <v>0</v>
+      </c>
+      <c r="K236" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="237" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="H237">
+        <v>1</v>
+      </c>
+      <c r="K237" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="239" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K239" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="240" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="G240">
+        <v>0</v>
+      </c>
+      <c r="K240" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="241" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="G241">
+        <v>1</v>
+      </c>
+      <c r="K241" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="243" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K243" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="244" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="K244" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="245" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="F245">
+        <v>1</v>
+      </c>
+      <c r="K245" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="247" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K247" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="248" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="K248" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="249" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="K249" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="251" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K251" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="252" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="K252" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="253" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D253">
+        <v>1</v>
+      </c>
+      <c r="K253" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="255" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B255" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D255" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E227" s="5" t="s">
+      <c r="E255" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F227" s="5" t="s">
+      <c r="F255" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G227" s="5" t="s">
+      <c r="G255" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H227" s="5" t="s">
+      <c r="H255" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I227" s="5" t="s">
+      <c r="I255" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J227" s="7" t="s">
+      <c r="J255" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B228" s="2">
-        <v>24</v>
-      </c>
-      <c r="C228" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D228" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E228" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="F228" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="G228" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="H228" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="I228" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="J228" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="K228" s="8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="230" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B230" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C230" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D230" s="5" t="s">
+    <row r="256" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B256" s="2">
+        <v>26</v>
+      </c>
+      <c r="C256" s="3">
+        <v>0</v>
+      </c>
+      <c r="D256" s="3">
+        <v>0</v>
+      </c>
+      <c r="E256" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="F256" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="G256" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="H256" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I256" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="J256" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="K256" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="257" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K257" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="259" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B259" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D259" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E230" s="5" t="s">
+      <c r="E259" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F230" s="5" t="s">
+      <c r="F259" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G230" s="5" t="s">
+      <c r="G259" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H230" s="5" t="s">
+      <c r="H259" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I230" s="5" t="s">
+      <c r="I259" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J230" s="7" t="s">
+      <c r="J259" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B231" s="2">
-        <v>25</v>
-      </c>
-      <c r="C231" s="3">
-        <v>0</v>
-      </c>
-      <c r="D231" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="E231" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="F231" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="G231" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="H231" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="I231" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="J231" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="K231" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="232" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K232" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="233" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="J233">
-        <v>0</v>
-      </c>
-      <c r="K233" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="234" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="J234">
-        <v>1</v>
-      </c>
-      <c r="K234" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="236" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K236" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="237" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="I237">
-        <v>0</v>
-      </c>
-      <c r="K237" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="238" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="I238">
-        <v>1</v>
-      </c>
-      <c r="K238" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="240" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K240" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="241" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="H241">
-        <v>0</v>
-      </c>
-      <c r="K241" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="242" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="H242">
-        <v>1</v>
-      </c>
-      <c r="K242" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="244" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="K244" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="245" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="G245">
-        <v>0</v>
-      </c>
-      <c r="K245" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="246" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="G246">
-        <v>1</v>
-      </c>
-      <c r="K246" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="248" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="K248" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="249" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="F249">
-        <v>0</v>
-      </c>
-      <c r="K249" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="250" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="F250">
-        <v>1</v>
-      </c>
-      <c r="K250" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="252" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="K252" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="253" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E253">
-        <v>0</v>
-      </c>
-      <c r="K253" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="254" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E254">
-        <v>1</v>
-      </c>
-      <c r="K254" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="256" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="K256" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="257" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D257">
-        <v>0</v>
-      </c>
-      <c r="K257" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="258" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D258">
-        <v>1</v>
-      </c>
-      <c r="K258" t="s">
-        <v>273</v>
-      </c>
-    </row>
     <row r="260" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B260" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C260" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D260" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E260" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F260" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G260" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H260" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I260" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J260" s="7" t="s">
-        <v>8</v>
+      <c r="B260" s="2">
+        <v>27</v>
+      </c>
+      <c r="C260" s="3">
+        <v>0</v>
+      </c>
+      <c r="D260" s="3">
+        <v>0</v>
+      </c>
+      <c r="E260" s="3">
+        <v>0</v>
+      </c>
+      <c r="F260" s="3">
+        <v>0</v>
+      </c>
+      <c r="G260" s="3">
+        <v>0</v>
+      </c>
+      <c r="H260" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="I260" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="J260" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="K260" s="8" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="261" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B261" s="2">
-        <v>26</v>
-      </c>
-      <c r="C261" s="3">
-        <v>0</v>
-      </c>
-      <c r="D261" s="3">
-        <v>0</v>
-      </c>
-      <c r="E261" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="F261" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="G261" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="H261" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I261" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="J261" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="K261" s="8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="262" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K262" t="s">
+      <c r="K261" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="264" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B264" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C264" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D264" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E264" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F264" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G264" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H264" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I264" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J264" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="265" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B265" s="2">
-        <v>27</v>
-      </c>
-      <c r="C265" s="3">
-        <v>0</v>
-      </c>
-      <c r="D265" s="3">
-        <v>0</v>
-      </c>
-      <c r="E265" s="3">
-        <v>0</v>
-      </c>
-      <c r="F265" s="3">
-        <v>0</v>
-      </c>
-      <c r="G265" s="3">
-        <v>0</v>
-      </c>
-      <c r="H265" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="I265" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="J265" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="K265" s="8" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="266" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K266" t="s">
-        <v>281</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/msx3gen/v9978/files/v99x8_spec_registers.xlsx
+++ b/msx3gen/v9978/files/v99x8_spec_registers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="11745" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="11745" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="V9958(CONTROL)" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3093" uniqueCount="1065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3041" uniqueCount="1121">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -5380,19 +5380,415 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>---</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SCREEN8/10/11/12 (GRAPHIC7)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SCREEN0 W40 (TEXT1), SCREEN1 (GRAPHIC1), SCREEN3 (MULTI COLOR)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SCREEN0 W80 (TEXT2), SCREEN4 (GRAPHIC3)</t>
+    <t>PCG1 (256x212 PCG mode)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PCG2 (512x212 PCG mode)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BMP2 (512x212 Bitmap mode)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BMP2 (640x212 Bitmap mode)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BMP2 (256x212 Bitmap mode)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reserved</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IE2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IE3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IE3 コマンド完了割込許可</t>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ワリ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミズワリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IE2 水平位置割込許可</t>
+    <rPh sb="4" eb="6">
+      <t>スイヘイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ワリコミ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IE1 垂直位置割込許可</t>
+    <rPh sb="4" eb="6">
+      <t>スイチョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ワリ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミズワリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PCG3 (640x212 PCG mode)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2bpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BMP時のビット深度指定</t>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シンド</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4bpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8bpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16bpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VRAM Write Address (LOW) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VRAM Write Address (MID) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CVWA16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CVWA17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CVWA18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CVWA19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CVWA20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CVWA21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CVWA22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VRAM Write Address (HIGH) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VRAM Read Address (LOW) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VRAM Read Address (MID) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VRAM Read Address (HIGH) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CVRA22</t>
+  </si>
+  <si>
+    <t>CVRA21</t>
+  </si>
+  <si>
+    <t>CVRA20</t>
+  </si>
+  <si>
+    <t>CVRA19</t>
+  </si>
+  <si>
+    <r>
+      <t>Mode Register #1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [Read/Write]</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Mode Register #0</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [Read/Write]</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MIE1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MIE2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>垂直位置割込の挙動選択</t>
+    <rPh sb="0" eb="2">
+      <t>スイチョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ワリコミ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走査線割込（通常）</t>
+    <rPh sb="0" eb="3">
+      <t>ソウサセン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ワリコミ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y座標割込</t>
+    <rPh sb="1" eb="3">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ワリコミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追平一割込の挙動選択</t>
+    <rPh sb="0" eb="1">
+      <t>ツイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ヘイイチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ワリコミ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走査位置割込（通常）</t>
+    <rPh sb="0" eb="4">
+      <t>ソウサイチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ワリコミ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X座標割込</t>
+    <rPh sb="1" eb="3">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ワリコミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NTSC/PALモード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>垂直384ライン</t>
+    <rPh sb="0" eb="2">
+      <t>スイチョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YRES</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>垂直424ライン</t>
+    <rPh sb="0" eb="2">
+      <t>スイチョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメージスペースの水平サイズ</t>
+    <rPh sb="9" eb="11">
+      <t>スイヘイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>512pixel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>256pixel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1024pixel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2048pixel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメージスペースの垂直サイズ</t>
+    <rPh sb="9" eb="11">
+      <t>スイチョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Mode Register 2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [Read/Write]</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Mode Register 3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [Read/Write]</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Image Space Size Register [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YIMM0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YIMM1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5400,7 +5796,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5434,6 +5830,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -5530,7 +5944,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5591,7 +6005,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6539,7 +6974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K266"/>
   <sheetViews>
-    <sheetView topLeftCell="A185" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B199" sqref="B199:K203"/>
     </sheetView>
   </sheetViews>
@@ -12011,8 +12446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K235"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H27" sqref="G27:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14852,7 +15287,7 @@
   <dimension ref="B1:K111"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M80" sqref="A1:XFD1048576"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19591,16 +20026,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K261"/>
+  <dimension ref="B2:K210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P99" sqref="P99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.125" customWidth="1"/>
-    <col min="2" max="10" width="4.75" customWidth="1"/>
+    <col min="2" max="2" width="4.75" customWidth="1"/>
+    <col min="3" max="10" width="7.625" customWidth="1"/>
     <col min="11" max="11" width="65.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -19640,11 +20076,11 @@
       <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
+      <c r="D3" s="23" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>1068</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
@@ -19662,7 +20098,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>35</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
@@ -19693,8 +20129,8 @@
         <v>0</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" t="s">
-        <v>1063</v>
+      <c r="K5" s="20" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.15">
@@ -19712,8 +20148,8 @@
         <v>1</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" t="s">
-        <v>22</v>
+      <c r="K6" s="20" t="s">
+        <v>1062</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.15">
@@ -19731,8 +20167,8 @@
         <v>0</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" t="s">
-        <v>1064</v>
+      <c r="K7" s="20" t="s">
+        <v>1073</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.15">
@@ -19750,8 +20186,8 @@
         <v>1</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" t="s">
-        <v>25</v>
+      <c r="K8" s="20" t="s">
+        <v>1066</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">
@@ -19769,8 +20205,8 @@
         <v>0</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" t="s">
-        <v>26</v>
+      <c r="K9" s="20" t="s">
+        <v>1065</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.15">
@@ -19788,8 +20224,8 @@
         <v>1</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" t="s">
-        <v>27</v>
+      <c r="K10" s="20" t="s">
+        <v>1063</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.15">
@@ -19808,7 +20244,7 @@
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="20" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
@@ -19826,8 +20262,8 @@
         <v>1</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" t="s">
-        <v>1062</v>
+      <c r="K12" s="20" t="s">
+        <v>1066</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
@@ -19849,8 +20285,8 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" t="s">
-        <v>16</v>
+      <c r="K14" s="20" t="s">
+        <v>1072</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.15">
@@ -19902,14 +20338,14 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" t="s">
-        <v>31</v>
+      <c r="K18" s="20" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1">
+      <c r="E19" s="24">
         <v>0</v>
       </c>
       <c r="F19" s="1"/>
@@ -19917,14 +20353,14 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" t="s">
+      <c r="K19" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1">
+      <c r="E20" s="24">
         <v>1</v>
       </c>
       <c r="F20" s="1"/>
@@ -19932,7 +20368,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" t="s">
+      <c r="K20" s="20" t="s">
         <v>17</v>
       </c>
     </row>
@@ -19945,6 +20381,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
+      <c r="K21" s="20"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C22" s="1"/>
@@ -19955,13 +20392,13 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" t="s">
-        <v>32</v>
+      <c r="K22" s="20" t="s">
+        <v>1070</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C23" s="1"/>
-      <c r="D23" s="1">
+      <c r="D23" s="24">
         <v>0</v>
       </c>
       <c r="E23" s="1"/>
@@ -19970,13 +20407,13 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" t="s">
-        <v>33</v>
+      <c r="K23" s="20" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C24" s="1"/>
-      <c r="D24" s="1">
+      <c r="D24" s="24">
         <v>1</v>
       </c>
       <c r="E24" s="1"/>
@@ -19985,8 +20422,8 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" t="s">
-        <v>34</v>
+      <c r="K24" s="20" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.15">
@@ -20045,538 +20482,642 @@
         <v>39</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>40</v>
+        <v>1067</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>42</v>
+      <c r="I27" s="21">
+        <v>0</v>
+      </c>
+      <c r="J27" s="21">
+        <v>0</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>36</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K28" t="s">
-        <v>43</v>
+      <c r="K28" s="20" t="s">
+        <v>1075</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29" t="s">
-        <v>44</v>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30" t="s">
-        <v>45</v>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="K30" s="20" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="K31" s="20" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="6:11" x14ac:dyDescent="0.15">
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="K33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="6:11" x14ac:dyDescent="0.15">
-      <c r="I34">
-        <v>1</v>
-      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="K32" s="20" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="6:11" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E36">
+        <v>1</v>
+      </c>
       <c r="K36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="6:11" x14ac:dyDescent="0.15">
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="K37" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="6:11" x14ac:dyDescent="0.15">
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="6:11" x14ac:dyDescent="0.15">
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D39">
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="6:11" x14ac:dyDescent="0.15">
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D40">
+        <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="6:11" x14ac:dyDescent="0.15">
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="K41" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="6:11" x14ac:dyDescent="0.15">
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="K42" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="6:11" x14ac:dyDescent="0.15">
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="K43" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="6:11" x14ac:dyDescent="0.15">
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="K44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="6:11" x14ac:dyDescent="0.15">
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="K45" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="6:11" x14ac:dyDescent="0.15">
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="K46" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="6:11" x14ac:dyDescent="0.15">
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="K47" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="6:11" x14ac:dyDescent="0.15">
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="K48" t="s">
-        <v>30</v>
-      </c>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B42" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B43" s="2">
+        <v>2</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>851</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>852</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>853</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>854</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>855</v>
+      </c>
+      <c r="H43" s="23" t="s">
+        <v>856</v>
+      </c>
+      <c r="I43" s="23" t="s">
+        <v>857</v>
+      </c>
+      <c r="J43" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="K43" s="25" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K44" s="9"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B45" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="9"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B46" s="2">
+        <v>3</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>859</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>860</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>861</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>862</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>863</v>
+      </c>
+      <c r="H46" s="23" t="s">
+        <v>864</v>
+      </c>
+      <c r="I46" s="23" t="s">
+        <v>865</v>
+      </c>
+      <c r="J46" s="23" t="s">
+        <v>866</v>
+      </c>
+      <c r="K46" s="25" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K47" s="9"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B48" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" s="9"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="K49" t="s">
-        <v>18</v>
+      <c r="B49" s="2">
+        <v>4</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>867</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G49" s="23" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H49" s="23" t="s">
+        <v>1083</v>
+      </c>
+      <c r="I49" s="23" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J49" s="23" t="s">
+        <v>1081</v>
+      </c>
+      <c r="K49" s="25" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K51" t="s">
-        <v>50</v>
+      <c r="B51" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="K52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="K53" t="s">
-        <v>17</v>
+      <c r="B52" s="2">
+        <v>5</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>873</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>874</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>875</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>876</v>
+      </c>
+      <c r="G52" s="23" t="s">
+        <v>877</v>
+      </c>
+      <c r="H52" s="23" t="s">
+        <v>878</v>
+      </c>
+      <c r="I52" s="23" t="s">
+        <v>879</v>
+      </c>
+      <c r="J52" s="23" t="s">
+        <v>880</v>
+      </c>
+      <c r="K52" s="25" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B54" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K55" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="K56" t="s">
-        <v>51</v>
+      <c r="B55" s="2">
+        <v>6</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>881</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>882</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>883</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>884</v>
+      </c>
+      <c r="G55" s="23" t="s">
+        <v>885</v>
+      </c>
+      <c r="H55" s="23" t="s">
+        <v>886</v>
+      </c>
+      <c r="I55" s="23" t="s">
+        <v>887</v>
+      </c>
+      <c r="J55" s="23" t="s">
+        <v>888</v>
+      </c>
+      <c r="K55" s="25" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="K57" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B59" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D59" s="5" t="s">
+      <c r="B57" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E57" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F57" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="G57" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H59" s="5" t="s">
+      <c r="H57" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I59" s="5" t="s">
+      <c r="I57" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J59" s="5" t="s">
+      <c r="J57" s="7" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B58" s="2">
+        <v>7</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>889</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G58" s="23" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H58" s="23" t="s">
+        <v>890</v>
+      </c>
+      <c r="I58" s="23" t="s">
+        <v>891</v>
+      </c>
+      <c r="J58" s="23" t="s">
+        <v>892</v>
+      </c>
+      <c r="K58" s="25" t="s">
+        <v>1091</v>
+      </c>
+    </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B60" s="2">
+      <c r="B60" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="3">
-        <v>0</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K60" s="8" t="s">
-        <v>67</v>
+      <c r="E60" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K61" s="9" t="s">
-        <v>61</v>
+      <c r="B61" s="2">
+        <v>8</v>
+      </c>
+      <c r="C61" s="21">
+        <v>0</v>
+      </c>
+      <c r="D61" s="21">
+        <v>0</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F61" s="21">
+        <v>0</v>
+      </c>
+      <c r="G61" s="22" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H61" s="23" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J61" s="21">
+        <v>0</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K62" s="9"/>
+      <c r="K62" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B63" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J63" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K63" s="9"/>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="K63" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B64" s="2">
-        <v>3</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K64" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K65" s="9" t="s">
-        <v>68</v>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="K64" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K66" s="9" t="s">
-        <v>69</v>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="K66" s="20" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K67" s="9"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="26">
+        <v>0</v>
+      </c>
+      <c r="K67" s="20" t="s">
+        <v>1101</v>
+      </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B68" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J68" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K68" s="9"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="26">
+        <v>1</v>
+      </c>
+      <c r="K68" s="20" t="s">
+        <v>1102</v>
+      </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B69" s="2">
-        <v>4</v>
-      </c>
-      <c r="C69" s="3">
-        <v>0</v>
-      </c>
-      <c r="D69" s="3">
-        <v>0</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K69" s="8" t="s">
-        <v>66</v>
-      </c>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="K69" s="20"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K70" s="4" t="s">
-        <v>71</v>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="K70" s="20" t="s">
+        <v>1103</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K71" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B73" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J73" s="7" t="s">
-        <v>8</v>
+      <c r="G71" s="26">
+        <v>0</v>
+      </c>
+      <c r="H71" s="19"/>
+      <c r="K71" s="20" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="G72" s="26">
+        <v>1</v>
+      </c>
+      <c r="H72" s="19"/>
+      <c r="K72" s="20" t="s">
+        <v>1105</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B74" s="2">
-        <v>5</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I74" s="3">
-        <v>1</v>
-      </c>
-      <c r="J74" s="3">
-        <v>1</v>
-      </c>
-      <c r="K74" s="8" t="s">
-        <v>73</v>
+      <c r="K74" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E75">
+        <v>0</v>
+      </c>
       <c r="K75" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E76">
+        <v>1</v>
+      </c>
       <c r="K76" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.15">
@@ -20610,2078 +21151,1729 @@
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B79" s="2">
+        <v>9</v>
+      </c>
+      <c r="C79" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D79" s="23" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0</v>
+      </c>
+      <c r="F79" s="3">
+        <v>0</v>
+      </c>
+      <c r="G79" s="3">
+        <v>0</v>
+      </c>
+      <c r="H79" s="3">
+        <v>0</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J79" s="21">
+        <v>0</v>
+      </c>
+      <c r="K79" s="8" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K80" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="K81" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="K82" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K84" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85" s="20">
+        <v>0</v>
+      </c>
+      <c r="K85" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" s="20">
+        <v>0</v>
+      </c>
+      <c r="K86" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87" s="20">
+        <v>1</v>
+      </c>
+      <c r="K87" s="20" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" s="20">
+        <v>1</v>
+      </c>
+      <c r="K88" s="20" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B90" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H90" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C79" s="3">
-        <v>0</v>
-      </c>
-      <c r="D79" s="3">
-        <v>0</v>
-      </c>
-      <c r="E79" s="2" t="s">
+      <c r="I90" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B91" s="2">
+        <v>10</v>
+      </c>
+      <c r="C91" s="21">
+        <v>0</v>
+      </c>
+      <c r="D91" s="21">
+        <v>0</v>
+      </c>
+      <c r="E91" s="23" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F91" s="23" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G91" s="21">
+        <v>0</v>
+      </c>
+      <c r="H91" s="21">
+        <v>0</v>
+      </c>
+      <c r="I91" s="22" t="s">
+        <v>501</v>
+      </c>
+      <c r="J91" s="22" t="s">
+        <v>502</v>
+      </c>
+      <c r="K91" s="25" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="20"/>
+      <c r="K93" s="20" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E94" s="20"/>
+      <c r="F94" s="20"/>
+      <c r="I94" s="20">
+        <v>0</v>
+      </c>
+      <c r="J94" s="20">
+        <v>0</v>
+      </c>
+      <c r="K94" s="20" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E95" s="20"/>
+      <c r="F95" s="20"/>
+      <c r="I95" s="20">
+        <v>0</v>
+      </c>
+      <c r="J95" s="20">
+        <v>1</v>
+      </c>
+      <c r="K95" s="20" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+      <c r="I96" s="20">
+        <v>1</v>
+      </c>
+      <c r="J96" s="20">
+        <v>0</v>
+      </c>
+      <c r="K96" s="20" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E97" s="20"/>
+      <c r="F97" s="20"/>
+      <c r="I97" s="20">
+        <v>1</v>
+      </c>
+      <c r="J97" s="20">
+        <v>1</v>
+      </c>
+      <c r="K97" s="20" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="20"/>
+      <c r="K98" s="20"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E99" s="20"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="20"/>
+      <c r="K99" s="20" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E100" s="20">
+        <v>0</v>
+      </c>
+      <c r="F100" s="20">
+        <v>0</v>
+      </c>
+      <c r="G100" s="20"/>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="20"/>
+      <c r="K100" s="20" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E101" s="20">
+        <v>0</v>
+      </c>
+      <c r="F101" s="20">
+        <v>1</v>
+      </c>
+      <c r="G101" s="20"/>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="20"/>
+      <c r="K101" s="20" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E102" s="20">
+        <v>1</v>
+      </c>
+      <c r="F102" s="20">
+        <v>0</v>
+      </c>
+      <c r="G102" s="20"/>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="20"/>
+      <c r="K102" s="20" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E103" s="20">
+        <v>1</v>
+      </c>
+      <c r="F103" s="20">
+        <v>1</v>
+      </c>
+      <c r="G103" s="20"/>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="20"/>
+      <c r="K103" s="20" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B105" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J105" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B106" s="2">
+        <v>11</v>
+      </c>
+      <c r="C106" s="3">
+        <v>0</v>
+      </c>
+      <c r="D106" s="3">
+        <v>0</v>
+      </c>
+      <c r="E106" s="3">
+        <v>0</v>
+      </c>
+      <c r="F106" s="3">
+        <v>0</v>
+      </c>
+      <c r="G106" s="3">
+        <v>0</v>
+      </c>
+      <c r="H106" s="3">
+        <v>0</v>
+      </c>
+      <c r="I106" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="J106" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="K106" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K107" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K108" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B110" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J110" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B111" s="2">
+        <v>12</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F111" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="G111" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="H111" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="K111" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K112" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="G113" t="s">
+        <v>167</v>
+      </c>
+      <c r="H113" t="s">
+        <v>167</v>
+      </c>
+      <c r="I113" t="s">
+        <v>167</v>
+      </c>
+      <c r="J113" t="s">
+        <v>167</v>
+      </c>
+      <c r="K113" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C114" t="s">
+        <v>167</v>
+      </c>
+      <c r="D114" t="s">
+        <v>167</v>
+      </c>
+      <c r="E114" t="s">
+        <v>167</v>
+      </c>
+      <c r="F114" t="s">
+        <v>167</v>
+      </c>
+      <c r="K114" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B116" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I116" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J116" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B117" s="2">
+        <v>13</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F117" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G117" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H117" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K117" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K118" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="G119" t="s">
+        <v>167</v>
+      </c>
+      <c r="H119" t="s">
+        <v>167</v>
+      </c>
+      <c r="I119" t="s">
+        <v>167</v>
+      </c>
+      <c r="J119" t="s">
+        <v>167</v>
+      </c>
+      <c r="K119" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C120" t="s">
+        <v>167</v>
+      </c>
+      <c r="D120" t="s">
+        <v>167</v>
+      </c>
+      <c r="E120" t="s">
+        <v>167</v>
+      </c>
+      <c r="F120" t="s">
+        <v>167</v>
+      </c>
+      <c r="K120" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B122" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I122" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J122" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B123" s="2">
+        <v>14</v>
+      </c>
+      <c r="C123" s="3">
+        <v>0</v>
+      </c>
+      <c r="D123" s="3">
+        <v>0</v>
+      </c>
+      <c r="E123" s="3">
+        <v>0</v>
+      </c>
+      <c r="F123" s="3">
+        <v>0</v>
+      </c>
+      <c r="G123" s="3">
+        <v>0</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J123" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H79" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K79" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K80" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K81" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B83" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D83" s="5" t="s">
+      <c r="K123" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K124" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B126" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D126" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="E126" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="F126" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G83" s="5" t="s">
+      <c r="G126" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H83" s="5" t="s">
+      <c r="H126" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I83" s="5" t="s">
+      <c r="I126" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J83" s="7" t="s">
+      <c r="J126" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B84" s="2">
+    <row r="127" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B127" s="2">
+        <v>15</v>
+      </c>
+      <c r="C127" s="3">
+        <v>0</v>
+      </c>
+      <c r="D127" s="3">
+        <v>0</v>
+      </c>
+      <c r="E127" s="3">
+        <v>0</v>
+      </c>
+      <c r="F127" s="3">
+        <v>0</v>
+      </c>
+      <c r="G127" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="H127" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K127" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K128" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B130" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I130" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K84" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K85" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K86" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K87" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B88" s="2">
+      <c r="J130" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B131" s="2">
+        <v>16</v>
+      </c>
+      <c r="C131" s="3">
+        <v>0</v>
+      </c>
+      <c r="D131" s="3">
+        <v>0</v>
+      </c>
+      <c r="E131" s="3">
+        <v>0</v>
+      </c>
+      <c r="F131" s="3">
+        <v>0</v>
+      </c>
+      <c r="G131" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="H131" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K131" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K132" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B134" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I134" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J88" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K89" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K90" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K91" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B93" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D93" s="5" t="s">
+      <c r="J134" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B135" s="2">
+        <v>17</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D135" s="3">
+        <v>0</v>
+      </c>
+      <c r="E135" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F135" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="G135" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="H135" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="J135" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K135" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K136" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E137" t="s">
+        <v>167</v>
+      </c>
+      <c r="F137" t="s">
+        <v>167</v>
+      </c>
+      <c r="G137" t="s">
+        <v>167</v>
+      </c>
+      <c r="H137" t="s">
+        <v>167</v>
+      </c>
+      <c r="I137" t="s">
+        <v>167</v>
+      </c>
+      <c r="J137" t="s">
+        <v>167</v>
+      </c>
+      <c r="K137" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K139" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="K140" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="K141" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B143" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D143" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E93" s="5" t="s">
+      <c r="E143" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F93" s="5" t="s">
+      <c r="F143" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G93" s="5" t="s">
+      <c r="G143" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H93" s="5" t="s">
+      <c r="H143" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I93" s="5" t="s">
+      <c r="I143" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J93" s="7" t="s">
+      <c r="J143" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B94" s="2">
+    <row r="144" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B144" s="2">
+        <v>18</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E144" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F144" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="G144" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="H144" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J144" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K144" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="146" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="G146" t="s">
+        <v>167</v>
+      </c>
+      <c r="H146" t="s">
+        <v>167</v>
+      </c>
+      <c r="I146" t="s">
+        <v>167</v>
+      </c>
+      <c r="J146" t="s">
+        <v>167</v>
+      </c>
+      <c r="K146" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C147" t="s">
+        <v>167</v>
+      </c>
+      <c r="D147" t="s">
+        <v>167</v>
+      </c>
+      <c r="E147" t="s">
+        <v>167</v>
+      </c>
+      <c r="F147" t="s">
+        <v>167</v>
+      </c>
+      <c r="K147" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="149" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B149" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H149" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I149" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J149" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="K94" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K95" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="J96">
-        <v>0</v>
-      </c>
-      <c r="K96" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="97" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="J97">
-        <v>1</v>
-      </c>
-      <c r="K97" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="99" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="K99" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="100" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="K100" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="101" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="I101">
-        <v>1</v>
-      </c>
-      <c r="K101" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="103" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="K103" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="104" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="G104">
-        <v>0</v>
-      </c>
-      <c r="K104" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="105" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="G105">
-        <v>1</v>
-      </c>
-      <c r="K105" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="107" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="K107" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="108" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="K108" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="109" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="F109">
-        <v>1</v>
-      </c>
-      <c r="K109" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="111" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="K111" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="112" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="K112" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E113">
-        <v>1</v>
-      </c>
-      <c r="K113" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K115" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D116">
-        <v>0</v>
-      </c>
-      <c r="K116" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D117">
-        <v>1</v>
-      </c>
-      <c r="K117" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K119" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C120">
-        <v>0</v>
-      </c>
-      <c r="K120" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C121">
-        <v>1</v>
-      </c>
-      <c r="K121" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B123" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D123" s="5" t="s">
+    </row>
+    <row r="150" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B150" s="2">
+        <v>19</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D150" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E150" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F150" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G150" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="H150" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="I150" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="J150" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="K150" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="151" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K151" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="152" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K152" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="154" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B154" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D154" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E123" s="5" t="s">
+      <c r="E154" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F123" s="5" t="s">
+      <c r="F154" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G123" s="5" t="s">
+      <c r="G154" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H123" s="5" t="s">
+      <c r="H154" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I123" s="5" t="s">
+      <c r="I154" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J123" s="7" t="s">
+      <c r="J154" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B124" s="2">
-        <v>9</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D124" s="3">
-        <v>0</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J124" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K124" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K125" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="J126">
-        <v>0</v>
-      </c>
-      <c r="K126" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="J127">
-        <v>1</v>
-      </c>
-      <c r="K127" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="129" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="K129" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="130" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="I130">
-        <v>0</v>
-      </c>
-      <c r="K130" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="131" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="I131">
-        <v>1</v>
-      </c>
-      <c r="K131" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="133" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="K133" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="134" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="H134">
-        <v>0</v>
-      </c>
-      <c r="K134" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="135" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="H135">
-        <v>1</v>
-      </c>
-      <c r="K135" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="137" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="K137" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="138" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="G138">
-        <v>0</v>
-      </c>
-      <c r="K138" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="139" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="G139">
-        <v>1</v>
-      </c>
-      <c r="K139" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="141" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="K141" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="142" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E142">
-        <v>0</v>
-      </c>
-      <c r="F142">
-        <v>0</v>
-      </c>
-      <c r="K142" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="143" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E143">
-        <v>0</v>
-      </c>
-      <c r="F143">
-        <v>1</v>
-      </c>
-      <c r="K143" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="144" spans="5:11" x14ac:dyDescent="0.15">
-      <c r="E144">
-        <v>1</v>
-      </c>
-      <c r="F144">
-        <v>0</v>
-      </c>
-      <c r="K144" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E145">
-        <v>1</v>
-      </c>
-      <c r="F145">
-        <v>1</v>
-      </c>
-      <c r="K145" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K147" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C148">
-        <v>0</v>
-      </c>
-      <c r="K148" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C149">
-        <v>1</v>
-      </c>
-      <c r="K149" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B151" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D151" s="5" t="s">
+    <row r="155" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B155" s="2">
+        <v>20</v>
+      </c>
+      <c r="C155" s="3">
+        <v>0</v>
+      </c>
+      <c r="D155" s="3">
+        <v>0</v>
+      </c>
+      <c r="E155" s="3">
+        <v>0</v>
+      </c>
+      <c r="F155" s="3">
+        <v>0</v>
+      </c>
+      <c r="G155" s="3">
+        <v>0</v>
+      </c>
+      <c r="H155" s="3">
+        <v>0</v>
+      </c>
+      <c r="I155" s="3">
+        <v>0</v>
+      </c>
+      <c r="J155" s="3">
+        <v>0</v>
+      </c>
+      <c r="K155" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="156" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K156" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="158" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B158" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D158" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E151" s="5" t="s">
+      <c r="E158" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F151" s="5" t="s">
+      <c r="F158" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G151" s="5" t="s">
+      <c r="G158" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H151" s="5" t="s">
+      <c r="H158" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I151" s="5" t="s">
+      <c r="I158" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J151" s="7" t="s">
+      <c r="J158" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B152" s="2">
-        <v>10</v>
-      </c>
-      <c r="C152" s="3">
-        <v>0</v>
-      </c>
-      <c r="D152" s="3">
-        <v>0</v>
-      </c>
-      <c r="E152" s="3">
-        <v>0</v>
-      </c>
-      <c r="F152" s="3">
-        <v>0</v>
-      </c>
-      <c r="G152" s="3">
-        <v>0</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I152" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J152" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K152" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="153" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K153" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K154" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="156" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B156" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D156" s="5" t="s">
+    <row r="159" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B159" s="2">
+        <v>21</v>
+      </c>
+      <c r="C159" s="3">
+        <v>0</v>
+      </c>
+      <c r="D159" s="3">
+        <v>0</v>
+      </c>
+      <c r="E159" s="3">
+        <v>1</v>
+      </c>
+      <c r="F159" s="3">
+        <v>1</v>
+      </c>
+      <c r="G159" s="3">
+        <v>1</v>
+      </c>
+      <c r="H159" s="3">
+        <v>0</v>
+      </c>
+      <c r="I159" s="3">
+        <v>1</v>
+      </c>
+      <c r="J159" s="3">
+        <v>1</v>
+      </c>
+      <c r="K159" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="160" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K160" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="162" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B162" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D162" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E156" s="5" t="s">
+      <c r="E162" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F156" s="5" t="s">
+      <c r="F162" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G156" s="5" t="s">
+      <c r="G162" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H156" s="5" t="s">
+      <c r="H162" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I156" s="5" t="s">
+      <c r="I162" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J156" s="7" t="s">
+      <c r="J162" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B157" s="2">
-        <v>11</v>
-      </c>
-      <c r="C157" s="3">
-        <v>0</v>
-      </c>
-      <c r="D157" s="3">
-        <v>0</v>
-      </c>
-      <c r="E157" s="3">
-        <v>0</v>
-      </c>
-      <c r="F157" s="3">
-        <v>0</v>
-      </c>
-      <c r="G157" s="3">
-        <v>0</v>
-      </c>
-      <c r="H157" s="3">
-        <v>0</v>
-      </c>
-      <c r="I157" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J157" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K157" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K158" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="159" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K159" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="161" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B161" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D161" s="5" t="s">
+    <row r="163" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B163" s="2">
+        <v>22</v>
+      </c>
+      <c r="C163" s="3">
+        <v>0</v>
+      </c>
+      <c r="D163" s="3">
+        <v>0</v>
+      </c>
+      <c r="E163" s="3">
+        <v>0</v>
+      </c>
+      <c r="F163" s="3">
+        <v>0</v>
+      </c>
+      <c r="G163" s="3">
+        <v>0</v>
+      </c>
+      <c r="H163" s="3">
+        <v>1</v>
+      </c>
+      <c r="I163" s="3">
+        <v>0</v>
+      </c>
+      <c r="J163" s="3">
+        <v>1</v>
+      </c>
+      <c r="K163" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="164" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K164" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="166" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B166" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D166" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E161" s="5" t="s">
+      <c r="E166" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F161" s="5" t="s">
+      <c r="F166" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G161" s="5" t="s">
+      <c r="G166" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H161" s="5" t="s">
+      <c r="H166" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I161" s="5" t="s">
+      <c r="I166" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J161" s="7" t="s">
+      <c r="J166" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B162" s="2">
-        <v>12</v>
-      </c>
-      <c r="C162" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D162" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E162" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="F162" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="G162" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="H162" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="I162" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="J162" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="K162" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="163" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K163" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="164" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G164" t="s">
-        <v>167</v>
-      </c>
-      <c r="H164" t="s">
-        <v>167</v>
-      </c>
-      <c r="I164" t="s">
-        <v>167</v>
-      </c>
-      <c r="J164" t="s">
-        <v>167</v>
-      </c>
-      <c r="K164" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="165" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C165" t="s">
-        <v>167</v>
-      </c>
-      <c r="D165" t="s">
-        <v>167</v>
-      </c>
-      <c r="E165" t="s">
-        <v>167</v>
-      </c>
-      <c r="F165" t="s">
-        <v>167</v>
-      </c>
-      <c r="K165" t="s">
-        <v>169</v>
-      </c>
-    </row>
     <row r="167" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B167" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C167" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D167" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E167" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F167" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G167" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H167" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I167" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J167" s="7" t="s">
-        <v>8</v>
+      <c r="B167" s="2">
+        <v>23</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D167" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E167" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F167" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="G167" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="H167" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="I167" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="J167" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="K167" s="8" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="168" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B168" s="2">
-        <v>13</v>
-      </c>
-      <c r="C168" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="D168" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="E168" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="F168" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="G168" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="H168" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="I168" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="J168" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="K168" s="8" t="s">
-        <v>178</v>
+      <c r="K168" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="169" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K169" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="170" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G170" t="s">
-        <v>167</v>
-      </c>
-      <c r="H170" t="s">
-        <v>167</v>
-      </c>
-      <c r="I170" t="s">
-        <v>167</v>
-      </c>
-      <c r="J170" t="s">
-        <v>167</v>
-      </c>
-      <c r="K170" t="s">
-        <v>180</v>
+        <v>242</v>
       </c>
     </row>
     <row r="171" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C171" t="s">
-        <v>167</v>
-      </c>
-      <c r="D171" t="s">
-        <v>167</v>
-      </c>
-      <c r="E171" t="s">
-        <v>167</v>
-      </c>
-      <c r="F171" t="s">
-        <v>167</v>
-      </c>
-      <c r="K171" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="173" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B173" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C173" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D173" s="5" t="s">
+      <c r="B171" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D171" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E173" s="5" t="s">
+      <c r="E171" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F173" s="5" t="s">
+      <c r="F171" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G173" s="5" t="s">
+      <c r="G171" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H173" s="5" t="s">
+      <c r="H171" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I173" s="5" t="s">
+      <c r="I171" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J173" s="7" t="s">
+      <c r="J171" s="7" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="172" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B172" s="2">
+        <v>24</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="J172" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="K172" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
     <row r="174" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B174" s="2">
-        <v>14</v>
-      </c>
-      <c r="C174" s="3">
-        <v>0</v>
-      </c>
-      <c r="D174" s="3">
-        <v>0</v>
-      </c>
-      <c r="E174" s="3">
-        <v>0</v>
-      </c>
-      <c r="F174" s="3">
-        <v>0</v>
-      </c>
-      <c r="G174" s="3">
-        <v>0</v>
-      </c>
-      <c r="H174" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I174" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J174" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K174" s="8" t="s">
-        <v>182</v>
+      <c r="B174" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G174" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H174" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I174" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J174" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="175" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K175" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="177" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B177" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D177" s="5" t="s">
+      <c r="B175" s="2">
+        <v>25</v>
+      </c>
+      <c r="C175" s="3">
+        <v>0</v>
+      </c>
+      <c r="D175" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E175" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F175" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="G175" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="H175" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="I175" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="J175" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="K175" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="176" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K176" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="177" spans="7:11" x14ac:dyDescent="0.15">
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="178" spans="7:11" x14ac:dyDescent="0.15">
+      <c r="J178">
+        <v>1</v>
+      </c>
+      <c r="K178" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="180" spans="7:11" x14ac:dyDescent="0.15">
+      <c r="K180" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="181" spans="7:11" x14ac:dyDescent="0.15">
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="K181" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="182" spans="7:11" x14ac:dyDescent="0.15">
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="K182" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="184" spans="7:11" x14ac:dyDescent="0.15">
+      <c r="K184" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="185" spans="7:11" x14ac:dyDescent="0.15">
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="K185" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="186" spans="7:11" x14ac:dyDescent="0.15">
+      <c r="H186">
+        <v>1</v>
+      </c>
+      <c r="K186" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="188" spans="7:11" x14ac:dyDescent="0.15">
+      <c r="K188" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="189" spans="7:11" x14ac:dyDescent="0.15">
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="K189" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="190" spans="7:11" x14ac:dyDescent="0.15">
+      <c r="G190">
+        <v>1</v>
+      </c>
+      <c r="K190" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="192" spans="7:11" x14ac:dyDescent="0.15">
+      <c r="K192" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="193" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="K193" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="194" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="F194">
+        <v>1</v>
+      </c>
+      <c r="K194" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="196" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K196" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="197" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="K197" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="198" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E198">
+        <v>1</v>
+      </c>
+      <c r="K198" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="200" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K200" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="201" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="K201" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="202" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D202">
+        <v>1</v>
+      </c>
+      <c r="K202" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="204" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B204" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D204" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E177" s="5" t="s">
+      <c r="E204" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F177" s="5" t="s">
+      <c r="F204" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G177" s="5" t="s">
+      <c r="G204" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H177" s="5" t="s">
+      <c r="H204" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I177" s="5" t="s">
+      <c r="I204" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J177" s="7" t="s">
+      <c r="J204" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B178" s="2">
-        <v>15</v>
-      </c>
-      <c r="C178" s="3">
-        <v>0</v>
-      </c>
-      <c r="D178" s="3">
-        <v>0</v>
-      </c>
-      <c r="E178" s="3">
-        <v>0</v>
-      </c>
-      <c r="F178" s="3">
-        <v>0</v>
-      </c>
-      <c r="G178" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="H178" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="I178" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="J178" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="K178" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="179" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K179" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="181" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B181" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C181" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D181" s="5" t="s">
+    <row r="205" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B205" s="2">
+        <v>26</v>
+      </c>
+      <c r="C205" s="3">
+        <v>0</v>
+      </c>
+      <c r="D205" s="3">
+        <v>0</v>
+      </c>
+      <c r="E205" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="F205" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="G205" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="H205" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I205" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="J205" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="K205" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="206" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K206" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="208" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B208" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D208" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E181" s="5" t="s">
+      <c r="E208" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F181" s="5" t="s">
+      <c r="F208" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G181" s="5" t="s">
+      <c r="G208" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H181" s="5" t="s">
+      <c r="H208" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I181" s="5" t="s">
+      <c r="I208" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J181" s="7" t="s">
+      <c r="J208" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B182" s="2">
-        <v>16</v>
-      </c>
-      <c r="C182" s="3">
-        <v>0</v>
-      </c>
-      <c r="D182" s="3">
-        <v>0</v>
-      </c>
-      <c r="E182" s="3">
-        <v>0</v>
-      </c>
-      <c r="F182" s="3">
-        <v>0</v>
-      </c>
-      <c r="G182" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="H182" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="I182" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J182" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="K182" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="183" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K183" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="185" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B185" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C185" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D185" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E185" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F185" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G185" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H185" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I185" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J185" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="186" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B186" s="2">
-        <v>17</v>
-      </c>
-      <c r="C186" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D186" s="3">
-        <v>0</v>
-      </c>
-      <c r="E186" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="F186" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="G186" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="H186" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="I186" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J186" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="K186" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="187" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K187" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="188" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E188" t="s">
-        <v>167</v>
-      </c>
-      <c r="F188" t="s">
-        <v>167</v>
-      </c>
-      <c r="G188" t="s">
-        <v>167</v>
-      </c>
-      <c r="H188" t="s">
-        <v>167</v>
-      </c>
-      <c r="I188" t="s">
-        <v>167</v>
-      </c>
-      <c r="J188" t="s">
-        <v>167</v>
-      </c>
-      <c r="K188" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="190" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K190" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="191" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C191">
-        <v>0</v>
-      </c>
-      <c r="K191" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="192" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C192">
-        <v>1</v>
-      </c>
-      <c r="K192" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="194" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B194" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C194" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D194" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E194" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F194" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G194" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H194" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I194" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J194" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="195" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B195" s="2">
-        <v>18</v>
-      </c>
-      <c r="C195" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D195" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="E195" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="F195" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="G195" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="H195" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="I195" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="J195" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K195" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="197" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G197" t="s">
-        <v>167</v>
-      </c>
-      <c r="H197" t="s">
-        <v>167</v>
-      </c>
-      <c r="I197" t="s">
-        <v>167</v>
-      </c>
-      <c r="J197" t="s">
-        <v>167</v>
-      </c>
-      <c r="K197" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="198" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C198" t="s">
-        <v>167</v>
-      </c>
-      <c r="D198" t="s">
-        <v>167</v>
-      </c>
-      <c r="E198" t="s">
-        <v>167</v>
-      </c>
-      <c r="F198" t="s">
-        <v>167</v>
-      </c>
-      <c r="K198" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="200" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B200" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C200" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D200" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E200" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F200" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G200" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H200" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I200" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J200" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="201" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B201" s="2">
-        <v>19</v>
-      </c>
-      <c r="C201" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="D201" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E201" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="F201" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="G201" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="H201" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="I201" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="J201" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="K201" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="202" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K202" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="203" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K203" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="205" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B205" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C205" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D205" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E205" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F205" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G205" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H205" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I205" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J205" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="206" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B206" s="2">
-        <v>20</v>
-      </c>
-      <c r="C206" s="3">
-        <v>0</v>
-      </c>
-      <c r="D206" s="3">
-        <v>0</v>
-      </c>
-      <c r="E206" s="3">
-        <v>0</v>
-      </c>
-      <c r="F206" s="3">
-        <v>0</v>
-      </c>
-      <c r="G206" s="3">
-        <v>0</v>
-      </c>
-      <c r="H206" s="3">
-        <v>0</v>
-      </c>
-      <c r="I206" s="3">
-        <v>0</v>
-      </c>
-      <c r="J206" s="3">
-        <v>0</v>
-      </c>
-      <c r="K206" s="8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="207" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K207" t="s">
-        <v>229</v>
-      </c>
-    </row>
     <row r="209" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B209" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C209" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D209" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E209" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F209" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G209" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H209" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I209" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J209" s="7" t="s">
-        <v>8</v>
+      <c r="B209" s="2">
+        <v>27</v>
+      </c>
+      <c r="C209" s="3">
+        <v>0</v>
+      </c>
+      <c r="D209" s="3">
+        <v>0</v>
+      </c>
+      <c r="E209" s="3">
+        <v>0</v>
+      </c>
+      <c r="F209" s="3">
+        <v>0</v>
+      </c>
+      <c r="G209" s="3">
+        <v>0</v>
+      </c>
+      <c r="H209" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="I209" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="J209" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="K209" s="8" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="210" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B210" s="2">
-        <v>21</v>
-      </c>
-      <c r="C210" s="3">
-        <v>0</v>
-      </c>
-      <c r="D210" s="3">
-        <v>0</v>
-      </c>
-      <c r="E210" s="3">
-        <v>1</v>
-      </c>
-      <c r="F210" s="3">
-        <v>1</v>
-      </c>
-      <c r="G210" s="3">
-        <v>1</v>
-      </c>
-      <c r="H210" s="3">
-        <v>0</v>
-      </c>
-      <c r="I210" s="3">
-        <v>1</v>
-      </c>
-      <c r="J210" s="3">
-        <v>1</v>
-      </c>
-      <c r="K210" s="8" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="211" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K211" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="213" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B213" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C213" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D213" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E213" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F213" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G213" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H213" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I213" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J213" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="214" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B214" s="2">
-        <v>22</v>
-      </c>
-      <c r="C214" s="3">
-        <v>0</v>
-      </c>
-      <c r="D214" s="3">
-        <v>0</v>
-      </c>
-      <c r="E214" s="3">
-        <v>0</v>
-      </c>
-      <c r="F214" s="3">
-        <v>0</v>
-      </c>
-      <c r="G214" s="3">
-        <v>0</v>
-      </c>
-      <c r="H214" s="3">
-        <v>1</v>
-      </c>
-      <c r="I214" s="3">
-        <v>0</v>
-      </c>
-      <c r="J214" s="3">
-        <v>1</v>
-      </c>
-      <c r="K214" s="8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="215" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K215" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="217" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B217" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C217" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D217" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E217" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F217" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G217" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H217" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I217" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J217" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="218" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B218" s="2">
-        <v>23</v>
-      </c>
-      <c r="C218" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="D218" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="E218" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="F218" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="G218" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="H218" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="I218" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="J218" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="K218" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="219" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K219" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="220" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K220" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="222" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B222" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C222" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D222" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E222" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F222" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G222" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H222" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I222" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J222" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="223" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B223" s="2">
-        <v>24</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D223" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E223" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="F223" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="G223" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="H223" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="I223" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="J223" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="K223" s="8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="225" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B225" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C225" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D225" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E225" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F225" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G225" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H225" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I225" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J225" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="226" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B226" s="2">
-        <v>25</v>
-      </c>
-      <c r="C226" s="3">
-        <v>0</v>
-      </c>
-      <c r="D226" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="E226" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="F226" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="G226" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="H226" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="I226" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="J226" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="K226" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="227" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K227" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="228" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="J228">
-        <v>0</v>
-      </c>
-      <c r="K228" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="229" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="J229">
-        <v>1</v>
-      </c>
-      <c r="K229" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="231" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K231" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="232" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="I232">
-        <v>0</v>
-      </c>
-      <c r="K232" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="233" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="I233">
-        <v>1</v>
-      </c>
-      <c r="K233" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="235" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K235" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="236" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="H236">
-        <v>0</v>
-      </c>
-      <c r="K236" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="237" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="H237">
-        <v>1</v>
-      </c>
-      <c r="K237" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="239" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K239" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="240" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G240">
-        <v>0</v>
-      </c>
-      <c r="K240" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="241" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G241">
-        <v>1</v>
-      </c>
-      <c r="K241" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="243" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K243" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="244" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="F244">
-        <v>0</v>
-      </c>
-      <c r="K244" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="245" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="F245">
-        <v>1</v>
-      </c>
-      <c r="K245" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="247" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K247" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="248" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E248">
-        <v>0</v>
-      </c>
-      <c r="K248" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="249" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E249">
-        <v>1</v>
-      </c>
-      <c r="K249" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="251" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K251" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="252" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D252">
-        <v>0</v>
-      </c>
-      <c r="K252" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="253" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D253">
-        <v>1</v>
-      </c>
-      <c r="K253" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="255" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B255" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C255" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D255" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E255" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F255" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G255" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H255" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I255" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J255" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="256" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B256" s="2">
-        <v>26</v>
-      </c>
-      <c r="C256" s="3">
-        <v>0</v>
-      </c>
-      <c r="D256" s="3">
-        <v>0</v>
-      </c>
-      <c r="E256" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="F256" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="G256" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="H256" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I256" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="J256" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="K256" s="8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="257" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K257" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="259" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B259" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C259" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D259" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E259" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F259" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G259" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H259" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I259" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J259" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="260" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B260" s="2">
-        <v>27</v>
-      </c>
-      <c r="C260" s="3">
-        <v>0</v>
-      </c>
-      <c r="D260" s="3">
-        <v>0</v>
-      </c>
-      <c r="E260" s="3">
-        <v>0</v>
-      </c>
-      <c r="F260" s="3">
-        <v>0</v>
-      </c>
-      <c r="G260" s="3">
-        <v>0</v>
-      </c>
-      <c r="H260" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="I260" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="J260" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="K260" s="8" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="261" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K261" t="s">
+      <c r="K210" t="s">
         <v>281</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/msx3gen/v9978/files/v99x8_spec_registers.xlsx
+++ b/msx3gen/v9978/files/v99x8_spec_registers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="11745" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="11745" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="V9958(CONTROL)" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3041" uniqueCount="1121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3994" uniqueCount="1476">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -5112,14 +5112,6 @@
   </si>
   <si>
     <t>P#4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WII</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RII</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5650,38 +5642,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>追平一割込の挙動選択</t>
-    <rPh sb="0" eb="1">
-      <t>ツイ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ヘイイチ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ワリコミ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キョドウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>走査位置割込（通常）</t>
-    <rPh sb="0" eb="4">
-      <t>ソウサイチ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ワリコミ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ツウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>X座標割込</t>
     <rPh sb="1" eb="3">
       <t>ザヒョウ</t>
@@ -5791,12 +5751,1396 @@
     <t>YIMM1</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Pattern Name Table Address Base (LOW) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パターンネームテーブルのベースアドレス下位8bit</t>
+    <rPh sb="19" eb="21">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pattern Name Table Address Base (HIGH) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パターンネームテーブルのベースアドレス上位8bit</t>
+    <rPh sb="19" eb="21">
+      <t>ジョウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pattern Generator Table Address Base (LOW) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PCGモードの PCGのベースアドレス下位8bit</t>
+    <rPh sb="19" eb="21">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PG14</t>
+  </si>
+  <si>
+    <t>PG13</t>
+  </si>
+  <si>
+    <t>PG11</t>
+  </si>
+  <si>
+    <t>PG10</t>
+  </si>
+  <si>
+    <t>PG9</t>
+  </si>
+  <si>
+    <t>PG8</t>
+  </si>
+  <si>
+    <t>PG7</t>
+  </si>
+  <si>
+    <t>PG6</t>
+  </si>
+  <si>
+    <t>PG5～PG0 は 0固定</t>
+    <rPh sb="11" eb="13">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PG22</t>
+  </si>
+  <si>
+    <t>PG21</t>
+  </si>
+  <si>
+    <t>PG20</t>
+  </si>
+  <si>
+    <t>PG19</t>
+  </si>
+  <si>
+    <t>PG18</t>
+  </si>
+  <si>
+    <t>PG17</t>
+  </si>
+  <si>
+    <t>PG16</t>
+  </si>
+  <si>
+    <t>PG15</t>
+  </si>
+  <si>
+    <t>PCGモードの PCGのベースアドレス上位8bit</t>
+    <rPh sb="19" eb="21">
+      <t>ジョウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pattern Generator Table Address Base (HIGH) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PNA14</t>
+  </si>
+  <si>
+    <t>PNA13</t>
+  </si>
+  <si>
+    <t>PNA11</t>
+  </si>
+  <si>
+    <t>PNA10</t>
+  </si>
+  <si>
+    <t>PNA9</t>
+  </si>
+  <si>
+    <t>PNA8</t>
+  </si>
+  <si>
+    <t>PNA7</t>
+  </si>
+  <si>
+    <t>PNA6</t>
+  </si>
+  <si>
+    <t>PNA5～PNA0 は 0固定</t>
+    <rPh sb="13" eb="15">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PNA22</t>
+  </si>
+  <si>
+    <t>PNA21</t>
+  </si>
+  <si>
+    <t>PNA20</t>
+  </si>
+  <si>
+    <t>PNA19</t>
+  </si>
+  <si>
+    <t>PNA18</t>
+  </si>
+  <si>
+    <t>PNA17</t>
+  </si>
+  <si>
+    <t>PNA16</t>
+  </si>
+  <si>
+    <t>PNA15</t>
+  </si>
+  <si>
+    <t>PNB14</t>
+  </si>
+  <si>
+    <t>PNB13</t>
+  </si>
+  <si>
+    <t>PNB11</t>
+  </si>
+  <si>
+    <t>PNB10</t>
+  </si>
+  <si>
+    <t>PNB9</t>
+  </si>
+  <si>
+    <t>PNB8</t>
+  </si>
+  <si>
+    <t>PNB7</t>
+  </si>
+  <si>
+    <t>PNB6</t>
+  </si>
+  <si>
+    <t>PNB5～PNB0 は 0固定</t>
+    <rPh sb="13" eb="15">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PNB22</t>
+  </si>
+  <si>
+    <t>PNB21</t>
+  </si>
+  <si>
+    <t>PNB20</t>
+  </si>
+  <si>
+    <t>PNB19</t>
+  </si>
+  <si>
+    <t>PNB18</t>
+  </si>
+  <si>
+    <t>PNB17</t>
+  </si>
+  <si>
+    <t>PNB16</t>
+  </si>
+  <si>
+    <t>PNB15</t>
+  </si>
+  <si>
+    <t>PNC14</t>
+  </si>
+  <si>
+    <t>PNC13</t>
+  </si>
+  <si>
+    <t>PNC11</t>
+  </si>
+  <si>
+    <t>PNC10</t>
+  </si>
+  <si>
+    <t>PNC9</t>
+  </si>
+  <si>
+    <t>PNC8</t>
+  </si>
+  <si>
+    <t>PNC7</t>
+  </si>
+  <si>
+    <t>PNC6</t>
+  </si>
+  <si>
+    <t>PNC5～PNC0 は 0固定</t>
+    <rPh sb="13" eb="15">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PNC22</t>
+  </si>
+  <si>
+    <t>PNC21</t>
+  </si>
+  <si>
+    <t>PNC20</t>
+  </si>
+  <si>
+    <t>PNC19</t>
+  </si>
+  <si>
+    <t>PNC18</t>
+  </si>
+  <si>
+    <t>PNC17</t>
+  </si>
+  <si>
+    <t>PNC16</t>
+  </si>
+  <si>
+    <t>PNC15</t>
+  </si>
+  <si>
+    <t>PND14</t>
+  </si>
+  <si>
+    <t>PND13</t>
+  </si>
+  <si>
+    <t>PND11</t>
+  </si>
+  <si>
+    <t>PND10</t>
+  </si>
+  <si>
+    <t>PND9</t>
+  </si>
+  <si>
+    <t>PND8</t>
+  </si>
+  <si>
+    <t>PND7</t>
+  </si>
+  <si>
+    <t>PND6</t>
+  </si>
+  <si>
+    <t>PND5～PND0 は 0固定</t>
+    <rPh sb="13" eb="15">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PND22</t>
+  </si>
+  <si>
+    <t>PND21</t>
+  </si>
+  <si>
+    <t>PND20</t>
+  </si>
+  <si>
+    <t>PND19</t>
+  </si>
+  <si>
+    <t>PND18</t>
+  </si>
+  <si>
+    <t>PND17</t>
+  </si>
+  <si>
+    <t>PND16</t>
+  </si>
+  <si>
+    <t>PND15</t>
+  </si>
+  <si>
+    <t>Sprite Pattern Generator Table Address Base (LOW) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sprite Pattern Generator Table Address Base (HIGH) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプライトパターンジェネレーターテーブルベースアドレス下位8bit</t>
+    <rPh sb="27" eb="29">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプライトパターンジェネレーターテーブルベースアドレス上位8bit</t>
+    <rPh sb="27" eb="29">
+      <t>ジョウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPG14</t>
+  </si>
+  <si>
+    <t>SPG13</t>
+  </si>
+  <si>
+    <t>SPG11</t>
+  </si>
+  <si>
+    <t>SPG10</t>
+  </si>
+  <si>
+    <t>SPG9</t>
+  </si>
+  <si>
+    <t>SPG8</t>
+  </si>
+  <si>
+    <t>SPG7</t>
+  </si>
+  <si>
+    <t>SPG6</t>
+  </si>
+  <si>
+    <t>SPG5～SPG0 は 0固定</t>
+    <rPh sb="13" eb="15">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPG22</t>
+  </si>
+  <si>
+    <t>SPG21</t>
+  </si>
+  <si>
+    <t>SPG20</t>
+  </si>
+  <si>
+    <t>SPG19</t>
+  </si>
+  <si>
+    <t>SPG18</t>
+  </si>
+  <si>
+    <t>SPG17</t>
+  </si>
+  <si>
+    <t>SPG16</t>
+  </si>
+  <si>
+    <t>SPG15</t>
+  </si>
+  <si>
+    <t>Sprite Attribute Table Address Base (LOW) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sprite Attribute Table Address Base (HIGH) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプライトアトリビュートテーブルベースアドレス下位8bit</t>
+    <rPh sb="23" eb="25">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプライトアトリビュートテーブルベースアドレス上位8bit</t>
+    <rPh sb="23" eb="25">
+      <t>ジョウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPA14</t>
+  </si>
+  <si>
+    <t>SPA13</t>
+  </si>
+  <si>
+    <t>SPA11</t>
+  </si>
+  <si>
+    <t>SPA10</t>
+  </si>
+  <si>
+    <t>SPA9</t>
+  </si>
+  <si>
+    <t>SPA8</t>
+  </si>
+  <si>
+    <t>SPA7</t>
+  </si>
+  <si>
+    <t>SPA6</t>
+  </si>
+  <si>
+    <t>SPA5～SPA0 は 0固定</t>
+    <rPh sb="13" eb="15">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPA22</t>
+  </si>
+  <si>
+    <t>SPA21</t>
+  </si>
+  <si>
+    <t>SPA20</t>
+  </si>
+  <si>
+    <t>SPA19</t>
+  </si>
+  <si>
+    <t>SPA18</t>
+  </si>
+  <si>
+    <t>SPA17</t>
+  </si>
+  <si>
+    <t>SPA16</t>
+  </si>
+  <si>
+    <t>SPA15</t>
+  </si>
+  <si>
+    <t>PR00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PR01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PR10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PR11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PR20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PR21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PR30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PR31</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Priority Select Register [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先順位0 (最優先)の選択</t>
+    <rPh sb="0" eb="2">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュンイ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>サイユウセン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>plane A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>plane B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>plane C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>plane D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先順位1の選択</t>
+    <rPh sb="0" eb="2">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュンイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先順位2の選択</t>
+    <rPh sb="0" eb="2">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュンイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先順位3の選択</t>
+    <rPh sb="0" eb="2">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュンイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IY7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IY6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IY5</t>
+  </si>
+  <si>
+    <t>IY4</t>
+  </si>
+  <si>
+    <t>IY3</t>
+  </si>
+  <si>
+    <t>IY2</t>
+  </si>
+  <si>
+    <t>IY1</t>
+  </si>
+  <si>
+    <t>IY0</t>
+  </si>
+  <si>
+    <t>IY8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IY9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IY10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走査線割込の割込座標下位8bit</t>
+    <rPh sb="0" eb="3">
+      <t>ソウサセン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ワリコミ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ワリコミ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走査線割込の割込座標上位8bit</t>
+    <rPh sb="0" eb="3">
+      <t>ソウサセン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ワリコミ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ワリコミ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水平位置割込の割込座標下位8bit</t>
+    <rPh sb="0" eb="2">
+      <t>スイヘイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ワリコミ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ワリコミ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水平位置割込の割込座標上位8bit</t>
+    <rPh sb="0" eb="2">
+      <t>スイヘイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ワリコミ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ワリコミ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IX7</t>
+  </si>
+  <si>
+    <t>IX6</t>
+  </si>
+  <si>
+    <t>IX5</t>
+  </si>
+  <si>
+    <t>IX4</t>
+  </si>
+  <si>
+    <t>IX3</t>
+  </si>
+  <si>
+    <t>IX2</t>
+  </si>
+  <si>
+    <t>IX1</t>
+  </si>
+  <si>
+    <t>IX0</t>
+  </si>
+  <si>
+    <t>IX10</t>
+  </si>
+  <si>
+    <t>IX9</t>
+  </si>
+  <si>
+    <t>IX8</t>
+  </si>
+  <si>
+    <t>水平位置割込の挙動選択</t>
+    <rPh sb="0" eb="2">
+      <t>スイヘイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ワリコミ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水平位置割込（通常）</t>
+    <rPh sb="0" eb="2">
+      <t>スイヘイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ワリコミ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Interrupt Y Position (LOW) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Interrupt Y Position (HIGH) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Interrupt X Position (LOW) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Interrupt X Position (HIGH) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SXA7</t>
+  </si>
+  <si>
+    <t>SXA6</t>
+  </si>
+  <si>
+    <t>SXA5</t>
+  </si>
+  <si>
+    <t>SXA4</t>
+  </si>
+  <si>
+    <t>SXA3</t>
+  </si>
+  <si>
+    <t>SXA2</t>
+  </si>
+  <si>
+    <t>SXA1</t>
+  </si>
+  <si>
+    <t>SXA0</t>
+  </si>
+  <si>
+    <t>SXA10</t>
+  </si>
+  <si>
+    <t>SXA9</t>
+  </si>
+  <si>
+    <t>SXA8</t>
+  </si>
+  <si>
+    <t>SYA7</t>
+  </si>
+  <si>
+    <t>SYA6</t>
+  </si>
+  <si>
+    <t>SYA5</t>
+  </si>
+  <si>
+    <t>SYA4</t>
+  </si>
+  <si>
+    <t>SYA3</t>
+  </si>
+  <si>
+    <t>SYA2</t>
+  </si>
+  <si>
+    <t>SYA1</t>
+  </si>
+  <si>
+    <t>SYA0</t>
+  </si>
+  <si>
+    <t>SYA10</t>
+  </si>
+  <si>
+    <t>SYA9</t>
+  </si>
+  <si>
+    <t>SYA8</t>
+  </si>
+  <si>
+    <t>スクロール水平座標下位8bit</t>
+    <rPh sb="5" eb="7">
+      <t>スイヘイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクロール水平座標上位8bit</t>
+    <rPh sb="5" eb="7">
+      <t>スイヘイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクロール垂直座標下位8bit</t>
+    <rPh sb="5" eb="7">
+      <t>スイチョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクロール垂直座標上位8bit</t>
+    <rPh sb="5" eb="7">
+      <t>スイチョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scroll X Position A (LOW) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scroll X Position A (HIGH) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scroll Y Position A (LOW) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scroll Y Position A (HIGH) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SXB7</t>
+  </si>
+  <si>
+    <t>SXB6</t>
+  </si>
+  <si>
+    <t>SXB5</t>
+  </si>
+  <si>
+    <t>SXB4</t>
+  </si>
+  <si>
+    <t>SXB3</t>
+  </si>
+  <si>
+    <t>SXB2</t>
+  </si>
+  <si>
+    <t>SXB1</t>
+  </si>
+  <si>
+    <t>SXB0</t>
+  </si>
+  <si>
+    <t>SXB10</t>
+  </si>
+  <si>
+    <t>SXB9</t>
+  </si>
+  <si>
+    <t>SXB8</t>
+  </si>
+  <si>
+    <t>SYB7</t>
+  </si>
+  <si>
+    <t>SYB6</t>
+  </si>
+  <si>
+    <t>SYB5</t>
+  </si>
+  <si>
+    <t>SYB4</t>
+  </si>
+  <si>
+    <t>SYB3</t>
+  </si>
+  <si>
+    <t>SYB2</t>
+  </si>
+  <si>
+    <t>SYB1</t>
+  </si>
+  <si>
+    <t>SYB0</t>
+  </si>
+  <si>
+    <t>SYB10</t>
+  </si>
+  <si>
+    <t>SYB9</t>
+  </si>
+  <si>
+    <t>SYB8</t>
+  </si>
+  <si>
+    <t>Scroll X Position B (LOW) [ReBd/Write]</t>
+  </si>
+  <si>
+    <t>Scroll X Position B (HIGH) [ReBd/Write]</t>
+  </si>
+  <si>
+    <t>Scroll Y Position B (LOW) [ReBd/Write]</t>
+  </si>
+  <si>
+    <t>Scroll Y Position B (HIGH) [ReBd/Write]</t>
+  </si>
+  <si>
+    <t>SXC7</t>
+  </si>
+  <si>
+    <t>SXC6</t>
+  </si>
+  <si>
+    <t>SXC5</t>
+  </si>
+  <si>
+    <t>SXC4</t>
+  </si>
+  <si>
+    <t>SXC3</t>
+  </si>
+  <si>
+    <t>SXC2</t>
+  </si>
+  <si>
+    <t>SXC1</t>
+  </si>
+  <si>
+    <t>SXC0</t>
+  </si>
+  <si>
+    <t>Scroll X Position C (LOW) [ReCd/Write]</t>
+  </si>
+  <si>
+    <t>SXC10</t>
+  </si>
+  <si>
+    <t>SXC9</t>
+  </si>
+  <si>
+    <t>SXC8</t>
+  </si>
+  <si>
+    <t>Scroll X Position C (HIGH) [ReCd/Write]</t>
+  </si>
+  <si>
+    <t>SYC7</t>
+  </si>
+  <si>
+    <t>SYC6</t>
+  </si>
+  <si>
+    <t>SYC5</t>
+  </si>
+  <si>
+    <t>SYC4</t>
+  </si>
+  <si>
+    <t>SYC3</t>
+  </si>
+  <si>
+    <t>SYC2</t>
+  </si>
+  <si>
+    <t>SYC1</t>
+  </si>
+  <si>
+    <t>SYC0</t>
+  </si>
+  <si>
+    <t>Scroll Y Position C (LOW) [ReCd/Write]</t>
+  </si>
+  <si>
+    <t>SYC10</t>
+  </si>
+  <si>
+    <t>SYC9</t>
+  </si>
+  <si>
+    <t>SYC8</t>
+  </si>
+  <si>
+    <t>Scroll Y Position C (HIGH) [ReCd/Write]</t>
+  </si>
+  <si>
+    <t>SXD7</t>
+  </si>
+  <si>
+    <t>SXD6</t>
+  </si>
+  <si>
+    <t>SXD5</t>
+  </si>
+  <si>
+    <t>SXD4</t>
+  </si>
+  <si>
+    <t>SXD3</t>
+  </si>
+  <si>
+    <t>SXD2</t>
+  </si>
+  <si>
+    <t>SXD1</t>
+  </si>
+  <si>
+    <t>SXD0</t>
+  </si>
+  <si>
+    <t>Scroll X Position D (LOW) [ReDd/Write]</t>
+  </si>
+  <si>
+    <t>SXD10</t>
+  </si>
+  <si>
+    <t>SXD9</t>
+  </si>
+  <si>
+    <t>SXD8</t>
+  </si>
+  <si>
+    <t>Scroll X Position D (HIGH) [ReDd/Write]</t>
+  </si>
+  <si>
+    <t>SYD7</t>
+  </si>
+  <si>
+    <t>SYD6</t>
+  </si>
+  <si>
+    <t>SYD5</t>
+  </si>
+  <si>
+    <t>SYD4</t>
+  </si>
+  <si>
+    <t>SYD3</t>
+  </si>
+  <si>
+    <t>SYD2</t>
+  </si>
+  <si>
+    <t>SYD1</t>
+  </si>
+  <si>
+    <t>SYD0</t>
+  </si>
+  <si>
+    <t>Scroll Y Position D (LOW) [ReDd/Write]</t>
+  </si>
+  <si>
+    <t>SYD10</t>
+  </si>
+  <si>
+    <t>SYD9</t>
+  </si>
+  <si>
+    <t>SYD8</t>
+  </si>
+  <si>
+    <t>Scroll Y Position D (HIGH) [ReDd/Write]</t>
+  </si>
+  <si>
+    <t>Source X (LOW) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Source X (HIGH) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Source Y (LOW) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Source Y (HIGH) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Destination X (LOW) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Destination X (HIGH) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Destination Y (LOW) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Destination Y (HIGH) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Number of Dot X (LOW) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Number of Dot X (HIGH) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Number of Dot Y (LOW) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Number of Dot Y (HIGH) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Argument Register [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Logical Operation [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NXD7</t>
+  </si>
+  <si>
+    <t>NXD6</t>
+  </si>
+  <si>
+    <t>NXD5</t>
+  </si>
+  <si>
+    <t>NXD4</t>
+  </si>
+  <si>
+    <t>NXD3</t>
+  </si>
+  <si>
+    <t>NXD2</t>
+  </si>
+  <si>
+    <t>NXD1</t>
+  </si>
+  <si>
+    <t>NXD0</t>
+  </si>
+  <si>
+    <t>NXD10</t>
+  </si>
+  <si>
+    <t>NXD9</t>
+  </si>
+  <si>
+    <t>NXD8</t>
+  </si>
+  <si>
+    <t>Number of Dot X on Destination (LOW) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Number of Dot X on Destination (HIGH) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Number of Dot Y on Destination (LOW) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Number of Dot Y on Destination (HIGH) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NYD7</t>
+  </si>
+  <si>
+    <t>NYD6</t>
+  </si>
+  <si>
+    <t>NYD5</t>
+  </si>
+  <si>
+    <t>NYD4</t>
+  </si>
+  <si>
+    <t>NYD3</t>
+  </si>
+  <si>
+    <t>NYD2</t>
+  </si>
+  <si>
+    <t>NYD1</t>
+  </si>
+  <si>
+    <t>NYD0</t>
+  </si>
+  <si>
+    <t>NYD11</t>
+  </si>
+  <si>
+    <t>NYD10</t>
+  </si>
+  <si>
+    <t>NYD9</t>
+  </si>
+  <si>
+    <t>NYD8</t>
+  </si>
+  <si>
+    <t>SIN [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>COS [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>COS7</t>
+  </si>
+  <si>
+    <t>COS6</t>
+  </si>
+  <si>
+    <t>COS5</t>
+  </si>
+  <si>
+    <t>COS4</t>
+  </si>
+  <si>
+    <t>COS3</t>
+  </si>
+  <si>
+    <t>COS2</t>
+  </si>
+  <si>
+    <t>COS1</t>
+  </si>
+  <si>
+    <t>COS0</t>
+  </si>
+  <si>
+    <t>SIN7</t>
+  </si>
+  <si>
+    <t>SIN6</t>
+  </si>
+  <si>
+    <t>SIN5</t>
+  </si>
+  <si>
+    <t>SIN4</t>
+  </si>
+  <si>
+    <t>SIN3</t>
+  </si>
+  <si>
+    <t>SIN2</t>
+  </si>
+  <si>
+    <t>SIN1</t>
+  </si>
+  <si>
+    <t>SIN0</t>
+  </si>
+  <si>
+    <t>RA6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WII</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RII</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レジスタライトインクリメント指定</t>
+    <rPh sb="14" eb="16">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リードインクリメントなし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リードインクリメントあり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライトインクリメントなし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライトインクリメントあり</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5852,6 +7196,14 @@
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -5944,7 +7296,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6027,6 +7379,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6974,7 +8332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K266"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A179" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B199" sqref="B199:K203"/>
     </sheetView>
   </sheetViews>
@@ -12446,8 +13804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K235"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H27" sqref="G27:H27"/>
+    <sheetView topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="I190" sqref="I190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15286,8 +16644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K111"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17818,7 +19176,7 @@
         <v>753</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -17843,7 +19201,7 @@
         <v>732</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="H12" s="19" t="s">
         <v>751</v>
@@ -18011,7 +19369,7 @@
         <v>753</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.15">
@@ -18054,7 +19412,7 @@
         <v>732</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="H23" s="19" t="s">
         <v>751</v>
@@ -18144,8 +19502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18362,7 +19720,7 @@
         <v>756</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="D13" s="10">
         <v>0</v>
@@ -18386,7 +19744,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
@@ -18429,7 +19787,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="11" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
@@ -18691,32 +20049,32 @@
       <c r="B29" s="2" t="s">
         <v>1015</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="10">
+        <v>0</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="K29" s="16" t="s">
         <v>1016</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>1020</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>1022</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>1023</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>1024</v>
-      </c>
-      <c r="K29" s="16" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
@@ -18766,34 +20124,34 @@
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>1025</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="E32" s="10" t="s">
         <v>1026</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="F32" s="10" t="s">
         <v>1027</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="G32" s="10" t="s">
         <v>1028</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="H32" s="10" t="s">
         <v>1029</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="I32" s="10" t="s">
         <v>1030</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="J32" s="10" t="s">
         <v>1031</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="K32" s="16" t="s">
         <v>1032</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>1033</v>
-      </c>
-      <c r="K32" s="16" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
@@ -18843,7 +20201,7 @@
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="2" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C35" s="10">
         <v>0</v>
@@ -18864,13 +20222,13 @@
         <v>456</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="J35" s="10" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K35" s="16" t="s">
         <v>1037</v>
-      </c>
-      <c r="K35" s="16" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
@@ -18917,7 +20275,7 @@
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="11" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
@@ -18934,7 +20292,7 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="11" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
@@ -18962,7 +20320,7 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="11" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
@@ -18977,7 +20335,7 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="11" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
@@ -19027,7 +20385,7 @@
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="2" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>451</v>
@@ -19045,7 +20403,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>129</v>
@@ -19054,7 +20412,7 @@
         <v>456</v>
       </c>
       <c r="K45" s="16" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
@@ -19084,7 +20442,7 @@
         <v>167</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
@@ -19101,7 +20459,7 @@
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="11" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.15">
@@ -19118,7 +20476,7 @@
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="11" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
@@ -19135,7 +20493,7 @@
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="11" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.15">
@@ -19152,7 +20510,7 @@
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="11" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
@@ -19169,7 +20527,7 @@
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="11" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
@@ -19186,7 +20544,7 @@
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="11" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
@@ -19236,13 +20594,13 @@
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
       <c r="B56" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C56" s="10">
-        <v>0</v>
-      </c>
-      <c r="D56" s="10">
-        <v>0</v>
+        <v>1046</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>1470</v>
       </c>
       <c r="E56" s="10">
         <v>0</v>
@@ -19254,7 +20612,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="I56" s="10">
         <v>0</v>
@@ -19263,7 +20621,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="16" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
@@ -19278,7 +20636,7 @@
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="11" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
@@ -19295,7 +20653,7 @@
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="11" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
@@ -19312,7 +20670,7 @@
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="11" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
@@ -19339,38 +20697,50 @@
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
-      <c r="K61" s="11"/>
+      <c r="K61" s="11" t="s">
+        <v>1471</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
+      <c r="D62" s="4">
+        <v>0</v>
+      </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
-      <c r="K62" s="11"/>
+      <c r="K62" s="11" t="s">
+        <v>1472</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
+      <c r="D63" s="4">
+        <v>1</v>
+      </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="11"/>
+      <c r="K63" s="11" t="s">
+        <v>1473</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
+      <c r="C64" s="4">
+        <v>0</v>
+      </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
@@ -19378,12 +20748,16 @@
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
-      <c r="K64" s="11"/>
+      <c r="K64" s="11" t="s">
+        <v>1474</v>
+      </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
+      <c r="C65" s="4">
+        <v>1</v>
+      </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -19391,7 +20765,9 @@
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
-      <c r="K65" s="11"/>
+      <c r="K65" s="11" t="s">
+        <v>1475</v>
+      </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
@@ -20026,10 +21402,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K210"/>
+  <dimension ref="B2:K290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P99" sqref="P99"/>
+    <sheetView tabSelected="1" topLeftCell="A267" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K292" sqref="K292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20077,10 +21453,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
@@ -20098,7 +21474,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
@@ -20130,7 +21506,7 @@
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="20" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.15">
@@ -20149,7 +21525,7 @@
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="20" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.15">
@@ -20168,7 +21544,7 @@
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="20" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.15">
@@ -20187,7 +21563,7 @@
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="20" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">
@@ -20206,7 +21582,7 @@
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="20" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.15">
@@ -20225,7 +21601,7 @@
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="20" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.15">
@@ -20244,7 +21620,7 @@
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="20" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
@@ -20263,7 +21639,7 @@
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="20" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
@@ -20286,7 +21662,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="20" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.15">
@@ -20339,7 +21715,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="20" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.15">
@@ -20393,7 +21769,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="20" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.15">
@@ -20482,7 +21858,7 @@
         <v>39</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -20494,12 +21870,12 @@
         <v>0</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K28" s="20" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.15">
@@ -20510,7 +21886,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
@@ -20521,7 +21897,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="20" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.15">
@@ -20532,7 +21908,7 @@
         <v>1</v>
       </c>
       <c r="K31" s="20" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.15">
@@ -20543,7 +21919,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.15">
@@ -20646,7 +22022,7 @@
         <v>858</v>
       </c>
       <c r="K43" s="25" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.15">
@@ -20711,7 +22087,7 @@
         <v>866</v>
       </c>
       <c r="K46" s="25" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.15">
@@ -20755,28 +22131,28 @@
         <v>867</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="E49" s="23" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G49" s="23" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H49" s="23" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I49" s="23" t="s">
+        <v>1080</v>
+      </c>
+      <c r="J49" s="23" t="s">
+        <v>1079</v>
+      </c>
+      <c r="K49" s="25" t="s">
         <v>1086</v>
-      </c>
-      <c r="F49" s="23" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G49" s="23" t="s">
-        <v>1084</v>
-      </c>
-      <c r="H49" s="23" t="s">
-        <v>1083</v>
-      </c>
-      <c r="I49" s="23" t="s">
-        <v>1082</v>
-      </c>
-      <c r="J49" s="23" t="s">
-        <v>1081</v>
-      </c>
-      <c r="K49" s="25" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.15">
@@ -20837,7 +22213,7 @@
         <v>880</v>
       </c>
       <c r="K52" s="25" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.15">
@@ -20898,7 +22274,7 @@
         <v>888</v>
       </c>
       <c r="K55" s="25" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.15">
@@ -20938,16 +22314,16 @@
         <v>889</v>
       </c>
       <c r="D58" s="23" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F58" s="23" t="s">
         <v>1092</v>
       </c>
-      <c r="E58" s="23" t="s">
+      <c r="G58" s="23" t="s">
         <v>1093</v>
-      </c>
-      <c r="F58" s="23" t="s">
-        <v>1094</v>
-      </c>
-      <c r="G58" s="23" t="s">
-        <v>1095</v>
       </c>
       <c r="H58" s="23" t="s">
         <v>890</v>
@@ -20959,7 +22335,7 @@
         <v>892</v>
       </c>
       <c r="K58" s="25" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.15">
@@ -21008,10 +22384,10 @@
         <v>0</v>
       </c>
       <c r="G61" s="22" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="H61" s="23" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>103</v>
@@ -21020,7 +22396,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.15">
@@ -21048,7 +22424,7 @@
       <c r="G66" s="19"/>
       <c r="H66" s="19"/>
       <c r="K66" s="20" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.15">
@@ -21057,7 +22433,7 @@
         <v>0</v>
       </c>
       <c r="K67" s="20" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.15">
@@ -21066,7 +22442,7 @@
         <v>1</v>
       </c>
       <c r="K68" s="20" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.15">
@@ -21078,7 +22454,7 @@
       <c r="G70" s="19"/>
       <c r="H70" s="19"/>
       <c r="K70" s="20" t="s">
-        <v>1103</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.15">
@@ -21087,7 +22463,7 @@
       </c>
       <c r="H71" s="19"/>
       <c r="K71" s="20" t="s">
-        <v>1104</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.15">
@@ -21096,7 +22472,7 @@
       </c>
       <c r="H72" s="19"/>
       <c r="K72" s="20" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.15">
@@ -21157,7 +22533,7 @@
         <v>125</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="E79" s="3">
         <v>0</v>
@@ -21178,12 +22554,12 @@
         <v>0</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K80" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.15">
@@ -21237,7 +22613,7 @@
         <v>1</v>
       </c>
       <c r="K87" s="20" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.15">
@@ -21248,7 +22624,7 @@
         <v>1</v>
       </c>
       <c r="K88" s="20" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.15">
@@ -21291,10 +22667,10 @@
         <v>0</v>
       </c>
       <c r="E91" s="23" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="F91" s="23" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="G91" s="21">
         <v>0</v>
@@ -21309,7 +22685,7 @@
         <v>502</v>
       </c>
       <c r="K91" s="25" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.15">
@@ -21320,7 +22696,7 @@
       <c r="I93" s="20"/>
       <c r="J93" s="20"/>
       <c r="K93" s="20" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.15">
@@ -21333,7 +22709,7 @@
         <v>0</v>
       </c>
       <c r="K94" s="20" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.15">
@@ -21346,7 +22722,7 @@
         <v>1</v>
       </c>
       <c r="K95" s="20" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.15">
@@ -21359,7 +22735,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="20" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.15">
@@ -21372,7 +22748,7 @@
         <v>1</v>
       </c>
       <c r="K97" s="20" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.15">
@@ -21392,7 +22768,7 @@
       <c r="I99" s="20"/>
       <c r="J99" s="20"/>
       <c r="K99" s="20" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.15">
@@ -21407,7 +22783,7 @@
       <c r="I100" s="20"/>
       <c r="J100" s="20"/>
       <c r="K100" s="20" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.15">
@@ -21422,7 +22798,7 @@
       <c r="I101" s="20"/>
       <c r="J101" s="20"/>
       <c r="K101" s="20" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.15">
@@ -21437,7 +22813,7 @@
       <c r="I102" s="20"/>
       <c r="J102" s="20"/>
       <c r="K102" s="20" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.15">
@@ -21452,7 +22828,7 @@
       <c r="I103" s="20"/>
       <c r="J103" s="20"/>
       <c r="K103" s="20" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.15">
@@ -21488,42 +22864,42 @@
       <c r="B106" s="2">
         <v>11</v>
       </c>
-      <c r="C106" s="3">
-        <v>0</v>
-      </c>
-      <c r="D106" s="3">
-        <v>0</v>
-      </c>
-      <c r="E106" s="3">
-        <v>0</v>
-      </c>
-      <c r="F106" s="3">
-        <v>0</v>
-      </c>
-      <c r="G106" s="3">
-        <v>0</v>
-      </c>
-      <c r="H106" s="3">
-        <v>0</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K106" s="8" t="s">
-        <v>154</v>
+      <c r="C106" s="23" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D106" s="23" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E106" s="23" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F106" s="23" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G106" s="23" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H106" s="23" t="s">
+        <v>1147</v>
+      </c>
+      <c r="I106" s="23" t="s">
+        <v>1148</v>
+      </c>
+      <c r="J106" s="23" t="s">
+        <v>1149</v>
+      </c>
+      <c r="K106" s="25" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K107" t="s">
-        <v>155</v>
+      <c r="K107" s="28" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K108" t="s">
-        <v>156</v>
+      <c r="K108" s="28" t="s">
+        <v>1150</v>
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.15">
@@ -21559,1315 +22935,3063 @@
       <c r="B111" s="2">
         <v>12</v>
       </c>
-      <c r="C111" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E111" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="F111" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="G111" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="H111" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="J111" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="K111" s="8" t="s">
-        <v>165</v>
+      <c r="C111" s="23" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D111" s="23" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E111" s="23" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F111" s="23" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G111" s="23" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H111" s="23" t="s">
+        <v>1156</v>
+      </c>
+      <c r="I111" s="23" t="s">
+        <v>1157</v>
+      </c>
+      <c r="J111" s="23" t="s">
+        <v>1158</v>
+      </c>
+      <c r="K111" s="25" t="s">
+        <v>1119</v>
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K112" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G113" t="s">
+      <c r="C112" s="28"/>
+      <c r="D112" s="28"/>
+      <c r="E112" s="28"/>
+      <c r="F112" s="28"/>
+      <c r="G112" s="28"/>
+      <c r="H112" s="28"/>
+      <c r="I112" s="28"/>
+      <c r="J112" s="28"/>
+      <c r="K112" s="28" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B114" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I114" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J114" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B115" s="2">
+        <v>13</v>
+      </c>
+      <c r="C115" s="23" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D115" s="23" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E115" s="23" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F115" s="23" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G115" s="23" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H115" s="23" t="s">
+        <v>1164</v>
+      </c>
+      <c r="I115" s="23" t="s">
+        <v>1165</v>
+      </c>
+      <c r="J115" s="23" t="s">
+        <v>1166</v>
+      </c>
+      <c r="K115" s="25" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K116" s="28" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K117" s="28" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B119" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J119" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B120" s="2">
+        <v>14</v>
+      </c>
+      <c r="C120" s="23" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D120" s="23" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E120" s="23" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F120" s="23" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G120" s="23" t="s">
+        <v>1172</v>
+      </c>
+      <c r="H120" s="23" t="s">
+        <v>1173</v>
+      </c>
+      <c r="I120" s="23" t="s">
+        <v>1174</v>
+      </c>
+      <c r="J120" s="23" t="s">
+        <v>1175</v>
+      </c>
+      <c r="K120" s="25" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C121" s="28"/>
+      <c r="D121" s="28"/>
+      <c r="E121" s="28"/>
+      <c r="F121" s="28"/>
+      <c r="G121" s="28"/>
+      <c r="H121" s="28"/>
+      <c r="I121" s="28"/>
+      <c r="J121" s="28"/>
+      <c r="K121" s="28" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B123" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I123" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J123" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B124" s="2">
+        <v>15</v>
+      </c>
+      <c r="C124" s="23" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D124" s="23" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E124" s="23" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F124" s="23" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G124" s="23" t="s">
+        <v>1180</v>
+      </c>
+      <c r="H124" s="23" t="s">
+        <v>1181</v>
+      </c>
+      <c r="I124" s="23" t="s">
+        <v>1182</v>
+      </c>
+      <c r="J124" s="23" t="s">
+        <v>1183</v>
+      </c>
+      <c r="K124" s="25" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K125" s="28" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K126" s="28" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B128" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I128" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J128" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B129" s="2">
+        <v>16</v>
+      </c>
+      <c r="C129" s="23" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D129" s="23" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E129" s="23" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F129" s="23" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G129" s="23" t="s">
+        <v>1189</v>
+      </c>
+      <c r="H129" s="23" t="s">
+        <v>1190</v>
+      </c>
+      <c r="I129" s="23" t="s">
+        <v>1191</v>
+      </c>
+      <c r="J129" s="23" t="s">
+        <v>1192</v>
+      </c>
+      <c r="K129" s="25" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C130" s="28"/>
+      <c r="D130" s="28"/>
+      <c r="E130" s="28"/>
+      <c r="F130" s="28"/>
+      <c r="G130" s="28"/>
+      <c r="H130" s="28"/>
+      <c r="I130" s="28"/>
+      <c r="J130" s="28"/>
+      <c r="K130" s="28" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B132" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H132" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I132" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J132" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B133" s="2">
+        <v>17</v>
+      </c>
+      <c r="C133" s="23" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D133" s="23" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E133" s="23" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F133" s="23" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G133" s="23" t="s">
+        <v>1197</v>
+      </c>
+      <c r="H133" s="23" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I133" s="23" t="s">
+        <v>1199</v>
+      </c>
+      <c r="J133" s="23" t="s">
+        <v>1200</v>
+      </c>
+      <c r="K133" s="25" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K134" s="28" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K135" s="28" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B137" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H137" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I137" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J137" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B138" s="2">
+        <v>18</v>
+      </c>
+      <c r="C138" s="23" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D138" s="23" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E138" s="23" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F138" s="23" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G138" s="23" t="s">
+        <v>1206</v>
+      </c>
+      <c r="H138" s="23" t="s">
+        <v>1207</v>
+      </c>
+      <c r="I138" s="23" t="s">
+        <v>1208</v>
+      </c>
+      <c r="J138" s="23" t="s">
+        <v>1209</v>
+      </c>
+      <c r="K138" s="25" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C139" s="28"/>
+      <c r="D139" s="28"/>
+      <c r="E139" s="28"/>
+      <c r="F139" s="28"/>
+      <c r="G139" s="28"/>
+      <c r="H139" s="28"/>
+      <c r="I139" s="28"/>
+      <c r="J139" s="28"/>
+      <c r="K139" s="28" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B141" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H141" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I141" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J141" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B142" s="2">
+        <v>19</v>
+      </c>
+      <c r="C142" s="23" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D142" s="23" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E142" s="23" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F142" s="23" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G142" s="23" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H142" s="23" t="s">
+        <v>1128</v>
+      </c>
+      <c r="I142" s="23" t="s">
+        <v>1129</v>
+      </c>
+      <c r="J142" s="23" t="s">
+        <v>1130</v>
+      </c>
+      <c r="K142" s="25" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K143" s="28" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K144" s="28" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="146" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B146" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H146" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I146" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J146" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B147" s="2">
+        <v>20</v>
+      </c>
+      <c r="C147" s="23" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D147" s="23" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E147" s="23" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F147" s="23" t="s">
+        <v>1135</v>
+      </c>
+      <c r="G147" s="23" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H147" s="23" t="s">
+        <v>1137</v>
+      </c>
+      <c r="I147" s="23" t="s">
+        <v>1138</v>
+      </c>
+      <c r="J147" s="23" t="s">
+        <v>1139</v>
+      </c>
+      <c r="K147" s="25" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="148" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C148" s="28"/>
+      <c r="D148" s="28"/>
+      <c r="E148" s="28"/>
+      <c r="F148" s="28"/>
+      <c r="G148" s="28"/>
+      <c r="H148" s="28"/>
+      <c r="I148" s="28"/>
+      <c r="J148" s="28"/>
+      <c r="K148" s="28" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="150" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B150" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H150" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I150" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J150" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B151" s="2">
+        <v>21</v>
+      </c>
+      <c r="C151" s="23" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D151" s="23" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E151" s="23" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F151" s="23" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G151" s="23" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H151" s="23" t="s">
+        <v>1219</v>
+      </c>
+      <c r="I151" s="23" t="s">
+        <v>1220</v>
+      </c>
+      <c r="J151" s="23" t="s">
+        <v>1221</v>
+      </c>
+      <c r="K151" s="25" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="152" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K152" s="28" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="153" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K153" s="28" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="154" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K154" s="28"/>
+    </row>
+    <row r="155" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B155" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G155" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H155" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I155" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J155" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K155" s="28"/>
+    </row>
+    <row r="156" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B156" s="2">
+        <v>22</v>
+      </c>
+      <c r="C156" s="23" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D156" s="23" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E156" s="23" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F156" s="23" t="s">
+        <v>1226</v>
+      </c>
+      <c r="G156" s="23" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H156" s="23" t="s">
+        <v>1228</v>
+      </c>
+      <c r="I156" s="23" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J156" s="23" t="s">
+        <v>1230</v>
+      </c>
+      <c r="K156" s="25" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="157" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K157" s="28" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="159" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B159" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G159" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H159" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I159" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J159" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B160" s="2">
+        <v>23</v>
+      </c>
+      <c r="C160" s="23" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D160" s="23" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E160" s="23" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F160" s="23" t="s">
+        <v>1238</v>
+      </c>
+      <c r="G160" s="23" t="s">
+        <v>1239</v>
+      </c>
+      <c r="H160" s="23" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I160" s="23" t="s">
+        <v>1241</v>
+      </c>
+      <c r="J160" s="23" t="s">
+        <v>1242</v>
+      </c>
+      <c r="K160" s="25" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="161" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K161" s="28" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="162" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K162" s="28" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="164" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B164" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G164" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H164" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I164" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J164" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B165" s="2">
+        <v>24</v>
+      </c>
+      <c r="C165" s="23" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D165" s="23" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E165" s="23" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F165" s="23" t="s">
+        <v>1247</v>
+      </c>
+      <c r="G165" s="23" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H165" s="23" t="s">
+        <v>1249</v>
+      </c>
+      <c r="I165" s="23" t="s">
+        <v>1250</v>
+      </c>
+      <c r="J165" s="23" t="s">
+        <v>1251</v>
+      </c>
+      <c r="K165" s="25" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="166" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K166" s="19" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="168" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B168" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G168" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H168" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I168" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J168" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B169" s="2">
+        <v>25</v>
+      </c>
+      <c r="C169" s="23" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D169" s="23" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E169" s="23" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F169" s="23" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G169" s="23" t="s">
+        <v>1255</v>
+      </c>
+      <c r="H169" s="23" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I169" s="23" t="s">
+        <v>1253</v>
+      </c>
+      <c r="J169" s="23" t="s">
+        <v>1252</v>
+      </c>
+      <c r="K169" s="25" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="170" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B170" s="9"/>
+      <c r="C170" s="29"/>
+      <c r="D170" s="29"/>
+      <c r="E170" s="29"/>
+      <c r="F170" s="29"/>
+      <c r="G170" s="29"/>
+      <c r="H170" s="29"/>
+      <c r="I170" s="29"/>
+      <c r="J170" s="29"/>
+      <c r="K170" s="25"/>
+    </row>
+    <row r="171" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B171" s="9"/>
+      <c r="C171" s="29"/>
+      <c r="D171" s="29"/>
+      <c r="E171" s="29"/>
+      <c r="F171" s="29"/>
+      <c r="G171" s="29"/>
+      <c r="H171" s="29"/>
+      <c r="I171" s="29"/>
+      <c r="J171" s="29"/>
+      <c r="K171" s="25" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="172" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B172" s="9"/>
+      <c r="C172" s="25"/>
+      <c r="D172" s="25"/>
+      <c r="E172" s="25"/>
+      <c r="F172" s="25"/>
+      <c r="G172" s="25"/>
+      <c r="H172" s="25"/>
+      <c r="I172" s="25">
+        <v>0</v>
+      </c>
+      <c r="J172" s="25">
+        <v>0</v>
+      </c>
+      <c r="K172" s="25" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="173" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B173" s="9"/>
+      <c r="C173" s="25"/>
+      <c r="D173" s="25"/>
+      <c r="E173" s="25"/>
+      <c r="F173" s="25"/>
+      <c r="G173" s="25"/>
+      <c r="H173" s="25"/>
+      <c r="I173" s="25">
+        <v>0</v>
+      </c>
+      <c r="J173" s="25">
+        <v>1</v>
+      </c>
+      <c r="K173" s="25" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="174" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B174" s="9"/>
+      <c r="C174" s="25"/>
+      <c r="D174" s="25"/>
+      <c r="E174" s="25"/>
+      <c r="F174" s="25"/>
+      <c r="G174" s="25"/>
+      <c r="H174" s="25"/>
+      <c r="I174" s="25">
+        <v>1</v>
+      </c>
+      <c r="J174" s="25">
+        <v>0</v>
+      </c>
+      <c r="K174" s="25" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="175" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B175" s="9"/>
+      <c r="C175" s="25"/>
+      <c r="D175" s="25"/>
+      <c r="E175" s="25"/>
+      <c r="F175" s="25"/>
+      <c r="G175" s="25"/>
+      <c r="H175" s="25"/>
+      <c r="I175" s="25">
+        <v>1</v>
+      </c>
+      <c r="J175" s="25">
+        <v>1</v>
+      </c>
+      <c r="K175" s="25" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="176" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B176" s="9"/>
+      <c r="C176" s="25"/>
+      <c r="D176" s="25"/>
+      <c r="E176" s="25"/>
+      <c r="F176" s="25"/>
+      <c r="G176" s="25"/>
+      <c r="H176" s="25"/>
+      <c r="I176" s="25"/>
+      <c r="J176" s="25"/>
+      <c r="K176" s="25"/>
+    </row>
+    <row r="177" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B177" s="9"/>
+      <c r="C177" s="25"/>
+      <c r="D177" s="25"/>
+      <c r="E177" s="25"/>
+      <c r="F177" s="25"/>
+      <c r="G177" s="25"/>
+      <c r="H177" s="25"/>
+      <c r="I177" s="25"/>
+      <c r="J177" s="25"/>
+      <c r="K177" s="25" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="178" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B178" s="9"/>
+      <c r="C178" s="25"/>
+      <c r="D178" s="25"/>
+      <c r="E178" s="25"/>
+      <c r="F178" s="25"/>
+      <c r="G178" s="25">
+        <v>0</v>
+      </c>
+      <c r="H178" s="25">
+        <v>0</v>
+      </c>
+      <c r="I178" s="20"/>
+      <c r="J178" s="20"/>
+      <c r="K178" s="25" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="179" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B179" s="9"/>
+      <c r="C179" s="25"/>
+      <c r="D179" s="25"/>
+      <c r="E179" s="25"/>
+      <c r="F179" s="25"/>
+      <c r="G179" s="25">
+        <v>0</v>
+      </c>
+      <c r="H179" s="25">
+        <v>1</v>
+      </c>
+      <c r="I179" s="20"/>
+      <c r="J179" s="20"/>
+      <c r="K179" s="25" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="180" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B180" s="9"/>
+      <c r="C180" s="25"/>
+      <c r="D180" s="25"/>
+      <c r="E180" s="25"/>
+      <c r="F180" s="25"/>
+      <c r="G180" s="25">
+        <v>1</v>
+      </c>
+      <c r="H180" s="25">
+        <v>0</v>
+      </c>
+      <c r="I180" s="20"/>
+      <c r="J180" s="20"/>
+      <c r="K180" s="25" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="181" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B181" s="9"/>
+      <c r="C181" s="25"/>
+      <c r="D181" s="25"/>
+      <c r="E181" s="25"/>
+      <c r="F181" s="25"/>
+      <c r="G181" s="25">
+        <v>1</v>
+      </c>
+      <c r="H181" s="25">
+        <v>1</v>
+      </c>
+      <c r="I181" s="20"/>
+      <c r="J181" s="20"/>
+      <c r="K181" s="25" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="182" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B182" s="9"/>
+      <c r="C182" s="25"/>
+      <c r="D182" s="25"/>
+      <c r="E182" s="25"/>
+      <c r="F182" s="25"/>
+      <c r="G182" s="25"/>
+      <c r="H182" s="25"/>
+      <c r="I182" s="25"/>
+      <c r="J182" s="25"/>
+      <c r="K182" s="25"/>
+    </row>
+    <row r="183" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B183" s="9"/>
+      <c r="C183" s="25"/>
+      <c r="D183" s="25"/>
+      <c r="E183" s="25"/>
+      <c r="F183" s="25"/>
+      <c r="G183" s="25"/>
+      <c r="H183" s="25"/>
+      <c r="I183" s="25"/>
+      <c r="J183" s="25"/>
+      <c r="K183" s="25" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="184" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B184" s="9"/>
+      <c r="C184" s="25"/>
+      <c r="D184" s="25"/>
+      <c r="E184" s="25">
+        <v>0</v>
+      </c>
+      <c r="F184" s="25">
+        <v>0</v>
+      </c>
+      <c r="G184" s="25"/>
+      <c r="H184" s="25"/>
+      <c r="I184" s="20"/>
+      <c r="J184" s="20"/>
+      <c r="K184" s="25" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="185" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B185" s="9"/>
+      <c r="C185" s="25"/>
+      <c r="D185" s="25"/>
+      <c r="E185" s="25">
+        <v>0</v>
+      </c>
+      <c r="F185" s="25">
+        <v>1</v>
+      </c>
+      <c r="G185" s="25"/>
+      <c r="H185" s="25"/>
+      <c r="I185" s="20"/>
+      <c r="J185" s="20"/>
+      <c r="K185" s="25" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="186" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B186" s="9"/>
+      <c r="C186" s="25"/>
+      <c r="D186" s="25"/>
+      <c r="E186" s="25">
+        <v>1</v>
+      </c>
+      <c r="F186" s="25">
+        <v>0</v>
+      </c>
+      <c r="G186" s="25"/>
+      <c r="H186" s="25"/>
+      <c r="I186" s="20"/>
+      <c r="J186" s="20"/>
+      <c r="K186" s="25" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="187" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B187" s="9"/>
+      <c r="C187" s="25"/>
+      <c r="D187" s="25"/>
+      <c r="E187" s="25">
+        <v>1</v>
+      </c>
+      <c r="F187" s="25">
+        <v>1</v>
+      </c>
+      <c r="G187" s="25"/>
+      <c r="H187" s="25"/>
+      <c r="I187" s="20"/>
+      <c r="J187" s="20"/>
+      <c r="K187" s="25" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="188" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B188" s="9"/>
+      <c r="C188" s="25"/>
+      <c r="D188" s="25"/>
+      <c r="E188" s="25"/>
+      <c r="F188" s="25"/>
+      <c r="G188" s="25"/>
+      <c r="H188" s="25"/>
+      <c r="I188" s="25"/>
+      <c r="J188" s="25"/>
+      <c r="K188" s="25"/>
+    </row>
+    <row r="189" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B189" s="9"/>
+      <c r="C189" s="25"/>
+      <c r="D189" s="25"/>
+      <c r="E189" s="25"/>
+      <c r="F189" s="25"/>
+      <c r="G189" s="25"/>
+      <c r="H189" s="25"/>
+      <c r="I189" s="25"/>
+      <c r="J189" s="25"/>
+      <c r="K189" s="25" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="190" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B190" s="9"/>
+      <c r="C190" s="25">
+        <v>0</v>
+      </c>
+      <c r="D190" s="25">
+        <v>0</v>
+      </c>
+      <c r="E190" s="25"/>
+      <c r="F190" s="25"/>
+      <c r="G190" s="25"/>
+      <c r="H190" s="25"/>
+      <c r="I190" s="20"/>
+      <c r="J190" s="20"/>
+      <c r="K190" s="25" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="191" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B191" s="9"/>
+      <c r="C191" s="25">
+        <v>0</v>
+      </c>
+      <c r="D191" s="25">
+        <v>1</v>
+      </c>
+      <c r="E191" s="25"/>
+      <c r="F191" s="25"/>
+      <c r="G191" s="25"/>
+      <c r="H191" s="25"/>
+      <c r="I191" s="20"/>
+      <c r="J191" s="20"/>
+      <c r="K191" s="25" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="192" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B192" s="9"/>
+      <c r="C192" s="25">
+        <v>1</v>
+      </c>
+      <c r="D192" s="25">
+        <v>0</v>
+      </c>
+      <c r="E192" s="25"/>
+      <c r="F192" s="25"/>
+      <c r="G192" s="25"/>
+      <c r="H192" s="25"/>
+      <c r="I192" s="20"/>
+      <c r="J192" s="20"/>
+      <c r="K192" s="25" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="193" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B193" s="9"/>
+      <c r="C193" s="25">
+        <v>1</v>
+      </c>
+      <c r="D193" s="25">
+        <v>1</v>
+      </c>
+      <c r="E193" s="25"/>
+      <c r="F193" s="25"/>
+      <c r="G193" s="25"/>
+      <c r="H193" s="25"/>
+      <c r="I193" s="20"/>
+      <c r="J193" s="20"/>
+      <c r="K193" s="25" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="194" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B194" s="9"/>
+      <c r="C194" s="4"/>
+      <c r="D194" s="4"/>
+      <c r="E194" s="4"/>
+      <c r="F194" s="4"/>
+      <c r="G194" s="4"/>
+      <c r="H194" s="4"/>
+      <c r="I194" s="4"/>
+      <c r="J194" s="4"/>
+      <c r="K194" s="8"/>
+    </row>
+    <row r="195" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B195" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G195" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H195" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I195" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J195" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K195" s="28"/>
+    </row>
+    <row r="196" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B196" s="2">
+        <v>26</v>
+      </c>
+      <c r="C196" s="23" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D196" s="23" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E196" s="23" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F196" s="23" t="s">
+        <v>1287</v>
+      </c>
+      <c r="G196" s="23" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H196" s="23" t="s">
+        <v>1289</v>
+      </c>
+      <c r="I196" s="23" t="s">
+        <v>1290</v>
+      </c>
+      <c r="J196" s="23" t="s">
+        <v>1291</v>
+      </c>
+      <c r="K196" s="25" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="197" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K197" s="28" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="198" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K198" s="28"/>
+    </row>
+    <row r="199" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B199" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G199" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H199" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I199" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J199" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K199" s="28"/>
+    </row>
+    <row r="200" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B200" s="2">
+        <v>27</v>
+      </c>
+      <c r="C200" s="21">
+        <v>0</v>
+      </c>
+      <c r="D200" s="21">
+        <v>0</v>
+      </c>
+      <c r="E200" s="21">
+        <v>0</v>
+      </c>
+      <c r="F200" s="21">
+        <v>0</v>
+      </c>
+      <c r="G200" s="21">
+        <v>0</v>
+      </c>
+      <c r="H200" s="23" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I200" s="23" t="s">
+        <v>1293</v>
+      </c>
+      <c r="J200" s="23" t="s">
+        <v>1294</v>
+      </c>
+      <c r="K200" s="25" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="201" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K201" s="28" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="203" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B203" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F203" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G203" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H203" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I203" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J203" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B204" s="2">
+        <v>28</v>
+      </c>
+      <c r="C204" s="23" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D204" s="23" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E204" s="23" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F204" s="23" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G204" s="23" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H204" s="23" t="s">
+        <v>1274</v>
+      </c>
+      <c r="I204" s="23" t="s">
+        <v>1275</v>
+      </c>
+      <c r="J204" s="23" t="s">
+        <v>1276</v>
+      </c>
+      <c r="K204" s="25" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="205" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C205" s="28"/>
+      <c r="D205" s="28"/>
+      <c r="E205" s="28"/>
+      <c r="F205" s="28"/>
+      <c r="G205" s="28"/>
+      <c r="H205" s="28"/>
+      <c r="I205" s="28"/>
+      <c r="J205" s="28"/>
+      <c r="K205" s="28" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="206" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K206" s="28"/>
+    </row>
+    <row r="207" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B207" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F207" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G207" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H207" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I207" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J207" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K207" s="28"/>
+    </row>
+    <row r="208" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B208" s="2">
+        <v>29</v>
+      </c>
+      <c r="C208" s="21">
+        <v>0</v>
+      </c>
+      <c r="D208" s="21">
+        <v>0</v>
+      </c>
+      <c r="E208" s="21">
+        <v>0</v>
+      </c>
+      <c r="F208" s="21">
+        <v>0</v>
+      </c>
+      <c r="G208" s="21">
+        <v>0</v>
+      </c>
+      <c r="H208" s="23" t="s">
+        <v>1279</v>
+      </c>
+      <c r="I208" s="23" t="s">
+        <v>1278</v>
+      </c>
+      <c r="J208" s="23" t="s">
+        <v>1277</v>
+      </c>
+      <c r="K208" s="25" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="209" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K209" s="28" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="210" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K210" s="28"/>
+    </row>
+    <row r="211" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B211" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G211" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H211" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I211" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J211" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K211" s="28"/>
+    </row>
+    <row r="212" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B212" s="2">
+        <v>30</v>
+      </c>
+      <c r="C212" s="23" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D212" s="23" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E212" s="23" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F212" s="23" t="s">
+        <v>1304</v>
+      </c>
+      <c r="G212" s="23" t="s">
+        <v>1305</v>
+      </c>
+      <c r="H212" s="23" t="s">
+        <v>1306</v>
+      </c>
+      <c r="I212" s="23" t="s">
+        <v>1307</v>
+      </c>
+      <c r="J212" s="23" t="s">
+        <v>1308</v>
+      </c>
+      <c r="K212" s="25" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="213" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K213" s="28" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="214" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K214" s="28"/>
+    </row>
+    <row r="215" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B215" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E215" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F215" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G215" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H215" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I215" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J215" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K215" s="28"/>
+    </row>
+    <row r="216" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B216" s="2">
+        <v>31</v>
+      </c>
+      <c r="C216" s="21">
+        <v>0</v>
+      </c>
+      <c r="D216" s="21">
+        <v>0</v>
+      </c>
+      <c r="E216" s="21">
+        <v>0</v>
+      </c>
+      <c r="F216" s="21">
+        <v>0</v>
+      </c>
+      <c r="G216" s="21">
+        <v>0</v>
+      </c>
+      <c r="H216" s="23" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I216" s="23" t="s">
+        <v>1310</v>
+      </c>
+      <c r="J216" s="23" t="s">
+        <v>1311</v>
+      </c>
+      <c r="K216" s="25" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="217" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K217" s="28" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="219" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B219" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D219" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E219" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F219" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G219" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H219" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I219" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J219" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B220" s="2">
+        <v>32</v>
+      </c>
+      <c r="C220" s="23" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D220" s="23" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E220" s="23" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F220" s="23" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G220" s="23" t="s">
+        <v>1316</v>
+      </c>
+      <c r="H220" s="23" t="s">
+        <v>1317</v>
+      </c>
+      <c r="I220" s="23" t="s">
+        <v>1318</v>
+      </c>
+      <c r="J220" s="23" t="s">
+        <v>1319</v>
+      </c>
+      <c r="K220" s="25" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="221" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C221" s="28"/>
+      <c r="D221" s="28"/>
+      <c r="E221" s="28"/>
+      <c r="F221" s="28"/>
+      <c r="G221" s="28"/>
+      <c r="H221" s="28"/>
+      <c r="I221" s="28"/>
+      <c r="J221" s="28"/>
+      <c r="K221" s="28" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="222" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K222" s="28"/>
+    </row>
+    <row r="223" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B223" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D223" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F223" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G223" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H223" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I223" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J223" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K223" s="28"/>
+    </row>
+    <row r="224" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B224" s="2">
+        <v>33</v>
+      </c>
+      <c r="C224" s="21">
+        <v>0</v>
+      </c>
+      <c r="D224" s="21">
+        <v>0</v>
+      </c>
+      <c r="E224" s="21">
+        <v>0</v>
+      </c>
+      <c r="F224" s="21">
+        <v>0</v>
+      </c>
+      <c r="G224" s="21">
+        <v>0</v>
+      </c>
+      <c r="H224" s="23" t="s">
+        <v>1320</v>
+      </c>
+      <c r="I224" s="23" t="s">
+        <v>1321</v>
+      </c>
+      <c r="J224" s="23" t="s">
+        <v>1322</v>
+      </c>
+      <c r="K224" s="25" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="225" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K225" s="28" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="226" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K226" s="28"/>
+    </row>
+    <row r="227" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B227" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D227" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E227" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F227" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G227" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H227" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I227" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J227" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K227" s="28"/>
+    </row>
+    <row r="228" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B228" s="2">
+        <v>34</v>
+      </c>
+      <c r="C228" s="23" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D228" s="23" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E228" s="23" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F228" s="23" t="s">
+        <v>1334</v>
+      </c>
+      <c r="G228" s="23" t="s">
+        <v>1335</v>
+      </c>
+      <c r="H228" s="23" t="s">
+        <v>1336</v>
+      </c>
+      <c r="I228" s="23" t="s">
+        <v>1337</v>
+      </c>
+      <c r="J228" s="23" t="s">
+        <v>1338</v>
+      </c>
+      <c r="K228" s="25" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="229" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K229" s="28" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="230" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K230" s="28"/>
+    </row>
+    <row r="231" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B231" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D231" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E231" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F231" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G231" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H231" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I231" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J231" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K231" s="28"/>
+    </row>
+    <row r="232" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B232" s="2">
+        <v>35</v>
+      </c>
+      <c r="C232" s="21">
+        <v>0</v>
+      </c>
+      <c r="D232" s="21">
+        <v>0</v>
+      </c>
+      <c r="E232" s="21">
+        <v>0</v>
+      </c>
+      <c r="F232" s="21">
+        <v>0</v>
+      </c>
+      <c r="G232" s="21">
+        <v>0</v>
+      </c>
+      <c r="H232" s="23" t="s">
+        <v>1339</v>
+      </c>
+      <c r="I232" s="23" t="s">
+        <v>1340</v>
+      </c>
+      <c r="J232" s="23" t="s">
+        <v>1341</v>
+      </c>
+      <c r="K232" s="25" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="233" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K233" s="28" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="235" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B235" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D235" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E235" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F235" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G235" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H235" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I235" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J235" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B236" s="2">
+        <v>36</v>
+      </c>
+      <c r="C236" s="23" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D236" s="23" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E236" s="23" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F236" s="23" t="s">
+        <v>1345</v>
+      </c>
+      <c r="G236" s="23" t="s">
+        <v>1346</v>
+      </c>
+      <c r="H236" s="23" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I236" s="23" t="s">
+        <v>1348</v>
+      </c>
+      <c r="J236" s="23" t="s">
+        <v>1349</v>
+      </c>
+      <c r="K236" s="25" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="237" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C237" s="28"/>
+      <c r="D237" s="28"/>
+      <c r="E237" s="28"/>
+      <c r="F237" s="28"/>
+      <c r="G237" s="28"/>
+      <c r="H237" s="28"/>
+      <c r="I237" s="28"/>
+      <c r="J237" s="28"/>
+      <c r="K237" s="28" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="238" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K238" s="28"/>
+    </row>
+    <row r="239" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B239" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E239" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F239" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G239" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H239" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I239" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J239" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K239" s="28"/>
+    </row>
+    <row r="240" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B240" s="2">
+        <v>37</v>
+      </c>
+      <c r="C240" s="21">
+        <v>0</v>
+      </c>
+      <c r="D240" s="21">
+        <v>0</v>
+      </c>
+      <c r="E240" s="21">
+        <v>0</v>
+      </c>
+      <c r="F240" s="21">
+        <v>0</v>
+      </c>
+      <c r="G240" s="21">
+        <v>0</v>
+      </c>
+      <c r="H240" s="23" t="s">
+        <v>1350</v>
+      </c>
+      <c r="I240" s="23" t="s">
+        <v>1351</v>
+      </c>
+      <c r="J240" s="23" t="s">
+        <v>1352</v>
+      </c>
+      <c r="K240" s="25" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="241" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K241" s="28" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="243" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B243" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D243" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E243" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F243" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G243" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H243" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I243" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J243" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K243" s="28"/>
+    </row>
+    <row r="244" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B244" s="2">
+        <v>38</v>
+      </c>
+      <c r="C244" s="23" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D244" s="23" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E244" s="23" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F244" s="23" t="s">
+        <v>1360</v>
+      </c>
+      <c r="G244" s="23" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H244" s="23" t="s">
+        <v>1362</v>
+      </c>
+      <c r="I244" s="23" t="s">
+        <v>1363</v>
+      </c>
+      <c r="J244" s="23" t="s">
+        <v>1364</v>
+      </c>
+      <c r="K244" s="25" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="245" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K245" s="28" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="246" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K246" s="28"/>
+    </row>
+    <row r="247" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B247" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D247" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E247" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F247" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G247" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H247" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I247" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J247" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K247" s="28"/>
+    </row>
+    <row r="248" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B248" s="2">
+        <v>39</v>
+      </c>
+      <c r="C248" s="21">
+        <v>0</v>
+      </c>
+      <c r="D248" s="21">
+        <v>0</v>
+      </c>
+      <c r="E248" s="21">
+        <v>0</v>
+      </c>
+      <c r="F248" s="21">
+        <v>0</v>
+      </c>
+      <c r="G248" s="21">
+        <v>0</v>
+      </c>
+      <c r="H248" s="23" t="s">
+        <v>1366</v>
+      </c>
+      <c r="I248" s="23" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J248" s="23" t="s">
+        <v>1368</v>
+      </c>
+      <c r="K248" s="25" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="249" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K249" s="28" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="251" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B251" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E251" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F251" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G251" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H251" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I251" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J251" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B252" s="2">
+        <v>40</v>
+      </c>
+      <c r="C252" s="23" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D252" s="23" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E252" s="23" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F252" s="23" t="s">
+        <v>1373</v>
+      </c>
+      <c r="G252" s="23" t="s">
+        <v>1374</v>
+      </c>
+      <c r="H252" s="23" t="s">
+        <v>1375</v>
+      </c>
+      <c r="I252" s="23" t="s">
+        <v>1376</v>
+      </c>
+      <c r="J252" s="23" t="s">
+        <v>1377</v>
+      </c>
+      <c r="K252" s="25" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="253" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C253" s="28"/>
+      <c r="D253" s="28"/>
+      <c r="E253" s="28"/>
+      <c r="F253" s="28"/>
+      <c r="G253" s="28"/>
+      <c r="H253" s="28"/>
+      <c r="I253" s="28"/>
+      <c r="J253" s="28"/>
+      <c r="K253" s="28" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="254" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K254" s="28"/>
+    </row>
+    <row r="255" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B255" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D255" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E255" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F255" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G255" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H255" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I255" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J255" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K255" s="28"/>
+    </row>
+    <row r="256" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B256" s="2">
+        <v>41</v>
+      </c>
+      <c r="C256" s="21">
+        <v>0</v>
+      </c>
+      <c r="D256" s="21">
+        <v>0</v>
+      </c>
+      <c r="E256" s="21">
+        <v>0</v>
+      </c>
+      <c r="F256" s="21">
+        <v>0</v>
+      </c>
+      <c r="G256" s="21">
+        <v>0</v>
+      </c>
+      <c r="H256" s="23" t="s">
+        <v>1379</v>
+      </c>
+      <c r="I256" s="23" t="s">
+        <v>1380</v>
+      </c>
+      <c r="J256" s="23" t="s">
+        <v>1381</v>
+      </c>
+      <c r="K256" s="25" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="257" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K257" s="28" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="259" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B259" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E259" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F259" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G259" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H259" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I259" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J259" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K259" s="28"/>
+    </row>
+    <row r="260" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B260" s="2">
+        <v>42</v>
+      </c>
+      <c r="C260" s="23" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D260" s="23" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E260" s="23" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F260" s="23" t="s">
+        <v>1386</v>
+      </c>
+      <c r="G260" s="23" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H260" s="23" t="s">
+        <v>1388</v>
+      </c>
+      <c r="I260" s="23" t="s">
+        <v>1389</v>
+      </c>
+      <c r="J260" s="23" t="s">
+        <v>1390</v>
+      </c>
+      <c r="K260" s="25" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="261" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K261" s="28" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="262" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K262" s="28"/>
+    </row>
+    <row r="263" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B263" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D263" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E263" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F263" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G263" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H263" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I263" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J263" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K263" s="28"/>
+    </row>
+    <row r="264" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B264" s="2">
+        <v>43</v>
+      </c>
+      <c r="C264" s="21">
+        <v>0</v>
+      </c>
+      <c r="D264" s="21">
+        <v>0</v>
+      </c>
+      <c r="E264" s="21">
+        <v>0</v>
+      </c>
+      <c r="F264" s="21">
+        <v>0</v>
+      </c>
+      <c r="G264" s="21">
+        <v>0</v>
+      </c>
+      <c r="H264" s="23" t="s">
+        <v>1392</v>
+      </c>
+      <c r="I264" s="23" t="s">
+        <v>1393</v>
+      </c>
+      <c r="J264" s="23" t="s">
+        <v>1394</v>
+      </c>
+      <c r="K264" s="25" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="265" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K265" s="28" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="267" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B267" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D267" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E267" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F267" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G267" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H267" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I267" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J267" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B268" s="2">
+        <v>44</v>
+      </c>
+      <c r="C268" s="23" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D268" s="23" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E268" s="23" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F268" s="23" t="s">
+        <v>1399</v>
+      </c>
+      <c r="G268" s="23" t="s">
+        <v>1400</v>
+      </c>
+      <c r="H268" s="23" t="s">
+        <v>1401</v>
+      </c>
+      <c r="I268" s="23" t="s">
+        <v>1402</v>
+      </c>
+      <c r="J268" s="23" t="s">
+        <v>1403</v>
+      </c>
+      <c r="K268" s="25" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="269" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C269" s="28"/>
+      <c r="D269" s="28"/>
+      <c r="E269" s="28"/>
+      <c r="F269" s="28"/>
+      <c r="G269" s="28"/>
+      <c r="H269" s="28"/>
+      <c r="I269" s="28"/>
+      <c r="J269" s="28"/>
+      <c r="K269" s="28" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="270" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K270" s="28"/>
+    </row>
+    <row r="271" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B271" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D271" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E271" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F271" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G271" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H271" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I271" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J271" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K271" s="28"/>
+    </row>
+    <row r="272" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B272" s="2">
+        <v>45</v>
+      </c>
+      <c r="C272" s="21">
+        <v>0</v>
+      </c>
+      <c r="D272" s="21">
+        <v>0</v>
+      </c>
+      <c r="E272" s="21">
+        <v>0</v>
+      </c>
+      <c r="F272" s="21">
+        <v>0</v>
+      </c>
+      <c r="G272" s="21">
+        <v>0</v>
+      </c>
+      <c r="H272" s="23" t="s">
+        <v>1405</v>
+      </c>
+      <c r="I272" s="23" t="s">
+        <v>1406</v>
+      </c>
+      <c r="J272" s="23" t="s">
+        <v>1407</v>
+      </c>
+      <c r="K272" s="25" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="273" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K273" s="28" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="275" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B275" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D275" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E275" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F275" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G275" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H275" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I275" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J275" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="276" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B276" s="2">
+        <v>46</v>
+      </c>
+      <c r="C276" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D276" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E276" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F276" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="G276" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="H276" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="I276" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="J276" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K276" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="278" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="G278" t="s">
         <v>167</v>
       </c>
-      <c r="H113" t="s">
+      <c r="H278" t="s">
         <v>167</v>
       </c>
-      <c r="I113" t="s">
+      <c r="I278" t="s">
         <v>167</v>
       </c>
-      <c r="J113" t="s">
+      <c r="J278" t="s">
         <v>167</v>
       </c>
-      <c r="K113" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C114" t="s">
+      <c r="K278" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="279" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C279" t="s">
         <v>167</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D279" t="s">
         <v>167</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E279" t="s">
         <v>167</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F279" t="s">
         <v>167</v>
       </c>
-      <c r="K114" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B116" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D116" s="5" t="s">
+      <c r="K279" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="281" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B281" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D281" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E116" s="5" t="s">
+      <c r="E281" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F116" s="5" t="s">
+      <c r="F281" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G116" s="5" t="s">
+      <c r="G281" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H116" s="5" t="s">
+      <c r="H281" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I116" s="5" t="s">
+      <c r="I281" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J116" s="7" t="s">
+      <c r="J281" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B117" s="2">
-        <v>13</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="E117" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="F117" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="G117" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="H117" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="K117" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K118" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G119" t="s">
+    <row r="282" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B282" s="2">
+        <v>47</v>
+      </c>
+      <c r="C282" s="23" t="s">
+        <v>893</v>
+      </c>
+      <c r="D282" s="23" t="s">
+        <v>894</v>
+      </c>
+      <c r="E282" s="23" t="s">
+        <v>895</v>
+      </c>
+      <c r="F282" s="23" t="s">
+        <v>896</v>
+      </c>
+      <c r="G282" s="23" t="s">
+        <v>897</v>
+      </c>
+      <c r="H282" s="23" t="s">
+        <v>898</v>
+      </c>
+      <c r="I282" s="23" t="s">
+        <v>899</v>
+      </c>
+      <c r="J282" s="23" t="s">
+        <v>900</v>
+      </c>
+      <c r="K282" s="25" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="283" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C283" s="28"/>
+      <c r="D283" s="28"/>
+      <c r="E283" s="28"/>
+      <c r="F283" s="28"/>
+      <c r="G283" s="28"/>
+      <c r="H283" s="28"/>
+      <c r="I283" s="28"/>
+      <c r="J283" s="28"/>
+      <c r="K283" s="28"/>
+    </row>
+    <row r="284" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C284" s="28"/>
+      <c r="D284" s="28"/>
+      <c r="E284" s="28"/>
+      <c r="F284" s="28"/>
+      <c r="G284" s="28"/>
+      <c r="H284" s="28"/>
+      <c r="I284" s="28"/>
+      <c r="J284" s="28"/>
+      <c r="K284" s="28" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="285" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C285" s="28"/>
+      <c r="D285" s="28"/>
+      <c r="E285" s="28"/>
+      <c r="F285" s="28"/>
+      <c r="G285" s="28"/>
+      <c r="H285" s="28"/>
+      <c r="I285" s="28">
+        <v>0</v>
+      </c>
+      <c r="J285" s="28">
+        <v>0</v>
+      </c>
+      <c r="K285" s="28" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="286" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C286" s="28"/>
+      <c r="D286" s="28"/>
+      <c r="E286" s="28"/>
+      <c r="F286" s="28"/>
+      <c r="G286" s="28"/>
+      <c r="H286" s="28"/>
+      <c r="I286" s="28">
+        <v>0</v>
+      </c>
+      <c r="J286" s="28">
+        <v>1</v>
+      </c>
+      <c r="K286" s="28" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="287" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C287" s="28"/>
+      <c r="D287" s="28"/>
+      <c r="E287" s="28"/>
+      <c r="F287" s="28"/>
+      <c r="G287" s="28"/>
+      <c r="H287" s="28"/>
+      <c r="I287" s="28">
+        <v>1</v>
+      </c>
+      <c r="J287" s="28">
+        <v>0</v>
+      </c>
+      <c r="K287" s="28" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="288" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C288" s="28"/>
+      <c r="D288" s="28"/>
+      <c r="E288" s="28"/>
+      <c r="F288" s="28"/>
+      <c r="G288" s="28"/>
+      <c r="H288" s="28"/>
+      <c r="I288" s="28">
+        <v>1</v>
+      </c>
+      <c r="J288" s="28">
+        <v>1</v>
+      </c>
+      <c r="K288" s="28" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="289" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C289" s="28"/>
+      <c r="D289" s="28"/>
+      <c r="E289" s="28"/>
+      <c r="F289" s="28"/>
+      <c r="G289" s="28"/>
+      <c r="H289" s="28"/>
+      <c r="I289" s="28"/>
+      <c r="J289" s="28"/>
+      <c r="K289" s="28"/>
+    </row>
+    <row r="290" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C290" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="H119" t="s">
+      <c r="D290" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="I119" t="s">
+      <c r="E290" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="J119" t="s">
+      <c r="F290" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="K119" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C120" t="s">
+      <c r="G290" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="D120" t="s">
+      <c r="H290" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="E120" t="s">
-        <v>167</v>
-      </c>
-      <c r="F120" t="s">
-        <v>167</v>
-      </c>
-      <c r="K120" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B122" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G122" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H122" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I122" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J122" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B123" s="2">
-        <v>14</v>
-      </c>
-      <c r="C123" s="3">
-        <v>0</v>
-      </c>
-      <c r="D123" s="3">
-        <v>0</v>
-      </c>
-      <c r="E123" s="3">
-        <v>0</v>
-      </c>
-      <c r="F123" s="3">
-        <v>0</v>
-      </c>
-      <c r="G123" s="3">
-        <v>0</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I123" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J123" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K123" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K124" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B126" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F126" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G126" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H126" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I126" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J126" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B127" s="2">
-        <v>15</v>
-      </c>
-      <c r="C127" s="3">
-        <v>0</v>
-      </c>
-      <c r="D127" s="3">
-        <v>0</v>
-      </c>
-      <c r="E127" s="3">
-        <v>0</v>
-      </c>
-      <c r="F127" s="3">
-        <v>0</v>
-      </c>
-      <c r="G127" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="H127" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="K127" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K128" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B130" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F130" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G130" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H130" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I130" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J130" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B131" s="2">
-        <v>16</v>
-      </c>
-      <c r="C131" s="3">
-        <v>0</v>
-      </c>
-      <c r="D131" s="3">
-        <v>0</v>
-      </c>
-      <c r="E131" s="3">
-        <v>0</v>
-      </c>
-      <c r="F131" s="3">
-        <v>0</v>
-      </c>
-      <c r="G131" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="H131" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="I131" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J131" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="K131" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K132" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B134" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F134" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G134" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H134" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I134" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J134" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B135" s="2">
-        <v>17</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D135" s="3">
-        <v>0</v>
-      </c>
-      <c r="E135" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="F135" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="G135" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="H135" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="I135" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J135" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="K135" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K136" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E137" t="s">
-        <v>167</v>
-      </c>
-      <c r="F137" t="s">
-        <v>167</v>
-      </c>
-      <c r="G137" t="s">
-        <v>167</v>
-      </c>
-      <c r="H137" t="s">
-        <v>167</v>
-      </c>
-      <c r="I137" t="s">
-        <v>167</v>
-      </c>
-      <c r="J137" t="s">
-        <v>167</v>
-      </c>
-      <c r="K137" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K139" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C140">
-        <v>0</v>
-      </c>
-      <c r="K140" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C141">
-        <v>1</v>
-      </c>
-      <c r="K141" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B143" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F143" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G143" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H143" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I143" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J143" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="144" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B144" s="2">
-        <v>18</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D144" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="E144" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="F144" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="G144" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="H144" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="I144" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="J144" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K144" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="G146" t="s">
-        <v>167</v>
-      </c>
-      <c r="H146" t="s">
-        <v>167</v>
-      </c>
-      <c r="I146" t="s">
-        <v>167</v>
-      </c>
-      <c r="J146" t="s">
-        <v>167</v>
-      </c>
-      <c r="K146" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C147" t="s">
-        <v>167</v>
-      </c>
-      <c r="D147" t="s">
-        <v>167</v>
-      </c>
-      <c r="E147" t="s">
-        <v>167</v>
-      </c>
-      <c r="F147" t="s">
-        <v>167</v>
-      </c>
-      <c r="K147" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B149" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D149" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F149" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G149" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H149" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I149" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J149" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B150" s="2">
-        <v>19</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="D150" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E150" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="F150" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="G150" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="H150" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="I150" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="J150" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="K150" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K151" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K152" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B154" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D154" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E154" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F154" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G154" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H154" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I154" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J154" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="155" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B155" s="2">
-        <v>20</v>
-      </c>
-      <c r="C155" s="3">
-        <v>0</v>
-      </c>
-      <c r="D155" s="3">
-        <v>0</v>
-      </c>
-      <c r="E155" s="3">
-        <v>0</v>
-      </c>
-      <c r="F155" s="3">
-        <v>0</v>
-      </c>
-      <c r="G155" s="3">
-        <v>0</v>
-      </c>
-      <c r="H155" s="3">
-        <v>0</v>
-      </c>
-      <c r="I155" s="3">
-        <v>0</v>
-      </c>
-      <c r="J155" s="3">
-        <v>0</v>
-      </c>
-      <c r="K155" s="8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="156" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K156" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B158" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E158" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F158" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G158" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H158" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I158" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J158" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="159" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B159" s="2">
-        <v>21</v>
-      </c>
-      <c r="C159" s="3">
-        <v>0</v>
-      </c>
-      <c r="D159" s="3">
-        <v>0</v>
-      </c>
-      <c r="E159" s="3">
-        <v>1</v>
-      </c>
-      <c r="F159" s="3">
-        <v>1</v>
-      </c>
-      <c r="G159" s="3">
-        <v>1</v>
-      </c>
-      <c r="H159" s="3">
-        <v>0</v>
-      </c>
-      <c r="I159" s="3">
-        <v>1</v>
-      </c>
-      <c r="J159" s="3">
-        <v>1</v>
-      </c>
-      <c r="K159" s="8" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="160" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K160" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="162" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B162" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D162" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E162" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F162" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G162" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H162" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I162" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J162" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="163" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B163" s="2">
-        <v>22</v>
-      </c>
-      <c r="C163" s="3">
-        <v>0</v>
-      </c>
-      <c r="D163" s="3">
-        <v>0</v>
-      </c>
-      <c r="E163" s="3">
-        <v>0</v>
-      </c>
-      <c r="F163" s="3">
-        <v>0</v>
-      </c>
-      <c r="G163" s="3">
-        <v>0</v>
-      </c>
-      <c r="H163" s="3">
-        <v>1</v>
-      </c>
-      <c r="I163" s="3">
-        <v>0</v>
-      </c>
-      <c r="J163" s="3">
-        <v>1</v>
-      </c>
-      <c r="K163" s="8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="164" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K164" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="166" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B166" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D166" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E166" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F166" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G166" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H166" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I166" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J166" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="167" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B167" s="2">
-        <v>23</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="D167" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="E167" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="F167" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="G167" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="H167" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="I167" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="J167" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="K167" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="168" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K168" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="169" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K169" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="171" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B171" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D171" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E171" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F171" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G171" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H171" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I171" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J171" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="172" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B172" s="2">
-        <v>24</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="F172" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="G172" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="H172" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="I172" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="J172" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="K172" s="8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="174" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B174" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D174" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E174" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F174" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G174" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H174" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I174" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J174" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="175" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B175" s="2">
-        <v>25</v>
-      </c>
-      <c r="C175" s="3">
-        <v>0</v>
-      </c>
-      <c r="D175" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="E175" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="F175" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="G175" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="H175" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="I175" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="J175" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="K175" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="176" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K176" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="177" spans="7:11" x14ac:dyDescent="0.15">
-      <c r="J177">
-        <v>0</v>
-      </c>
-      <c r="K177" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="178" spans="7:11" x14ac:dyDescent="0.15">
-      <c r="J178">
-        <v>1</v>
-      </c>
-      <c r="K178" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="180" spans="7:11" x14ac:dyDescent="0.15">
-      <c r="K180" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="181" spans="7:11" x14ac:dyDescent="0.15">
-      <c r="I181">
-        <v>0</v>
-      </c>
-      <c r="K181" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="182" spans="7:11" x14ac:dyDescent="0.15">
-      <c r="I182">
-        <v>1</v>
-      </c>
-      <c r="K182" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="184" spans="7:11" x14ac:dyDescent="0.15">
-      <c r="K184" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="185" spans="7:11" x14ac:dyDescent="0.15">
-      <c r="H185">
-        <v>0</v>
-      </c>
-      <c r="K185" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="186" spans="7:11" x14ac:dyDescent="0.15">
-      <c r="H186">
-        <v>1</v>
-      </c>
-      <c r="K186" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="188" spans="7:11" x14ac:dyDescent="0.15">
-      <c r="K188" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="189" spans="7:11" x14ac:dyDescent="0.15">
-      <c r="G189">
-        <v>0</v>
-      </c>
-      <c r="K189" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="190" spans="7:11" x14ac:dyDescent="0.15">
-      <c r="G190">
-        <v>1</v>
-      </c>
-      <c r="K190" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="192" spans="7:11" x14ac:dyDescent="0.15">
-      <c r="K192" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="193" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="F193">
-        <v>0</v>
-      </c>
-      <c r="K193" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="194" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="F194">
-        <v>1</v>
-      </c>
-      <c r="K194" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="196" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K196" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="197" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E197">
-        <v>0</v>
-      </c>
-      <c r="K197" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="198" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E198">
-        <v>1</v>
-      </c>
-      <c r="K198" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="200" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K200" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="201" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D201">
-        <v>0</v>
-      </c>
-      <c r="K201" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="202" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D202">
-        <v>1</v>
-      </c>
-      <c r="K202" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="204" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B204" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C204" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D204" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E204" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F204" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G204" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H204" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I204" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J204" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="205" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B205" s="2">
-        <v>26</v>
-      </c>
-      <c r="C205" s="3">
-        <v>0</v>
-      </c>
-      <c r="D205" s="3">
-        <v>0</v>
-      </c>
-      <c r="E205" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="F205" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="G205" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="H205" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I205" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="J205" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="K205" s="8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="206" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K206" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="208" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B208" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C208" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D208" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E208" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F208" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G208" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H208" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I208" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J208" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="209" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B209" s="2">
-        <v>27</v>
-      </c>
-      <c r="C209" s="3">
-        <v>0</v>
-      </c>
-      <c r="D209" s="3">
-        <v>0</v>
-      </c>
-      <c r="E209" s="3">
-        <v>0</v>
-      </c>
-      <c r="F209" s="3">
-        <v>0</v>
-      </c>
-      <c r="G209" s="3">
-        <v>0</v>
-      </c>
-      <c r="H209" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="I209" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="J209" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="K209" s="8" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="210" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="K210" t="s">
-        <v>281</v>
+      <c r="I290" s="28"/>
+      <c r="J290" s="28"/>
+      <c r="K290" s="28" t="s">
+        <v>914</v>
       </c>
     </row>
   </sheetData>
@@ -22879,12 +26003,2615 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:K126"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A103" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="4.75" customWidth="1"/>
+    <col min="3" max="10" width="6.5" customWidth="1"/>
+    <col min="11" max="11" width="61.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B3" s="2">
+        <v>64</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B7" s="2">
+        <v>65</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B10" s="2">
+        <v>66</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B11" s="9"/>
+      <c r="C11" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B14" s="13">
+        <v>67</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B15" s="9"/>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B18" s="2">
+        <v>68</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B19" s="9"/>
+      <c r="C19" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B22" s="2">
+        <v>69</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B24" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B25" s="2">
+        <v>70</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B26" s="9"/>
+      <c r="C26" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="K26" s="8"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B29" s="2">
+        <v>71</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B30" s="9"/>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="K30" s="8"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B32" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B33" s="2">
+        <v>72</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B34" s="9"/>
+      <c r="C34" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="K34" s="8"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B35" s="9"/>
+      <c r="C35" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="K35" s="8"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K36" s="9"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B37" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K37" s="9"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B38" s="13">
+        <v>73</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B39" s="9"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="K39" s="8"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K40" s="9"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B41" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K41" s="9"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B42" s="2">
+        <v>74</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B43" s="9"/>
+      <c r="C43" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="K43" s="8"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B44" s="9"/>
+      <c r="C44" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="K44" s="8"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K45" s="9"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B46" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" s="9"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B47" s="2">
+        <v>75</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B48" s="9"/>
+      <c r="C48" s="3">
+        <v>0</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="K48" s="8"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B49" s="9"/>
+      <c r="C49" s="3">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="K49" s="8"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K50" s="9"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B51" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K51" s="9"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B52" s="2">
+        <v>76</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>1426</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>1427</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>1428</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>1429</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>1430</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K53" s="9"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B54" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K54" s="9"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B55" s="13">
+        <v>77</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>1431</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>1432</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>1433</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K56" s="9"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B57" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" s="9"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B58" s="2">
+        <v>78</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>1441</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>1442</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>1443</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>1444</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>1445</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K59" s="9"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B60" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K60" s="9"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B61" s="2">
+        <v>79</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>1447</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>1448</v>
+      </c>
+      <c r="J61" s="10" t="s">
+        <v>1449</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K62" s="9"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B63" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K63" s="9"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B64" s="2">
+        <v>80</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>1455</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>1456</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>1457</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>1458</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>1459</v>
+      </c>
+      <c r="K64" s="8" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K65" s="9"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B66" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K66" s="9"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B67" s="2">
+        <v>81</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>1465</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="J67" s="10" t="s">
+        <v>1467</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K68" s="9"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B70" s="2">
+        <v>82</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="J70" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="K70" s="8" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B71" s="9"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="9" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B72" s="9"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4">
+        <v>0</v>
+      </c>
+      <c r="K72" s="11" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B73" s="9"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4">
+        <v>1</v>
+      </c>
+      <c r="K73" s="11" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B74" s="9"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="11"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B75" s="9"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="11" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B76" s="9"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4">
+        <v>0</v>
+      </c>
+      <c r="J76" s="4"/>
+      <c r="K76" s="11" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B77" s="9"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4">
+        <v>1</v>
+      </c>
+      <c r="J77" s="4"/>
+      <c r="K77" s="11" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B78" s="9"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="11"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B79" s="9"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="11" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B80" s="9"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4">
+        <v>0</v>
+      </c>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="11" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B81" s="9"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4">
+        <v>1</v>
+      </c>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="11" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B82" s="9"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="11"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B83" s="9"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="11" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B84" s="9"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4">
+        <v>0</v>
+      </c>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="11" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B85" s="9"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4">
+        <v>1</v>
+      </c>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="11" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K86" s="18"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B87" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B88" s="2">
+        <v>77</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0</v>
+      </c>
+      <c r="D88" s="3">
+        <v>0</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="H88" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="I88" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="J88" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="K88" s="8" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B89" s="9"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="11" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B90" s="9"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="K90" s="11" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B91" s="9"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="J91" s="4"/>
+      <c r="K91" s="11" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B92" s="9"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="11" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B93" s="9"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="11" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B94" s="9"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="11"/>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B95" s="9"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="11" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B96" s="9"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4">
+        <v>0</v>
+      </c>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="11" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B97" s="9"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4">
+        <v>1</v>
+      </c>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="11" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K98" s="12"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B99" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B100" s="2">
+        <v>78</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="G100" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="H100" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="I100" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="J100" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="K100" s="8" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K101" s="9"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B102" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B103" s="2">
+        <v>79</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>658</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="F103" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="G103" s="10" t="s">
+        <v>662</v>
+      </c>
+      <c r="H103" s="10" t="s">
+        <v>663</v>
+      </c>
+      <c r="I103" s="10" t="s">
+        <v>664</v>
+      </c>
+      <c r="J103" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="K103" s="16" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K104" s="9"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B105" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J105" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B106" s="2">
+        <v>80</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="E106" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="F106" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="G106" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="H106" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="I106" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="J106" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="K106" s="16" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K107" s="9"/>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B108" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B109" s="2">
+        <v>81</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="F109" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="G109" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="H109" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="I109" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="J109" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="K109" s="16" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K110" s="9"/>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B111" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B112" s="2">
+        <v>82</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="F112" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="G112" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="H112" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="I112" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="J112" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="K112" s="16" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K113" s="9"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B114" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I114" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B115" s="2">
+        <v>83</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="F115" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="G115" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="H115" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="I115" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="J115" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="K115" s="16" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K116" s="9"/>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B117" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I117" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J117" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B118" s="2">
+        <v>84</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="F118" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="G118" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="H118" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="I118" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="J118" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="K118" s="16" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K119" s="9"/>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B120" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I120" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B121" s="2">
+        <v>85</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="F121" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="G121" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="H121" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="I121" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="J121" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="K121" s="16" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K122" s="9"/>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B123" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I123" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J123" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B124" s="2">
+        <v>86</v>
+      </c>
+      <c r="C124" s="10">
+        <v>0</v>
+      </c>
+      <c r="D124" s="10">
+        <v>0</v>
+      </c>
+      <c r="E124" s="10">
+        <v>0</v>
+      </c>
+      <c r="F124" s="10">
+        <v>0</v>
+      </c>
+      <c r="G124" s="10">
+        <v>0</v>
+      </c>
+      <c r="H124" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="I124" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="J124" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="K124" s="16" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K125" s="9" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="K126" s="9"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/msx3gen/v9978/files/v99x8_spec_registers.xlsx
+++ b/msx3gen/v9978/files/v99x8_spec_registers.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3994" uniqueCount="1476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4030" uniqueCount="1493">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -6736,18 +6736,6 @@
     <t>SYB8</t>
   </si>
   <si>
-    <t>Scroll X Position B (LOW) [ReBd/Write]</t>
-  </si>
-  <si>
-    <t>Scroll X Position B (HIGH) [ReBd/Write]</t>
-  </si>
-  <si>
-    <t>Scroll Y Position B (LOW) [ReBd/Write]</t>
-  </si>
-  <si>
-    <t>Scroll Y Position B (HIGH) [ReBd/Write]</t>
-  </si>
-  <si>
     <t>SXC7</t>
   </si>
   <si>
@@ -6772,9 +6760,6 @@
     <t>SXC0</t>
   </si>
   <si>
-    <t>Scroll X Position C (LOW) [ReCd/Write]</t>
-  </si>
-  <si>
     <t>SXC10</t>
   </si>
   <si>
@@ -6784,9 +6769,6 @@
     <t>SXC8</t>
   </si>
   <si>
-    <t>Scroll X Position C (HIGH) [ReCd/Write]</t>
-  </si>
-  <si>
     <t>SYC7</t>
   </si>
   <si>
@@ -6811,9 +6793,6 @@
     <t>SYC0</t>
   </si>
   <si>
-    <t>Scroll Y Position C (LOW) [ReCd/Write]</t>
-  </si>
-  <si>
     <t>SYC10</t>
   </si>
   <si>
@@ -6823,9 +6802,6 @@
     <t>SYC8</t>
   </si>
   <si>
-    <t>Scroll Y Position C (HIGH) [ReCd/Write]</t>
-  </si>
-  <si>
     <t>SXD7</t>
   </si>
   <si>
@@ -6850,9 +6826,6 @@
     <t>SXD0</t>
   </si>
   <si>
-    <t>Scroll X Position D (LOW) [ReDd/Write]</t>
-  </si>
-  <si>
     <t>SXD10</t>
   </si>
   <si>
@@ -6862,9 +6835,6 @@
     <t>SXD8</t>
   </si>
   <si>
-    <t>Scroll X Position D (HIGH) [ReDd/Write]</t>
-  </si>
-  <si>
     <t>SYD7</t>
   </si>
   <si>
@@ -6889,9 +6859,6 @@
     <t>SYD0</t>
   </si>
   <si>
-    <t>Scroll Y Position D (LOW) [ReDd/Write]</t>
-  </si>
-  <si>
     <t>SYD10</t>
   </si>
   <si>
@@ -6899,9 +6866,6 @@
   </si>
   <si>
     <t>SYD8</t>
-  </si>
-  <si>
-    <t>Scroll Y Position D (HIGH) [ReDd/Write]</t>
   </si>
   <si>
     <t>Source X (LOW) [Read/Write]</t>
@@ -7134,6 +7098,101 @@
   <si>
     <t>ライトインクリメントあり</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BD7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BD6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BD3</t>
+  </si>
+  <si>
+    <t>BD2</t>
+  </si>
+  <si>
+    <t>BD1</t>
+  </si>
+  <si>
+    <t>BD0</t>
+  </si>
+  <si>
+    <t>BD15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BD14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BD13</t>
+  </si>
+  <si>
+    <t>BD12</t>
+  </si>
+  <si>
+    <t>BD11</t>
+  </si>
+  <si>
+    <t>BD10</t>
+  </si>
+  <si>
+    <t>BD9</t>
+  </si>
+  <si>
+    <t>BD8</t>
+  </si>
+  <si>
+    <t>Back Drop Color Register (LOW) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Back Drop Color Register (HIGH) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Palette Pointer [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scroll Y Position D (HIGH) [Read/Write]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Scroll X Position D (LOW) [Read/Write]</t>
+  </si>
+  <si>
+    <t>Scroll X Position D (HIGH) [Read/Write]</t>
+  </si>
+  <si>
+    <t>Scroll Y Position D (LOW) [Read/Write]</t>
+  </si>
+  <si>
+    <t>Scroll X Position C (LOW) [Read/Write]</t>
+  </si>
+  <si>
+    <t>Scroll X Position C (HIGH) [Read/Write]</t>
+  </si>
+  <si>
+    <t>Scroll Y Position C (LOW) [Read/Write]</t>
+  </si>
+  <si>
+    <t>Scroll Y Position C (HIGH) [Read/Write]</t>
+  </si>
+  <si>
+    <t>Scroll X Position B (LOW) [Read/Write]</t>
+  </si>
+  <si>
+    <t>Scroll X Position B (HIGH) [Read/Write]</t>
+  </si>
+  <si>
+    <t>Scroll Y Position B (LOW) [Read/Write]</t>
+  </si>
+  <si>
+    <t>Scroll Y Position B (HIGH) [Read/Write]</t>
   </si>
 </sst>
 </file>
@@ -13804,7 +13863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K235"/>
   <sheetViews>
-    <sheetView topLeftCell="A152" workbookViewId="0">
+    <sheetView topLeftCell="A161" workbookViewId="0">
       <selection activeCell="I190" sqref="I190"/>
     </sheetView>
   </sheetViews>
@@ -20053,7 +20112,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>1468</v>
+        <v>1456</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>1017</v>
@@ -20597,10 +20656,10 @@
         <v>1046</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>1469</v>
+        <v>1457</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>1470</v>
+        <v>1458</v>
       </c>
       <c r="E56" s="10">
         <v>0</v>
@@ -20698,7 +20757,7 @@
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="11" t="s">
-        <v>1471</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.15">
@@ -20715,7 +20774,7 @@
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="11" t="s">
-        <v>1472</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.15">
@@ -20732,7 +20791,7 @@
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="11" t="s">
-        <v>1473</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.15">
@@ -20749,7 +20808,7 @@
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="11" t="s">
-        <v>1474</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.15">
@@ -20766,7 +20825,7 @@
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="11" t="s">
-        <v>1475</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.15">
@@ -21402,10 +21461,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K290"/>
+  <dimension ref="B2:K296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A267" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K292" sqref="K292"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N197" sqref="N197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -24926,7 +24985,7 @@
         <v>1338</v>
       </c>
       <c r="K228" s="25" t="s">
-        <v>1353</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="229" spans="2:11" x14ac:dyDescent="0.15">
@@ -24996,7 +25055,7 @@
         <v>1341</v>
       </c>
       <c r="K232" s="25" t="s">
-        <v>1354</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="233" spans="2:11" x14ac:dyDescent="0.15">
@@ -25062,7 +25121,7 @@
         <v>1349</v>
       </c>
       <c r="K236" s="25" t="s">
-        <v>1355</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="237" spans="2:11" x14ac:dyDescent="0.15">
@@ -25140,7 +25199,7 @@
         <v>1352</v>
       </c>
       <c r="K240" s="25" t="s">
-        <v>1356</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="241" spans="2:11" x14ac:dyDescent="0.15">
@@ -25183,31 +25242,31 @@
         <v>38</v>
       </c>
       <c r="C244" s="23" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D244" s="23" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E244" s="23" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F244" s="23" t="s">
+        <v>1356</v>
+      </c>
+      <c r="G244" s="23" t="s">
         <v>1357</v>
       </c>
-      <c r="D244" s="23" t="s">
+      <c r="H244" s="23" t="s">
         <v>1358</v>
       </c>
-      <c r="E244" s="23" t="s">
+      <c r="I244" s="23" t="s">
         <v>1359</v>
       </c>
-      <c r="F244" s="23" t="s">
+      <c r="J244" s="23" t="s">
         <v>1360</v>
       </c>
-      <c r="G244" s="23" t="s">
-        <v>1361</v>
-      </c>
-      <c r="H244" s="23" t="s">
-        <v>1362</v>
-      </c>
-      <c r="I244" s="23" t="s">
-        <v>1363</v>
-      </c>
-      <c r="J244" s="23" t="s">
-        <v>1364</v>
-      </c>
       <c r="K244" s="25" t="s">
-        <v>1365</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="245" spans="2:11" x14ac:dyDescent="0.15">
@@ -25268,16 +25327,16 @@
         <v>0</v>
       </c>
       <c r="H248" s="23" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="I248" s="23" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="J248" s="23" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="K248" s="25" t="s">
-        <v>1369</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="249" spans="2:11" x14ac:dyDescent="0.15">
@@ -25319,31 +25378,31 @@
         <v>40</v>
       </c>
       <c r="C252" s="23" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D252" s="23" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E252" s="23" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F252" s="23" t="s">
+        <v>1367</v>
+      </c>
+      <c r="G252" s="23" t="s">
+        <v>1368</v>
+      </c>
+      <c r="H252" s="23" t="s">
+        <v>1369</v>
+      </c>
+      <c r="I252" s="23" t="s">
         <v>1370</v>
       </c>
-      <c r="D252" s="23" t="s">
+      <c r="J252" s="23" t="s">
         <v>1371</v>
       </c>
-      <c r="E252" s="23" t="s">
-        <v>1372</v>
-      </c>
-      <c r="F252" s="23" t="s">
-        <v>1373</v>
-      </c>
-      <c r="G252" s="23" t="s">
-        <v>1374</v>
-      </c>
-      <c r="H252" s="23" t="s">
-        <v>1375</v>
-      </c>
-      <c r="I252" s="23" t="s">
-        <v>1376</v>
-      </c>
-      <c r="J252" s="23" t="s">
-        <v>1377</v>
-      </c>
       <c r="K252" s="25" t="s">
-        <v>1378</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="253" spans="2:11" x14ac:dyDescent="0.15">
@@ -25412,16 +25471,16 @@
         <v>0</v>
       </c>
       <c r="H256" s="23" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="I256" s="23" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="J256" s="23" t="s">
-        <v>1381</v>
+        <v>1374</v>
       </c>
       <c r="K256" s="25" t="s">
-        <v>1382</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="257" spans="2:11" x14ac:dyDescent="0.15">
@@ -25464,31 +25523,31 @@
         <v>42</v>
       </c>
       <c r="C260" s="23" t="s">
-        <v>1383</v>
+        <v>1375</v>
       </c>
       <c r="D260" s="23" t="s">
-        <v>1384</v>
+        <v>1376</v>
       </c>
       <c r="E260" s="23" t="s">
-        <v>1385</v>
+        <v>1377</v>
       </c>
       <c r="F260" s="23" t="s">
-        <v>1386</v>
+        <v>1378</v>
       </c>
       <c r="G260" s="23" t="s">
-        <v>1387</v>
+        <v>1379</v>
       </c>
       <c r="H260" s="23" t="s">
-        <v>1388</v>
+        <v>1380</v>
       </c>
       <c r="I260" s="23" t="s">
-        <v>1389</v>
+        <v>1381</v>
       </c>
       <c r="J260" s="23" t="s">
-        <v>1390</v>
+        <v>1382</v>
       </c>
       <c r="K260" s="25" t="s">
-        <v>1391</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="261" spans="2:11" x14ac:dyDescent="0.15">
@@ -25549,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="H264" s="23" t="s">
-        <v>1392</v>
+        <v>1383</v>
       </c>
       <c r="I264" s="23" t="s">
-        <v>1393</v>
+        <v>1384</v>
       </c>
       <c r="J264" s="23" t="s">
-        <v>1394</v>
+        <v>1385</v>
       </c>
       <c r="K264" s="25" t="s">
-        <v>1395</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="265" spans="2:11" x14ac:dyDescent="0.15">
@@ -25600,31 +25659,31 @@
         <v>44</v>
       </c>
       <c r="C268" s="23" t="s">
-        <v>1396</v>
+        <v>1386</v>
       </c>
       <c r="D268" s="23" t="s">
-        <v>1397</v>
+        <v>1387</v>
       </c>
       <c r="E268" s="23" t="s">
-        <v>1398</v>
+        <v>1388</v>
       </c>
       <c r="F268" s="23" t="s">
-        <v>1399</v>
+        <v>1389</v>
       </c>
       <c r="G268" s="23" t="s">
-        <v>1400</v>
+        <v>1390</v>
       </c>
       <c r="H268" s="23" t="s">
-        <v>1401</v>
+        <v>1391</v>
       </c>
       <c r="I268" s="23" t="s">
-        <v>1402</v>
+        <v>1392</v>
       </c>
       <c r="J268" s="23" t="s">
-        <v>1403</v>
+        <v>1393</v>
       </c>
       <c r="K268" s="25" t="s">
-        <v>1404</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="269" spans="2:11" x14ac:dyDescent="0.15">
@@ -25693,16 +25752,16 @@
         <v>0</v>
       </c>
       <c r="H272" s="23" t="s">
-        <v>1405</v>
+        <v>1394</v>
       </c>
       <c r="I272" s="23" t="s">
-        <v>1406</v>
+        <v>1395</v>
       </c>
       <c r="J272" s="23" t="s">
-        <v>1407</v>
+        <v>1396</v>
       </c>
       <c r="K272" s="25" t="s">
-        <v>1408</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="273" spans="2:11" x14ac:dyDescent="0.15">
@@ -25863,7 +25922,7 @@
         <v>900</v>
       </c>
       <c r="K282" s="25" t="s">
-        <v>901</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="283" spans="2:11" x14ac:dyDescent="0.15">
@@ -25958,7 +26017,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="289" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="289" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C289" s="28"/>
       <c r="D289" s="28"/>
       <c r="E289" s="28"/>
@@ -25969,7 +26028,7 @@
       <c r="J289" s="28"/>
       <c r="K289" s="28"/>
     </row>
-    <row r="290" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="290" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C290" s="28" t="s">
         <v>167</v>
       </c>
@@ -25992,6 +26051,128 @@
       <c r="J290" s="28"/>
       <c r="K290" s="28" t="s">
         <v>914</v>
+      </c>
+    </row>
+    <row r="292" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B292" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D292" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E292" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F292" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G292" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H292" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I292" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J292" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="293" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B293" s="2">
+        <v>48</v>
+      </c>
+      <c r="C293" s="23" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D293" s="23" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E293" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F293" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G293" s="23" t="s">
+        <v>1466</v>
+      </c>
+      <c r="H293" s="23" t="s">
+        <v>1467</v>
+      </c>
+      <c r="I293" s="23" t="s">
+        <v>1468</v>
+      </c>
+      <c r="J293" s="23" t="s">
+        <v>1469</v>
+      </c>
+      <c r="K293" s="25" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="295" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B295" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C295" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D295" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E295" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F295" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G295" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H295" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I295" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J295" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="296" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B296" s="2">
+        <v>49</v>
+      </c>
+      <c r="C296" s="23" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D296" s="23" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E296" s="23" t="s">
+        <v>1472</v>
+      </c>
+      <c r="F296" s="23" t="s">
+        <v>1473</v>
+      </c>
+      <c r="G296" s="23" t="s">
+        <v>1474</v>
+      </c>
+      <c r="H296" s="23" t="s">
+        <v>1475</v>
+      </c>
+      <c r="I296" s="23" t="s">
+        <v>1476</v>
+      </c>
+      <c r="J296" s="23" t="s">
+        <v>1477</v>
+      </c>
+      <c r="K296" s="25" t="s">
+        <v>1479</v>
       </c>
     </row>
   </sheetData>
@@ -26079,7 +26260,7 @@
         <v>287</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>1409</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
@@ -26172,7 +26353,7 @@
         <v>295</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>1410</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.15">
@@ -26237,7 +26418,7 @@
         <v>304</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>1411</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.15">
@@ -26330,7 +26511,7 @@
         <v>305</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>1412</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.15">
@@ -26423,7 +26604,7 @@
         <v>313</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>1413</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.15">
@@ -26516,7 +26697,7 @@
         <v>321</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>1414</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.15">
@@ -26581,7 +26762,7 @@
         <v>322</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>1415</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.15">
@@ -26674,7 +26855,7 @@
         <v>330</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>1416</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.15">
@@ -26767,7 +26948,7 @@
         <v>339</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>1417</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.15">
@@ -26888,7 +27069,7 @@
         <v>340</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>1418</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.15">
@@ -26973,7 +27154,7 @@
         <v>348</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>1419</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.15">
@@ -27094,7 +27275,7 @@
         <v>350</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>1420</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.15">
@@ -27191,31 +27372,31 @@
         <v>76</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>1423</v>
+        <v>1411</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>1424</v>
+        <v>1412</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>1425</v>
+        <v>1413</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>1426</v>
+        <v>1414</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>1427</v>
+        <v>1415</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>1428</v>
+        <v>1416</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>1429</v>
+        <v>1417</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>1430</v>
+        <v>1418</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>1434</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.15">
@@ -27271,16 +27452,16 @@
         <v>0</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>1431</v>
+        <v>1419</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>1432</v>
+        <v>1420</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>1433</v>
+        <v>1421</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>1435</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.15">
@@ -27321,31 +27502,31 @@
         <v>78</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>1438</v>
+        <v>1426</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>1439</v>
+        <v>1427</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>1440</v>
+        <v>1428</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>1441</v>
+        <v>1429</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>1442</v>
+        <v>1430</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>1443</v>
+        <v>1431</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>1444</v>
+        <v>1432</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>1445</v>
+        <v>1433</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>1436</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.15">
@@ -27398,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>1446</v>
+        <v>1434</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>1447</v>
+        <v>1435</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>1448</v>
+        <v>1436</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>1449</v>
+        <v>1437</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>1437</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.15">
@@ -27451,31 +27632,31 @@
         <v>80</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>1452</v>
+        <v>1440</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>1453</v>
+        <v>1441</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>1454</v>
+        <v>1442</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>1455</v>
+        <v>1443</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>1456</v>
+        <v>1444</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>1457</v>
+        <v>1445</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>1458</v>
+        <v>1446</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>1459</v>
+        <v>1447</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>1451</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.15">
@@ -27516,31 +27697,31 @@
         <v>81</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>1460</v>
+        <v>1448</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>1461</v>
+        <v>1449</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>1462</v>
+        <v>1450</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>1463</v>
+        <v>1451</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>1464</v>
+        <v>1452</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>1465</v>
+        <v>1453</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>1466</v>
+        <v>1454</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>1467</v>
+        <v>1455</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.15">
@@ -27604,7 +27785,7 @@
         <v>365</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>1421</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.15">
@@ -27888,7 +28069,7 @@
         <v>639</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>1422</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.15">
